--- a/data-raw/baltimore.xlsx
+++ b/data-raw/baltimore.xlsx
@@ -8,16 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://brookingsinstitution-my.sharepoint.com/personal/cgeorge_brookings_edu/Documents/Caroline R/economic-values-atlas/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="145" documentId="8_{7E727825-FFEA-4C1B-8736-24A2A11E51D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{7F3AF9E7-EB9E-4ABB-B946-9FDAB6C01BE2}"/>
+  <xr:revisionPtr revIDLastSave="175" documentId="8_{7E727825-FFEA-4C1B-8736-24A2A11E51D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{9625A89F-DD61-4AEC-8C6A-AED3AC66486F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16690" yWindow="-350" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet2 (2)" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$M$212</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Sheet2 (2)'!$A$1:$M$212</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="50">
   <si>
     <t>tract_string</t>
   </si>
@@ -178,6 +180,12 @@
   </si>
   <si>
     <t>Bayview and Greektown</t>
+  </si>
+  <si>
+    <t>sum</t>
+  </si>
+  <si>
+    <t>Corridor</t>
   </si>
 </sst>
 </file>
@@ -1201,11 +1209,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M212"/>
+  <dimension ref="A1:N212"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A191" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O209" sqref="O209"/>
+      <pane ySplit="1" topLeftCell="A198" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A212" sqref="A212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1214,6 +1222,9360 @@
     <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>24510010200</v>
+      </c>
+      <c r="B2">
+        <v>241</v>
+      </c>
+      <c r="C2">
+        <v>18</v>
+      </c>
+      <c r="D2">
+        <v>7</v>
+      </c>
+      <c r="E2">
+        <v>-94</v>
+      </c>
+      <c r="F2">
+        <v>106250</v>
+      </c>
+      <c r="G2">
+        <v>23851</v>
+      </c>
+      <c r="H2">
+        <v>5</v>
+      </c>
+      <c r="I2">
+        <v>10</v>
+      </c>
+      <c r="J2">
+        <v>-169</v>
+      </c>
+      <c r="K2">
+        <v>4</v>
+      </c>
+      <c r="L2">
+        <v>314355</v>
+      </c>
+      <c r="M2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>24510040100</v>
+      </c>
+      <c r="B3">
+        <v>66542</v>
+      </c>
+      <c r="C3">
+        <v>8958</v>
+      </c>
+      <c r="D3">
+        <v>11267</v>
+      </c>
+      <c r="E3">
+        <v>998</v>
+      </c>
+      <c r="F3">
+        <v>64016</v>
+      </c>
+      <c r="G3">
+        <v>11981</v>
+      </c>
+      <c r="H3">
+        <v>12</v>
+      </c>
+      <c r="I3">
+        <v>58</v>
+      </c>
+      <c r="J3">
+        <v>877</v>
+      </c>
+      <c r="K3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" t="s">
+        <v>13</v>
+      </c>
+      <c r="M3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>24510040200</v>
+      </c>
+      <c r="B4">
+        <v>8702</v>
+      </c>
+      <c r="C4">
+        <v>-8736</v>
+      </c>
+      <c r="D4">
+        <v>-4370</v>
+      </c>
+      <c r="E4">
+        <v>-52</v>
+      </c>
+      <c r="F4">
+        <v>43417</v>
+      </c>
+      <c r="G4">
+        <v>20417</v>
+      </c>
+      <c r="H4">
+        <v>25</v>
+      </c>
+      <c r="I4">
+        <v>56</v>
+      </c>
+      <c r="J4">
+        <v>-47</v>
+      </c>
+      <c r="K4" t="s">
+        <v>13</v>
+      </c>
+      <c r="L4" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" t="s">
+        <v>15</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>24510090300</v>
+      </c>
+      <c r="B5">
+        <v>424</v>
+      </c>
+      <c r="C5">
+        <v>163</v>
+      </c>
+      <c r="D5">
+        <v>80</v>
+      </c>
+      <c r="E5">
+        <v>190</v>
+      </c>
+      <c r="F5">
+        <v>49722</v>
+      </c>
+      <c r="G5">
+        <v>16753</v>
+      </c>
+      <c r="H5">
+        <v>23</v>
+      </c>
+      <c r="I5">
+        <v>71</v>
+      </c>
+      <c r="J5">
+        <v>-55</v>
+      </c>
+      <c r="K5">
+        <v>8</v>
+      </c>
+      <c r="L5">
+        <v>127850</v>
+      </c>
+      <c r="M5" t="s">
+        <v>16</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>24510090400</v>
+      </c>
+      <c r="B6">
+        <v>673</v>
+      </c>
+      <c r="C6">
+        <v>220</v>
+      </c>
+      <c r="D6">
+        <v>259</v>
+      </c>
+      <c r="E6">
+        <v>-49</v>
+      </c>
+      <c r="F6">
+        <v>32276</v>
+      </c>
+      <c r="G6">
+        <v>5501</v>
+      </c>
+      <c r="H6">
+        <v>36</v>
+      </c>
+      <c r="I6">
+        <v>93</v>
+      </c>
+      <c r="J6">
+        <v>-71</v>
+      </c>
+      <c r="K6">
+        <v>6</v>
+      </c>
+      <c r="L6">
+        <v>61283</v>
+      </c>
+      <c r="M6" t="s">
+        <v>46</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>24510090500</v>
+      </c>
+      <c r="B7">
+        <v>1526</v>
+      </c>
+      <c r="C7">
+        <v>-191</v>
+      </c>
+      <c r="D7">
+        <v>49</v>
+      </c>
+      <c r="E7">
+        <v>-341</v>
+      </c>
+      <c r="F7">
+        <v>44229</v>
+      </c>
+      <c r="G7">
+        <v>6729</v>
+      </c>
+      <c r="H7">
+        <v>21</v>
+      </c>
+      <c r="I7">
+        <v>78</v>
+      </c>
+      <c r="J7">
+        <v>33</v>
+      </c>
+      <c r="K7">
+        <v>9</v>
+      </c>
+      <c r="L7">
+        <v>174841</v>
+      </c>
+      <c r="M7" t="s">
+        <v>16</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>24510090800</v>
+      </c>
+      <c r="B8">
+        <v>1151</v>
+      </c>
+      <c r="C8">
+        <v>-143</v>
+      </c>
+      <c r="D8">
+        <v>-3</v>
+      </c>
+      <c r="E8">
+        <v>-670</v>
+      </c>
+      <c r="F8">
+        <v>30972</v>
+      </c>
+      <c r="G8">
+        <v>6037</v>
+      </c>
+      <c r="H8">
+        <v>35</v>
+      </c>
+      <c r="I8">
+        <v>97</v>
+      </c>
+      <c r="J8">
+        <v>-170</v>
+      </c>
+      <c r="K8">
+        <v>18</v>
+      </c>
+      <c r="L8">
+        <v>38885</v>
+      </c>
+      <c r="M8" t="s">
+        <v>17</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>24510120201</v>
+      </c>
+      <c r="B9">
+        <v>406</v>
+      </c>
+      <c r="C9">
+        <v>18</v>
+      </c>
+      <c r="D9">
+        <v>16</v>
+      </c>
+      <c r="E9">
+        <v>52</v>
+      </c>
+      <c r="F9">
+        <v>87500</v>
+      </c>
+      <c r="G9">
+        <v>34327</v>
+      </c>
+      <c r="H9">
+        <v>14</v>
+      </c>
+      <c r="I9">
+        <v>25</v>
+      </c>
+      <c r="J9">
+        <v>-38</v>
+      </c>
+      <c r="K9">
+        <v>11</v>
+      </c>
+      <c r="L9">
+        <v>239816</v>
+      </c>
+      <c r="M9" t="s">
+        <v>16</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>24510120300</v>
+      </c>
+      <c r="B10">
+        <v>552</v>
+      </c>
+      <c r="C10">
+        <v>-3</v>
+      </c>
+      <c r="D10">
+        <v>37</v>
+      </c>
+      <c r="E10">
+        <v>809</v>
+      </c>
+      <c r="F10">
+        <v>56750</v>
+      </c>
+      <c r="G10">
+        <v>17037</v>
+      </c>
+      <c r="H10">
+        <v>20</v>
+      </c>
+      <c r="I10">
+        <v>55</v>
+      </c>
+      <c r="J10">
+        <v>-54</v>
+      </c>
+      <c r="K10">
+        <v>11</v>
+      </c>
+      <c r="L10">
+        <v>217879</v>
+      </c>
+      <c r="M10" t="s">
+        <v>46</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>24510120400</v>
+      </c>
+      <c r="B11">
+        <v>199</v>
+      </c>
+      <c r="C11">
+        <v>-31</v>
+      </c>
+      <c r="D11">
+        <v>10</v>
+      </c>
+      <c r="E11">
+        <v>61</v>
+      </c>
+      <c r="F11">
+        <v>38445</v>
+      </c>
+      <c r="G11">
+        <v>3630</v>
+      </c>
+      <c r="H11">
+        <v>32</v>
+      </c>
+      <c r="I11">
+        <v>68</v>
+      </c>
+      <c r="J11">
+        <v>-17</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>52109</v>
+      </c>
+      <c r="M11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>24510140200</v>
+      </c>
+      <c r="B12">
+        <v>391</v>
+      </c>
+      <c r="C12">
+        <v>-678</v>
+      </c>
+      <c r="D12">
+        <v>-160</v>
+      </c>
+      <c r="E12">
+        <v>40</v>
+      </c>
+      <c r="F12">
+        <v>23295</v>
+      </c>
+      <c r="G12">
+        <v>5989</v>
+      </c>
+      <c r="H12">
+        <v>59</v>
+      </c>
+      <c r="I12">
+        <v>96</v>
+      </c>
+      <c r="J12">
+        <v>-80</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>249616</v>
+      </c>
+      <c r="M12" t="s">
+        <v>18</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>24510140300</v>
+      </c>
+      <c r="B13">
+        <v>186</v>
+      </c>
+      <c r="C13">
+        <v>-108</v>
+      </c>
+      <c r="D13">
+        <v>-13</v>
+      </c>
+      <c r="E13">
+        <v>-129</v>
+      </c>
+      <c r="F13">
+        <v>37917</v>
+      </c>
+      <c r="G13">
+        <v>15305</v>
+      </c>
+      <c r="H13">
+        <v>22</v>
+      </c>
+      <c r="I13">
+        <v>93</v>
+      </c>
+      <c r="J13">
+        <v>-149</v>
+      </c>
+      <c r="K13">
+        <v>17</v>
+      </c>
+      <c r="L13">
+        <v>61377</v>
+      </c>
+      <c r="M13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>24510150100</v>
+      </c>
+      <c r="B14">
+        <v>233</v>
+      </c>
+      <c r="C14">
+        <v>-13</v>
+      </c>
+      <c r="D14">
+        <v>8</v>
+      </c>
+      <c r="E14">
+        <v>-454</v>
+      </c>
+      <c r="F14">
+        <v>17371</v>
+      </c>
+      <c r="G14">
+        <v>-1457</v>
+      </c>
+      <c r="H14">
+        <v>44</v>
+      </c>
+      <c r="I14">
+        <v>95</v>
+      </c>
+      <c r="J14">
+        <v>-166</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>62195</v>
+      </c>
+      <c r="M14" t="s">
+        <v>18</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>24510150800</v>
+      </c>
+      <c r="B15">
+        <v>453</v>
+      </c>
+      <c r="C15">
+        <v>71</v>
+      </c>
+      <c r="D15">
+        <v>-14</v>
+      </c>
+      <c r="E15">
+        <v>461</v>
+      </c>
+      <c r="F15">
+        <v>36446</v>
+      </c>
+      <c r="G15">
+        <v>2370</v>
+      </c>
+      <c r="H15">
+        <v>24</v>
+      </c>
+      <c r="I15">
+        <v>99</v>
+      </c>
+      <c r="J15">
+        <v>192</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>173640</v>
+      </c>
+      <c r="M15" t="s">
+        <v>19</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>24510150900</v>
+      </c>
+      <c r="B16">
+        <v>46</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>452</v>
+      </c>
+      <c r="F16">
+        <v>56530</v>
+      </c>
+      <c r="G16">
+        <v>12861</v>
+      </c>
+      <c r="H16">
+        <v>19</v>
+      </c>
+      <c r="I16">
+        <v>96</v>
+      </c>
+      <c r="J16">
+        <v>207</v>
+      </c>
+      <c r="K16" t="s">
+        <v>13</v>
+      </c>
+      <c r="L16" t="s">
+        <v>13</v>
+      </c>
+      <c r="M16" t="s">
+        <v>19</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>24510151000</v>
+      </c>
+      <c r="B17">
+        <v>645</v>
+      </c>
+      <c r="C17">
+        <v>-101</v>
+      </c>
+      <c r="D17">
+        <v>-8</v>
+      </c>
+      <c r="E17">
+        <v>324</v>
+      </c>
+      <c r="F17">
+        <v>43257</v>
+      </c>
+      <c r="G17">
+        <v>9458</v>
+      </c>
+      <c r="H17">
+        <v>22</v>
+      </c>
+      <c r="I17">
+        <v>99</v>
+      </c>
+      <c r="J17">
+        <v>82</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>83625</v>
+      </c>
+      <c r="M17" t="s">
+        <v>19</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>24510151100</v>
+      </c>
+      <c r="B18">
+        <v>397</v>
+      </c>
+      <c r="C18">
+        <v>55</v>
+      </c>
+      <c r="D18">
+        <v>49</v>
+      </c>
+      <c r="E18">
+        <v>181</v>
+      </c>
+      <c r="F18">
+        <v>52334</v>
+      </c>
+      <c r="G18">
+        <v>11490</v>
+      </c>
+      <c r="H18">
+        <v>18</v>
+      </c>
+      <c r="I18">
+        <v>98</v>
+      </c>
+      <c r="J18">
+        <v>-126</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>329550</v>
+      </c>
+      <c r="M18" t="s">
+        <v>19</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>24510160100</v>
+      </c>
+      <c r="B19">
+        <v>26</v>
+      </c>
+      <c r="C19">
+        <v>-30</v>
+      </c>
+      <c r="D19">
+        <v>-5</v>
+      </c>
+      <c r="E19">
+        <v>-338</v>
+      </c>
+      <c r="F19">
+        <v>29375</v>
+      </c>
+      <c r="G19">
+        <v>11205</v>
+      </c>
+      <c r="H19">
+        <v>29</v>
+      </c>
+      <c r="I19">
+        <v>95</v>
+      </c>
+      <c r="J19">
+        <v>-179</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>12000</v>
+      </c>
+      <c r="M19" t="s">
+        <v>18</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>24510160200</v>
+      </c>
+      <c r="B20">
+        <v>65</v>
+      </c>
+      <c r="C20">
+        <v>-5</v>
+      </c>
+      <c r="D20">
+        <v>9</v>
+      </c>
+      <c r="E20">
+        <v>-361</v>
+      </c>
+      <c r="F20">
+        <v>22881</v>
+      </c>
+      <c r="G20">
+        <v>-7469</v>
+      </c>
+      <c r="H20">
+        <v>50</v>
+      </c>
+      <c r="I20">
+        <v>97</v>
+      </c>
+      <c r="J20">
+        <v>-105</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>10000</v>
+      </c>
+      <c r="M20" t="s">
+        <v>18</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>24510170100</v>
+      </c>
+      <c r="B21">
+        <v>2397</v>
+      </c>
+      <c r="C21">
+        <v>1538</v>
+      </c>
+      <c r="D21">
+        <v>953</v>
+      </c>
+      <c r="E21">
+        <v>-64</v>
+      </c>
+      <c r="F21">
+        <v>31088</v>
+      </c>
+      <c r="G21">
+        <v>3038</v>
+      </c>
+      <c r="H21">
+        <v>23</v>
+      </c>
+      <c r="I21">
+        <v>70</v>
+      </c>
+      <c r="J21">
+        <v>-93</v>
+      </c>
+      <c r="K21">
+        <v>13</v>
+      </c>
+      <c r="L21">
+        <v>232792</v>
+      </c>
+      <c r="M21" t="s">
+        <v>15</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>24510170200</v>
+      </c>
+      <c r="B22">
+        <v>6506</v>
+      </c>
+      <c r="C22">
+        <v>638</v>
+      </c>
+      <c r="D22">
+        <v>1676</v>
+      </c>
+      <c r="E22">
+        <v>-207</v>
+      </c>
+      <c r="F22">
+        <v>13841</v>
+      </c>
+      <c r="G22">
+        <v>4229</v>
+      </c>
+      <c r="H22">
+        <v>49</v>
+      </c>
+      <c r="I22">
+        <v>89</v>
+      </c>
+      <c r="J22">
+        <v>-284</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>673100</v>
+      </c>
+      <c r="M22" t="s">
+        <v>18</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>24510170300</v>
+      </c>
+      <c r="B23">
+        <v>98</v>
+      </c>
+      <c r="C23">
+        <v>-17</v>
+      </c>
+      <c r="D23">
+        <v>-2</v>
+      </c>
+      <c r="E23">
+        <v>41</v>
+      </c>
+      <c r="F23">
+        <v>20884</v>
+      </c>
+      <c r="G23">
+        <v>-3434</v>
+      </c>
+      <c r="H23">
+        <v>40</v>
+      </c>
+      <c r="I23">
+        <v>98</v>
+      </c>
+      <c r="J23">
+        <v>38</v>
+      </c>
+      <c r="K23" t="s">
+        <v>13</v>
+      </c>
+      <c r="L23" t="s">
+        <v>13</v>
+      </c>
+      <c r="M23" t="s">
+        <v>18</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>24510180100</v>
+      </c>
+      <c r="B24">
+        <v>133</v>
+      </c>
+      <c r="C24">
+        <v>-22</v>
+      </c>
+      <c r="D24">
+        <v>24</v>
+      </c>
+      <c r="E24">
+        <v>66</v>
+      </c>
+      <c r="F24">
+        <v>15195</v>
+      </c>
+      <c r="G24">
+        <v>1957</v>
+      </c>
+      <c r="H24">
+        <v>58</v>
+      </c>
+      <c r="I24">
+        <v>100</v>
+      </c>
+      <c r="J24">
+        <v>73</v>
+      </c>
+      <c r="K24" t="s">
+        <v>13</v>
+      </c>
+      <c r="L24" t="s">
+        <v>13</v>
+      </c>
+      <c r="M24" t="s">
+        <v>20</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24510180200</v>
+      </c>
+      <c r="B25">
+        <v>534</v>
+      </c>
+      <c r="C25">
+        <v>-11</v>
+      </c>
+      <c r="D25">
+        <v>9</v>
+      </c>
+      <c r="E25">
+        <v>56</v>
+      </c>
+      <c r="F25">
+        <v>25398</v>
+      </c>
+      <c r="G25">
+        <v>8605</v>
+      </c>
+      <c r="H25">
+        <v>37</v>
+      </c>
+      <c r="I25">
+        <v>92</v>
+      </c>
+      <c r="J25">
+        <v>-29</v>
+      </c>
+      <c r="K25">
+        <v>11</v>
+      </c>
+      <c r="L25">
+        <v>31988</v>
+      </c>
+      <c r="M25" t="s">
+        <v>20</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>24510180300</v>
+      </c>
+      <c r="B26">
+        <v>395</v>
+      </c>
+      <c r="C26">
+        <v>85</v>
+      </c>
+      <c r="D26">
+        <v>131</v>
+      </c>
+      <c r="E26">
+        <v>210</v>
+      </c>
+      <c r="F26">
+        <v>50761</v>
+      </c>
+      <c r="G26">
+        <v>22904</v>
+      </c>
+      <c r="H26">
+        <v>25</v>
+      </c>
+      <c r="I26">
+        <v>56</v>
+      </c>
+      <c r="J26">
+        <v>-18</v>
+      </c>
+      <c r="K26">
+        <v>40</v>
+      </c>
+      <c r="L26">
+        <v>96766</v>
+      </c>
+      <c r="M26" t="s">
+        <v>20</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>24510190100</v>
+      </c>
+      <c r="B27">
+        <v>193</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>28</v>
+      </c>
+      <c r="E27">
+        <v>5</v>
+      </c>
+      <c r="F27">
+        <v>25190</v>
+      </c>
+      <c r="G27">
+        <v>-3456</v>
+      </c>
+      <c r="H27">
+        <v>49</v>
+      </c>
+      <c r="I27">
+        <v>97</v>
+      </c>
+      <c r="J27">
+        <v>82</v>
+      </c>
+      <c r="K27">
+        <v>10</v>
+      </c>
+      <c r="L27">
+        <v>95883</v>
+      </c>
+      <c r="M27" t="s">
+        <v>20</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>24510190200</v>
+      </c>
+      <c r="B28">
+        <v>51</v>
+      </c>
+      <c r="C28">
+        <v>-13</v>
+      </c>
+      <c r="D28">
+        <v>-6</v>
+      </c>
+      <c r="E28">
+        <v>-601</v>
+      </c>
+      <c r="F28">
+        <v>43878</v>
+      </c>
+      <c r="G28">
+        <v>2550</v>
+      </c>
+      <c r="H28">
+        <v>21</v>
+      </c>
+      <c r="I28">
+        <v>59</v>
+      </c>
+      <c r="J28">
+        <v>-69</v>
+      </c>
+      <c r="K28">
+        <v>15</v>
+      </c>
+      <c r="L28">
+        <v>92442</v>
+      </c>
+      <c r="M28" t="s">
+        <v>20</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>24510190300</v>
+      </c>
+      <c r="B29">
+        <v>154</v>
+      </c>
+      <c r="C29">
+        <v>-43</v>
+      </c>
+      <c r="D29">
+        <v>-6</v>
+      </c>
+      <c r="E29">
+        <v>-210</v>
+      </c>
+      <c r="F29">
+        <v>17925</v>
+      </c>
+      <c r="G29">
+        <v>-4700</v>
+      </c>
+      <c r="H29">
+        <v>55</v>
+      </c>
+      <c r="I29">
+        <v>71</v>
+      </c>
+      <c r="J29">
+        <v>-200</v>
+      </c>
+      <c r="K29">
+        <v>10</v>
+      </c>
+      <c r="L29">
+        <v>44809</v>
+      </c>
+      <c r="M29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>24510200600</v>
+      </c>
+      <c r="B30">
+        <v>865</v>
+      </c>
+      <c r="C30">
+        <v>-133</v>
+      </c>
+      <c r="D30">
+        <v>-26</v>
+      </c>
+      <c r="E30">
+        <v>-29</v>
+      </c>
+      <c r="F30">
+        <v>39159</v>
+      </c>
+      <c r="G30">
+        <v>4593</v>
+      </c>
+      <c r="H30">
+        <v>14</v>
+      </c>
+      <c r="I30">
+        <v>77</v>
+      </c>
+      <c r="J30">
+        <v>28</v>
+      </c>
+      <c r="K30">
+        <v>17</v>
+      </c>
+      <c r="L30">
+        <v>65517</v>
+      </c>
+      <c r="M30" t="s">
+        <v>21</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>24510200701</v>
+      </c>
+      <c r="B31">
+        <v>219</v>
+      </c>
+      <c r="C31">
+        <v>-26</v>
+      </c>
+      <c r="D31">
+        <v>21</v>
+      </c>
+      <c r="E31">
+        <v>144</v>
+      </c>
+      <c r="F31">
+        <v>39208</v>
+      </c>
+      <c r="G31">
+        <v>936</v>
+      </c>
+      <c r="H31">
+        <v>22</v>
+      </c>
+      <c r="I31">
+        <v>99</v>
+      </c>
+      <c r="J31">
+        <v>59</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>155600</v>
+      </c>
+      <c r="M31" t="s">
+        <v>21</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>24510200702</v>
+      </c>
+      <c r="B32">
+        <v>106</v>
+      </c>
+      <c r="C32">
+        <v>28</v>
+      </c>
+      <c r="D32">
+        <v>-1</v>
+      </c>
+      <c r="E32">
+        <v>-9</v>
+      </c>
+      <c r="F32">
+        <v>44830</v>
+      </c>
+      <c r="G32">
+        <v>13401</v>
+      </c>
+      <c r="H32">
+        <v>25</v>
+      </c>
+      <c r="I32">
+        <v>98</v>
+      </c>
+      <c r="J32">
+        <v>-87</v>
+      </c>
+      <c r="K32">
+        <v>4</v>
+      </c>
+      <c r="L32">
+        <v>72800</v>
+      </c>
+      <c r="M32" t="s">
+        <v>21</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>24510210100</v>
+      </c>
+      <c r="B33">
+        <v>4270</v>
+      </c>
+      <c r="C33">
+        <v>1494</v>
+      </c>
+      <c r="D33">
+        <v>737</v>
+      </c>
+      <c r="E33">
+        <v>236</v>
+      </c>
+      <c r="F33">
+        <v>72216</v>
+      </c>
+      <c r="G33">
+        <v>19994</v>
+      </c>
+      <c r="H33">
+        <v>17</v>
+      </c>
+      <c r="I33">
+        <v>63</v>
+      </c>
+      <c r="J33">
+        <v>26</v>
+      </c>
+      <c r="K33">
+        <v>39</v>
+      </c>
+      <c r="L33">
+        <v>243025</v>
+      </c>
+      <c r="M33" t="s">
+        <v>22</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>24510210200</v>
+      </c>
+      <c r="B34">
+        <v>4243</v>
+      </c>
+      <c r="C34">
+        <v>404</v>
+      </c>
+      <c r="D34">
+        <v>272</v>
+      </c>
+      <c r="E34">
+        <v>466</v>
+      </c>
+      <c r="F34">
+        <v>45909</v>
+      </c>
+      <c r="G34">
+        <v>5236</v>
+      </c>
+      <c r="H34">
+        <v>32</v>
+      </c>
+      <c r="I34">
+        <v>65</v>
+      </c>
+      <c r="J34">
+        <v>41</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>193300</v>
+      </c>
+      <c r="M34" t="s">
+        <v>22</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>24510010100</v>
+      </c>
+      <c r="B35">
+        <v>1071</v>
+      </c>
+      <c r="C35">
+        <v>18</v>
+      </c>
+      <c r="D35">
+        <v>13</v>
+      </c>
+      <c r="E35">
+        <v>95</v>
+      </c>
+      <c r="F35">
+        <v>125417</v>
+      </c>
+      <c r="G35">
+        <v>35115</v>
+      </c>
+      <c r="H35">
+        <v>4</v>
+      </c>
+      <c r="I35">
+        <v>9</v>
+      </c>
+      <c r="J35">
+        <v>2</v>
+      </c>
+      <c r="K35">
+        <v>28</v>
+      </c>
+      <c r="L35">
+        <v>408268</v>
+      </c>
+      <c r="M35" t="s">
+        <v>13</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>24510010300</v>
+      </c>
+      <c r="B36">
+        <v>152</v>
+      </c>
+      <c r="C36">
+        <v>-173</v>
+      </c>
+      <c r="D36">
+        <v>-140</v>
+      </c>
+      <c r="E36">
+        <v>143</v>
+      </c>
+      <c r="F36">
+        <v>142368</v>
+      </c>
+      <c r="G36">
+        <v>50897</v>
+      </c>
+      <c r="H36">
+        <v>5</v>
+      </c>
+      <c r="I36">
+        <v>8</v>
+      </c>
+      <c r="J36">
+        <v>-1</v>
+      </c>
+      <c r="K36" t="s">
+        <v>13</v>
+      </c>
+      <c r="L36">
+        <v>176300</v>
+      </c>
+      <c r="M36" t="s">
+        <v>13</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>24510010400</v>
+      </c>
+      <c r="B37">
+        <v>2343</v>
+      </c>
+      <c r="C37">
+        <v>392</v>
+      </c>
+      <c r="D37">
+        <v>290</v>
+      </c>
+      <c r="E37">
+        <v>447</v>
+      </c>
+      <c r="F37">
+        <v>122765</v>
+      </c>
+      <c r="G37">
+        <v>38598</v>
+      </c>
+      <c r="H37">
+        <v>4</v>
+      </c>
+      <c r="I37">
+        <v>17</v>
+      </c>
+      <c r="J37">
+        <v>106</v>
+      </c>
+      <c r="K37">
+        <v>136</v>
+      </c>
+      <c r="L37">
+        <v>367949</v>
+      </c>
+      <c r="M37" t="s">
+        <v>13</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>24510010500</v>
+      </c>
+      <c r="B38">
+        <v>90</v>
+      </c>
+      <c r="C38">
+        <v>32</v>
+      </c>
+      <c r="D38">
+        <v>23</v>
+      </c>
+      <c r="E38">
+        <v>-156</v>
+      </c>
+      <c r="F38">
+        <v>128227</v>
+      </c>
+      <c r="G38">
+        <v>32227</v>
+      </c>
+      <c r="H38">
+        <v>7</v>
+      </c>
+      <c r="I38">
+        <v>16</v>
+      </c>
+      <c r="J38">
+        <v>-5</v>
+      </c>
+      <c r="K38">
+        <v>8</v>
+      </c>
+      <c r="L38">
+        <v>260177</v>
+      </c>
+      <c r="M38" t="s">
+        <v>13</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>24510020100</v>
+      </c>
+      <c r="B39">
+        <v>173</v>
+      </c>
+      <c r="C39">
+        <v>97</v>
+      </c>
+      <c r="D39">
+        <v>52</v>
+      </c>
+      <c r="E39">
+        <v>-351</v>
+      </c>
+      <c r="F39">
+        <v>89000</v>
+      </c>
+      <c r="G39">
+        <v>3293</v>
+      </c>
+      <c r="H39">
+        <v>8</v>
+      </c>
+      <c r="I39">
+        <v>19</v>
+      </c>
+      <c r="J39">
+        <v>24</v>
+      </c>
+      <c r="K39">
+        <v>3</v>
+      </c>
+      <c r="L39">
+        <v>245060</v>
+      </c>
+      <c r="M39" t="s">
+        <v>13</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>24510020200</v>
+      </c>
+      <c r="B40">
+        <v>227</v>
+      </c>
+      <c r="C40">
+        <v>-541</v>
+      </c>
+      <c r="D40">
+        <v>-111</v>
+      </c>
+      <c r="E40">
+        <v>-129</v>
+      </c>
+      <c r="F40">
+        <v>84489</v>
+      </c>
+      <c r="G40">
+        <v>23424</v>
+      </c>
+      <c r="H40">
+        <v>15</v>
+      </c>
+      <c r="I40">
+        <v>28</v>
+      </c>
+      <c r="J40">
+        <v>-158</v>
+      </c>
+      <c r="K40">
+        <v>17</v>
+      </c>
+      <c r="L40">
+        <v>287597</v>
+      </c>
+      <c r="M40" t="s">
+        <v>13</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>24510020300</v>
+      </c>
+      <c r="B41">
+        <v>7079</v>
+      </c>
+      <c r="C41">
+        <v>801</v>
+      </c>
+      <c r="D41">
+        <v>1198</v>
+      </c>
+      <c r="E41">
+        <v>18</v>
+      </c>
+      <c r="F41">
+        <v>108026</v>
+      </c>
+      <c r="G41">
+        <v>38687</v>
+      </c>
+      <c r="H41">
+        <v>9</v>
+      </c>
+      <c r="I41">
+        <v>19</v>
+      </c>
+      <c r="J41">
+        <v>-21</v>
+      </c>
+      <c r="K41">
+        <v>219</v>
+      </c>
+      <c r="L41">
+        <v>534348</v>
+      </c>
+      <c r="M41" t="s">
+        <v>13</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>24510030100</v>
+      </c>
+      <c r="B42">
+        <v>851</v>
+      </c>
+      <c r="C42">
+        <v>215</v>
+      </c>
+      <c r="D42">
+        <v>115</v>
+      </c>
+      <c r="E42">
+        <v>-280</v>
+      </c>
+      <c r="F42">
+        <v>19531</v>
+      </c>
+      <c r="G42">
+        <v>-625</v>
+      </c>
+      <c r="H42">
+        <v>45</v>
+      </c>
+      <c r="I42">
+        <v>79</v>
+      </c>
+      <c r="J42">
+        <v>-156</v>
+      </c>
+      <c r="K42">
+        <v>15</v>
+      </c>
+      <c r="L42">
+        <v>322087</v>
+      </c>
+      <c r="M42" t="s">
+        <v>13</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>24510030200</v>
+      </c>
+      <c r="B43">
+        <v>8581</v>
+      </c>
+      <c r="C43">
+        <v>1867</v>
+      </c>
+      <c r="D43">
+        <v>1752</v>
+      </c>
+      <c r="E43">
+        <v>-254</v>
+      </c>
+      <c r="F43">
+        <v>72386</v>
+      </c>
+      <c r="G43">
+        <v>2136</v>
+      </c>
+      <c r="H43">
+        <v>21</v>
+      </c>
+      <c r="I43">
+        <v>39</v>
+      </c>
+      <c r="J43">
+        <v>-128</v>
+      </c>
+      <c r="K43">
+        <v>66</v>
+      </c>
+      <c r="L43">
+        <v>280981</v>
+      </c>
+      <c r="M43" t="s">
+        <v>13</v>
+      </c>
+      <c r="N43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>24510060100</v>
+      </c>
+      <c r="B44">
+        <v>78</v>
+      </c>
+      <c r="C44">
+        <v>-39</v>
+      </c>
+      <c r="D44">
+        <v>-5</v>
+      </c>
+      <c r="E44">
+        <v>-178</v>
+      </c>
+      <c r="F44">
+        <v>63421</v>
+      </c>
+      <c r="G44">
+        <v>24753</v>
+      </c>
+      <c r="H44">
+        <v>36</v>
+      </c>
+      <c r="I44">
+        <v>61</v>
+      </c>
+      <c r="J44">
+        <v>41</v>
+      </c>
+      <c r="K44" t="s">
+        <v>13</v>
+      </c>
+      <c r="L44" t="s">
+        <v>13</v>
+      </c>
+      <c r="M44" t="s">
+        <v>13</v>
+      </c>
+      <c r="N44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>24510060200</v>
+      </c>
+      <c r="B45">
+        <v>313</v>
+      </c>
+      <c r="C45">
+        <v>11</v>
+      </c>
+      <c r="D45">
+        <v>48</v>
+      </c>
+      <c r="E45">
+        <v>8</v>
+      </c>
+      <c r="F45">
+        <v>69034</v>
+      </c>
+      <c r="G45">
+        <v>17511</v>
+      </c>
+      <c r="H45">
+        <v>34</v>
+      </c>
+      <c r="I45">
+        <v>50</v>
+      </c>
+      <c r="J45">
+        <v>-129</v>
+      </c>
+      <c r="K45">
+        <v>6</v>
+      </c>
+      <c r="L45">
+        <v>499814</v>
+      </c>
+      <c r="M45" t="s">
+        <v>13</v>
+      </c>
+      <c r="N45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>24510060300</v>
+      </c>
+      <c r="B46">
+        <v>115</v>
+      </c>
+      <c r="C46">
+        <v>10</v>
+      </c>
+      <c r="D46">
+        <v>8</v>
+      </c>
+      <c r="E46">
+        <v>110</v>
+      </c>
+      <c r="F46">
+        <v>72132</v>
+      </c>
+      <c r="G46">
+        <v>18770</v>
+      </c>
+      <c r="H46">
+        <v>18</v>
+      </c>
+      <c r="I46">
+        <v>51</v>
+      </c>
+      <c r="J46">
+        <v>-66</v>
+      </c>
+      <c r="K46" t="s">
+        <v>13</v>
+      </c>
+      <c r="L46">
+        <v>198729</v>
+      </c>
+      <c r="M46" t="s">
+        <v>13</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>24510060400</v>
+      </c>
+      <c r="B47">
+        <v>14129</v>
+      </c>
+      <c r="C47">
+        <v>129</v>
+      </c>
+      <c r="D47">
+        <v>1850</v>
+      </c>
+      <c r="E47">
+        <v>136</v>
+      </c>
+      <c r="F47">
+        <v>51089</v>
+      </c>
+      <c r="G47">
+        <v>18736</v>
+      </c>
+      <c r="H47">
+        <v>19</v>
+      </c>
+      <c r="I47">
+        <v>75</v>
+      </c>
+      <c r="J47">
+        <v>137</v>
+      </c>
+      <c r="K47">
+        <v>11</v>
+      </c>
+      <c r="L47">
+        <v>451920</v>
+      </c>
+      <c r="M47" t="s">
+        <v>13</v>
+      </c>
+      <c r="N47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>24510070100</v>
+      </c>
+      <c r="B48">
+        <v>35</v>
+      </c>
+      <c r="C48">
+        <v>-66</v>
+      </c>
+      <c r="D48">
+        <v>2</v>
+      </c>
+      <c r="E48">
+        <v>-258</v>
+      </c>
+      <c r="F48">
+        <v>43327</v>
+      </c>
+      <c r="G48">
+        <v>657</v>
+      </c>
+      <c r="H48">
+        <v>41</v>
+      </c>
+      <c r="I48">
+        <v>94</v>
+      </c>
+      <c r="J48">
+        <v>-4</v>
+      </c>
+      <c r="K48">
+        <v>1</v>
+      </c>
+      <c r="L48" t="s">
+        <v>13</v>
+      </c>
+      <c r="M48" t="s">
+        <v>13</v>
+      </c>
+      <c r="N48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>24510070200</v>
+      </c>
+      <c r="B49">
+        <v>133</v>
+      </c>
+      <c r="C49">
+        <v>71</v>
+      </c>
+      <c r="D49">
+        <v>28</v>
+      </c>
+      <c r="E49">
+        <v>128</v>
+      </c>
+      <c r="F49">
+        <v>31292</v>
+      </c>
+      <c r="G49">
+        <v>6359</v>
+      </c>
+      <c r="H49">
+        <v>43</v>
+      </c>
+      <c r="I49">
+        <v>99</v>
+      </c>
+      <c r="J49">
+        <v>53</v>
+      </c>
+      <c r="K49">
+        <v>24</v>
+      </c>
+      <c r="L49">
+        <v>66790</v>
+      </c>
+      <c r="M49" t="s">
+        <v>13</v>
+      </c>
+      <c r="N49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>24510070300</v>
+      </c>
+      <c r="B50">
+        <v>247</v>
+      </c>
+      <c r="C50">
+        <v>-57</v>
+      </c>
+      <c r="D50">
+        <v>-13</v>
+      </c>
+      <c r="E50">
+        <v>45</v>
+      </c>
+      <c r="F50">
+        <v>36985</v>
+      </c>
+      <c r="G50">
+        <v>25199</v>
+      </c>
+      <c r="H50">
+        <v>26</v>
+      </c>
+      <c r="I50">
+        <v>92</v>
+      </c>
+      <c r="J50">
+        <v>-30</v>
+      </c>
+      <c r="K50">
+        <v>40</v>
+      </c>
+      <c r="L50">
+        <v>141059</v>
+      </c>
+      <c r="M50" t="s">
+        <v>13</v>
+      </c>
+      <c r="N50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>24510070400</v>
+      </c>
+      <c r="B51">
+        <v>12454</v>
+      </c>
+      <c r="C51">
+        <v>2496</v>
+      </c>
+      <c r="D51">
+        <v>2579</v>
+      </c>
+      <c r="E51">
+        <v>267</v>
+      </c>
+      <c r="F51">
+        <v>24457</v>
+      </c>
+      <c r="G51">
+        <v>6162</v>
+      </c>
+      <c r="H51">
+        <v>36</v>
+      </c>
+      <c r="I51">
+        <v>91</v>
+      </c>
+      <c r="J51">
+        <v>194</v>
+      </c>
+      <c r="K51" t="s">
+        <v>13</v>
+      </c>
+      <c r="L51">
+        <v>231400</v>
+      </c>
+      <c r="M51" t="s">
+        <v>13</v>
+      </c>
+      <c r="N51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>24510080101</v>
+      </c>
+      <c r="B52">
+        <v>671</v>
+      </c>
+      <c r="C52">
+        <v>92</v>
+      </c>
+      <c r="D52">
+        <v>72</v>
+      </c>
+      <c r="E52">
+        <v>141</v>
+      </c>
+      <c r="F52">
+        <v>66845</v>
+      </c>
+      <c r="G52">
+        <v>14156</v>
+      </c>
+      <c r="H52">
+        <v>15</v>
+      </c>
+      <c r="I52">
+        <v>64</v>
+      </c>
+      <c r="J52">
+        <v>-148</v>
+      </c>
+      <c r="K52">
+        <v>12</v>
+      </c>
+      <c r="L52">
+        <v>285327</v>
+      </c>
+      <c r="M52" t="s">
+        <v>13</v>
+      </c>
+      <c r="N52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>24510080102</v>
+      </c>
+      <c r="B53">
+        <v>344</v>
+      </c>
+      <c r="C53">
+        <v>-29</v>
+      </c>
+      <c r="D53">
+        <v>39</v>
+      </c>
+      <c r="E53">
+        <v>-73</v>
+      </c>
+      <c r="F53">
+        <v>32747</v>
+      </c>
+      <c r="G53">
+        <v>-7753</v>
+      </c>
+      <c r="H53">
+        <v>41</v>
+      </c>
+      <c r="I53">
+        <v>98</v>
+      </c>
+      <c r="J53">
+        <v>79</v>
+      </c>
+      <c r="K53">
+        <v>6</v>
+      </c>
+      <c r="L53">
+        <v>108866</v>
+      </c>
+      <c r="M53" t="s">
+        <v>13</v>
+      </c>
+      <c r="N53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>24510080200</v>
+      </c>
+      <c r="B54">
+        <v>552</v>
+      </c>
+      <c r="C54">
+        <v>9</v>
+      </c>
+      <c r="D54">
+        <v>40</v>
+      </c>
+      <c r="E54">
+        <v>-112</v>
+      </c>
+      <c r="F54">
+        <v>36375</v>
+      </c>
+      <c r="G54">
+        <v>9580</v>
+      </c>
+      <c r="H54">
+        <v>21</v>
+      </c>
+      <c r="I54">
+        <v>94</v>
+      </c>
+      <c r="J54">
+        <v>-169</v>
+      </c>
+      <c r="K54">
+        <v>7</v>
+      </c>
+      <c r="L54" t="s">
+        <v>13</v>
+      </c>
+      <c r="M54" t="s">
+        <v>13</v>
+      </c>
+      <c r="N54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>24510080301</v>
+      </c>
+      <c r="B55">
+        <v>41</v>
+      </c>
+      <c r="C55">
+        <v>4</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55">
+        <v>8</v>
+      </c>
+      <c r="F55">
+        <v>31250</v>
+      </c>
+      <c r="G55">
+        <v>-1767</v>
+      </c>
+      <c r="H55">
+        <v>30</v>
+      </c>
+      <c r="I55">
+        <v>100</v>
+      </c>
+      <c r="J55">
+        <v>44</v>
+      </c>
+      <c r="K55">
+        <v>1</v>
+      </c>
+      <c r="L55">
+        <v>19500</v>
+      </c>
+      <c r="M55" t="s">
+        <v>13</v>
+      </c>
+      <c r="N55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>24510080302</v>
+      </c>
+      <c r="B56">
+        <v>280</v>
+      </c>
+      <c r="C56">
+        <v>-211</v>
+      </c>
+      <c r="D56">
+        <v>-82</v>
+      </c>
+      <c r="E56">
+        <v>-145</v>
+      </c>
+      <c r="F56">
+        <v>36700</v>
+      </c>
+      <c r="G56">
+        <v>14585</v>
+      </c>
+      <c r="H56">
+        <v>25</v>
+      </c>
+      <c r="I56">
+        <v>97</v>
+      </c>
+      <c r="J56">
+        <v>8</v>
+      </c>
+      <c r="K56" t="s">
+        <v>13</v>
+      </c>
+      <c r="L56" t="s">
+        <v>13</v>
+      </c>
+      <c r="M56" t="s">
+        <v>13</v>
+      </c>
+      <c r="N56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>24510080400</v>
+      </c>
+      <c r="B57">
+        <v>183</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>12</v>
+      </c>
+      <c r="E57">
+        <v>82</v>
+      </c>
+      <c r="F57">
+        <v>32772</v>
+      </c>
+      <c r="G57">
+        <v>9338</v>
+      </c>
+      <c r="H57">
+        <v>38</v>
+      </c>
+      <c r="I57">
+        <v>92</v>
+      </c>
+      <c r="J57">
+        <v>-29</v>
+      </c>
+      <c r="K57" t="s">
+        <v>13</v>
+      </c>
+      <c r="L57" t="s">
+        <v>13</v>
+      </c>
+      <c r="M57" t="s">
+        <v>13</v>
+      </c>
+      <c r="N57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>24510080500</v>
+      </c>
+      <c r="B58">
+        <v>335</v>
+      </c>
+      <c r="C58">
+        <v>-223</v>
+      </c>
+      <c r="D58">
+        <v>32</v>
+      </c>
+      <c r="E58">
+        <v>-195</v>
+      </c>
+      <c r="F58">
+        <v>30714</v>
+      </c>
+      <c r="G58">
+        <v>4062</v>
+      </c>
+      <c r="H58">
+        <v>18</v>
+      </c>
+      <c r="I58">
+        <v>98</v>
+      </c>
+      <c r="J58">
+        <v>-35</v>
+      </c>
+      <c r="K58">
+        <v>2</v>
+      </c>
+      <c r="L58">
+        <v>169572</v>
+      </c>
+      <c r="M58" t="s">
+        <v>13</v>
+      </c>
+      <c r="N58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>24510080600</v>
+      </c>
+      <c r="B59">
+        <v>24</v>
+      </c>
+      <c r="C59">
+        <v>-11</v>
+      </c>
+      <c r="D59">
+        <v>-6</v>
+      </c>
+      <c r="E59">
+        <v>-356</v>
+      </c>
+      <c r="F59">
+        <v>34449</v>
+      </c>
+      <c r="G59">
+        <v>5407</v>
+      </c>
+      <c r="H59">
+        <v>30</v>
+      </c>
+      <c r="I59">
+        <v>94</v>
+      </c>
+      <c r="J59">
+        <v>-74</v>
+      </c>
+      <c r="K59" t="s">
+        <v>13</v>
+      </c>
+      <c r="L59" t="s">
+        <v>13</v>
+      </c>
+      <c r="M59" t="s">
+        <v>13</v>
+      </c>
+      <c r="N59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>24510080700</v>
+      </c>
+      <c r="B60">
+        <v>82</v>
+      </c>
+      <c r="C60">
+        <v>40</v>
+      </c>
+      <c r="D60">
+        <v>16</v>
+      </c>
+      <c r="E60">
+        <v>-64</v>
+      </c>
+      <c r="F60">
+        <v>39851</v>
+      </c>
+      <c r="G60">
+        <v>16815</v>
+      </c>
+      <c r="H60">
+        <v>15</v>
+      </c>
+      <c r="I60">
+        <v>95</v>
+      </c>
+      <c r="J60">
+        <v>-90</v>
+      </c>
+      <c r="K60">
+        <v>4</v>
+      </c>
+      <c r="L60" t="s">
+        <v>13</v>
+      </c>
+      <c r="M60" t="s">
+        <v>13</v>
+      </c>
+      <c r="N60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>24510080800</v>
+      </c>
+      <c r="B61">
+        <v>79</v>
+      </c>
+      <c r="C61">
+        <v>-10</v>
+      </c>
+      <c r="D61">
+        <v>4</v>
+      </c>
+      <c r="E61">
+        <v>52</v>
+      </c>
+      <c r="F61">
+        <v>53333</v>
+      </c>
+      <c r="G61">
+        <v>37732</v>
+      </c>
+      <c r="H61">
+        <v>30</v>
+      </c>
+      <c r="I61">
+        <v>95</v>
+      </c>
+      <c r="J61">
+        <v>60</v>
+      </c>
+      <c r="K61" t="s">
+        <v>13</v>
+      </c>
+      <c r="L61" t="s">
+        <v>13</v>
+      </c>
+      <c r="M61" t="s">
+        <v>13</v>
+      </c>
+      <c r="N61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>24510090100</v>
+      </c>
+      <c r="B62">
+        <v>299</v>
+      </c>
+      <c r="C62">
+        <v>13</v>
+      </c>
+      <c r="D62">
+        <v>66</v>
+      </c>
+      <c r="E62">
+        <v>-268</v>
+      </c>
+      <c r="F62">
+        <v>44759</v>
+      </c>
+      <c r="G62">
+        <v>8208</v>
+      </c>
+      <c r="H62">
+        <v>21</v>
+      </c>
+      <c r="I62">
+        <v>85</v>
+      </c>
+      <c r="J62">
+        <v>-230</v>
+      </c>
+      <c r="K62" t="s">
+        <v>13</v>
+      </c>
+      <c r="L62">
+        <v>88800</v>
+      </c>
+      <c r="M62" t="s">
+        <v>13</v>
+      </c>
+      <c r="N62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>24510090200</v>
+      </c>
+      <c r="B63">
+        <v>517</v>
+      </c>
+      <c r="C63">
+        <v>-10</v>
+      </c>
+      <c r="D63">
+        <v>32</v>
+      </c>
+      <c r="E63">
+        <v>-417</v>
+      </c>
+      <c r="F63">
+        <v>71189</v>
+      </c>
+      <c r="G63">
+        <v>10011</v>
+      </c>
+      <c r="H63">
+        <v>6</v>
+      </c>
+      <c r="I63">
+        <v>79</v>
+      </c>
+      <c r="J63">
+        <v>-92</v>
+      </c>
+      <c r="K63" t="s">
+        <v>13</v>
+      </c>
+      <c r="L63">
+        <v>80786</v>
+      </c>
+      <c r="M63" t="s">
+        <v>13</v>
+      </c>
+      <c r="N63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>24510090600</v>
+      </c>
+      <c r="B64">
+        <v>19</v>
+      </c>
+      <c r="C64">
+        <v>5</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>-4</v>
+      </c>
+      <c r="F64">
+        <v>35313</v>
+      </c>
+      <c r="G64">
+        <v>-9231</v>
+      </c>
+      <c r="H64">
+        <v>30</v>
+      </c>
+      <c r="I64">
+        <v>95</v>
+      </c>
+      <c r="J64">
+        <v>-54</v>
+      </c>
+      <c r="K64">
+        <v>1</v>
+      </c>
+      <c r="L64">
+        <v>149850</v>
+      </c>
+      <c r="M64" t="s">
+        <v>13</v>
+      </c>
+      <c r="N64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>24510090700</v>
+      </c>
+      <c r="B65">
+        <v>36</v>
+      </c>
+      <c r="C65">
+        <v>11</v>
+      </c>
+      <c r="D65">
+        <v>-1</v>
+      </c>
+      <c r="E65">
+        <v>-111</v>
+      </c>
+      <c r="F65">
+        <v>27174</v>
+      </c>
+      <c r="G65">
+        <v>-2741</v>
+      </c>
+      <c r="H65">
+        <v>25</v>
+      </c>
+      <c r="I65">
+        <v>98</v>
+      </c>
+      <c r="J65">
+        <v>34</v>
+      </c>
+      <c r="K65">
+        <v>8</v>
+      </c>
+      <c r="L65">
+        <v>30817</v>
+      </c>
+      <c r="M65" t="s">
+        <v>13</v>
+      </c>
+      <c r="N65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>24510090900</v>
+      </c>
+      <c r="B66">
+        <v>141</v>
+      </c>
+      <c r="C66">
+        <v>-56</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>37</v>
+      </c>
+      <c r="F66">
+        <v>22571</v>
+      </c>
+      <c r="G66">
+        <v>3261</v>
+      </c>
+      <c r="H66">
+        <v>31</v>
+      </c>
+      <c r="I66">
+        <v>95</v>
+      </c>
+      <c r="J66">
+        <v>71</v>
+      </c>
+      <c r="K66">
+        <v>11</v>
+      </c>
+      <c r="L66">
+        <v>117726</v>
+      </c>
+      <c r="M66" t="s">
+        <v>13</v>
+      </c>
+      <c r="N66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>24510100100</v>
+      </c>
+      <c r="B67">
+        <v>487</v>
+      </c>
+      <c r="C67">
+        <v>70</v>
+      </c>
+      <c r="D67">
+        <v>82</v>
+      </c>
+      <c r="E67">
+        <v>270</v>
+      </c>
+      <c r="F67">
+        <v>26350</v>
+      </c>
+      <c r="G67">
+        <v>4491</v>
+      </c>
+      <c r="H67">
+        <v>48</v>
+      </c>
+      <c r="I67">
+        <v>98</v>
+      </c>
+      <c r="J67">
+        <v>-22</v>
+      </c>
+      <c r="K67">
+        <v>4</v>
+      </c>
+      <c r="L67">
+        <v>268762</v>
+      </c>
+      <c r="M67" t="s">
+        <v>13</v>
+      </c>
+      <c r="N67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>24510100200</v>
+      </c>
+      <c r="B68">
+        <v>123</v>
+      </c>
+      <c r="C68">
+        <v>-110</v>
+      </c>
+      <c r="D68">
+        <v>-77</v>
+      </c>
+      <c r="E68">
+        <v>48</v>
+      </c>
+      <c r="F68">
+        <v>16080</v>
+      </c>
+      <c r="G68">
+        <v>3427</v>
+      </c>
+      <c r="H68">
+        <v>50</v>
+      </c>
+      <c r="I68">
+        <v>100</v>
+      </c>
+      <c r="J68">
+        <v>-151</v>
+      </c>
+      <c r="K68" t="s">
+        <v>13</v>
+      </c>
+      <c r="L68">
+        <v>1000</v>
+      </c>
+      <c r="M68" t="s">
+        <v>13</v>
+      </c>
+      <c r="N68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>24510100300</v>
+      </c>
+      <c r="B69">
+        <v>2183</v>
+      </c>
+      <c r="C69">
+        <v>-534</v>
+      </c>
+      <c r="D69">
+        <v>449</v>
+      </c>
+      <c r="E69">
+        <v>-532</v>
+      </c>
+      <c r="F69" t="s">
+        <v>13</v>
+      </c>
+      <c r="G69" t="s">
+        <v>13</v>
+      </c>
+      <c r="H69" t="s">
+        <v>13</v>
+      </c>
+      <c r="I69" t="s">
+        <v>13</v>
+      </c>
+      <c r="J69" t="s">
+        <v>13</v>
+      </c>
+      <c r="K69" t="s">
+        <v>13</v>
+      </c>
+      <c r="L69" t="s">
+        <v>13</v>
+      </c>
+      <c r="M69" t="s">
+        <v>13</v>
+      </c>
+      <c r="N69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>24510110100</v>
+      </c>
+      <c r="B70">
+        <v>1447</v>
+      </c>
+      <c r="C70">
+        <v>-1260</v>
+      </c>
+      <c r="D70">
+        <v>-743</v>
+      </c>
+      <c r="E70">
+        <v>598</v>
+      </c>
+      <c r="F70">
+        <v>55796</v>
+      </c>
+      <c r="G70">
+        <v>10629</v>
+      </c>
+      <c r="H70">
+        <v>16</v>
+      </c>
+      <c r="I70">
+        <v>45</v>
+      </c>
+      <c r="J70">
+        <v>228</v>
+      </c>
+      <c r="K70">
+        <v>30</v>
+      </c>
+      <c r="L70" t="s">
+        <v>13</v>
+      </c>
+      <c r="M70" t="s">
+        <v>13</v>
+      </c>
+      <c r="N70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>24510110200</v>
+      </c>
+      <c r="B71">
+        <v>8653</v>
+      </c>
+      <c r="C71">
+        <v>-543</v>
+      </c>
+      <c r="D71">
+        <v>716</v>
+      </c>
+      <c r="E71">
+        <v>-83</v>
+      </c>
+      <c r="F71">
+        <v>49970</v>
+      </c>
+      <c r="G71">
+        <v>13878</v>
+      </c>
+      <c r="H71">
+        <v>18</v>
+      </c>
+      <c r="I71">
+        <v>44</v>
+      </c>
+      <c r="J71">
+        <v>457</v>
+      </c>
+      <c r="K71">
+        <v>151</v>
+      </c>
+      <c r="L71">
+        <v>313736</v>
+      </c>
+      <c r="M71" t="s">
+        <v>13</v>
+      </c>
+      <c r="N71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>24510120100</v>
+      </c>
+      <c r="B72">
+        <v>588</v>
+      </c>
+      <c r="C72">
+        <v>16</v>
+      </c>
+      <c r="D72">
+        <v>66</v>
+      </c>
+      <c r="E72">
+        <v>-292</v>
+      </c>
+      <c r="F72">
+        <v>64794</v>
+      </c>
+      <c r="G72">
+        <v>999</v>
+      </c>
+      <c r="H72">
+        <v>20</v>
+      </c>
+      <c r="I72">
+        <v>38</v>
+      </c>
+      <c r="J72">
+        <v>46</v>
+      </c>
+      <c r="K72" t="s">
+        <v>13</v>
+      </c>
+      <c r="L72" t="s">
+        <v>13</v>
+      </c>
+      <c r="M72" t="s">
+        <v>13</v>
+      </c>
+      <c r="N72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>24510120202</v>
+      </c>
+      <c r="B73">
+        <v>9332</v>
+      </c>
+      <c r="C73">
+        <v>-305</v>
+      </c>
+      <c r="D73">
+        <v>594</v>
+      </c>
+      <c r="E73">
+        <v>-315</v>
+      </c>
+      <c r="F73">
+        <v>42674</v>
+      </c>
+      <c r="G73">
+        <v>11485</v>
+      </c>
+      <c r="H73">
+        <v>24</v>
+      </c>
+      <c r="I73">
+        <v>41</v>
+      </c>
+      <c r="J73">
+        <v>-289</v>
+      </c>
+      <c r="K73">
+        <v>22</v>
+      </c>
+      <c r="L73">
+        <v>346804</v>
+      </c>
+      <c r="M73" t="s">
+        <v>13</v>
+      </c>
+      <c r="N73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>24510120500</v>
+      </c>
+      <c r="B74">
+        <v>892</v>
+      </c>
+      <c r="C74">
+        <v>-125</v>
+      </c>
+      <c r="D74">
+        <v>-9</v>
+      </c>
+      <c r="E74">
+        <v>135</v>
+      </c>
+      <c r="F74">
+        <v>50375</v>
+      </c>
+      <c r="G74">
+        <v>18447</v>
+      </c>
+      <c r="H74">
+        <v>23</v>
+      </c>
+      <c r="I74">
+        <v>65</v>
+      </c>
+      <c r="J74">
+        <v>3</v>
+      </c>
+      <c r="K74">
+        <v>16</v>
+      </c>
+      <c r="L74">
+        <v>204605</v>
+      </c>
+      <c r="M74" t="s">
+        <v>13</v>
+      </c>
+      <c r="N74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>24510120600</v>
+      </c>
+      <c r="B75">
+        <v>3203</v>
+      </c>
+      <c r="C75">
+        <v>512</v>
+      </c>
+      <c r="D75">
+        <v>330</v>
+      </c>
+      <c r="E75">
+        <v>255</v>
+      </c>
+      <c r="F75">
+        <v>31285</v>
+      </c>
+      <c r="G75">
+        <v>17934</v>
+      </c>
+      <c r="H75">
+        <v>31</v>
+      </c>
+      <c r="I75">
+        <v>66</v>
+      </c>
+      <c r="J75">
+        <v>21</v>
+      </c>
+      <c r="K75">
+        <v>70</v>
+      </c>
+      <c r="L75">
+        <v>376597</v>
+      </c>
+      <c r="M75" t="s">
+        <v>13</v>
+      </c>
+      <c r="N75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>24510120700</v>
+      </c>
+      <c r="B76">
+        <v>4665</v>
+      </c>
+      <c r="C76">
+        <v>-557</v>
+      </c>
+      <c r="D76">
+        <v>73</v>
+      </c>
+      <c r="E76">
+        <v>-133</v>
+      </c>
+      <c r="F76">
+        <v>65365</v>
+      </c>
+      <c r="G76">
+        <v>18924</v>
+      </c>
+      <c r="H76">
+        <v>9</v>
+      </c>
+      <c r="I76">
+        <v>24</v>
+      </c>
+      <c r="J76">
+        <v>-137</v>
+      </c>
+      <c r="K76">
+        <v>13</v>
+      </c>
+      <c r="L76">
+        <v>243956</v>
+      </c>
+      <c r="M76" t="s">
+        <v>13</v>
+      </c>
+      <c r="N76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>24510130100</v>
+      </c>
+      <c r="B77">
+        <v>54</v>
+      </c>
+      <c r="C77">
+        <v>25</v>
+      </c>
+      <c r="D77">
+        <v>1</v>
+      </c>
+      <c r="E77">
+        <v>-26</v>
+      </c>
+      <c r="F77">
+        <v>22464</v>
+      </c>
+      <c r="G77">
+        <v>-4962</v>
+      </c>
+      <c r="H77">
+        <v>39</v>
+      </c>
+      <c r="I77">
+        <v>89</v>
+      </c>
+      <c r="J77">
+        <v>-91</v>
+      </c>
+      <c r="K77" t="s">
+        <v>13</v>
+      </c>
+      <c r="L77" t="s">
+        <v>13</v>
+      </c>
+      <c r="M77" t="s">
+        <v>13</v>
+      </c>
+      <c r="N77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>24510130200</v>
+      </c>
+      <c r="B78">
+        <v>84</v>
+      </c>
+      <c r="C78">
+        <v>-12</v>
+      </c>
+      <c r="D78">
+        <v>-3</v>
+      </c>
+      <c r="E78">
+        <v>-323</v>
+      </c>
+      <c r="F78">
+        <v>48175</v>
+      </c>
+      <c r="G78">
+        <v>10467</v>
+      </c>
+      <c r="H78">
+        <v>14</v>
+      </c>
+      <c r="I78">
+        <v>82</v>
+      </c>
+      <c r="J78">
+        <v>-159</v>
+      </c>
+      <c r="K78">
+        <v>1</v>
+      </c>
+      <c r="L78">
+        <v>485233</v>
+      </c>
+      <c r="M78" t="s">
+        <v>13</v>
+      </c>
+      <c r="N78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>24510130300</v>
+      </c>
+      <c r="B79">
+        <v>532</v>
+      </c>
+      <c r="C79">
+        <v>133</v>
+      </c>
+      <c r="D79">
+        <v>47</v>
+      </c>
+      <c r="E79">
+        <v>-100</v>
+      </c>
+      <c r="F79">
+        <v>42642</v>
+      </c>
+      <c r="G79">
+        <v>10440</v>
+      </c>
+      <c r="H79">
+        <v>28</v>
+      </c>
+      <c r="I79">
+        <v>96</v>
+      </c>
+      <c r="J79">
+        <v>-52</v>
+      </c>
+      <c r="K79">
+        <v>7</v>
+      </c>
+      <c r="L79">
+        <v>63794</v>
+      </c>
+      <c r="M79" t="s">
+        <v>13</v>
+      </c>
+      <c r="N79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>24510130400</v>
+      </c>
+      <c r="B80">
+        <v>570</v>
+      </c>
+      <c r="C80">
+        <v>-34</v>
+      </c>
+      <c r="D80">
+        <v>-4</v>
+      </c>
+      <c r="E80">
+        <v>-71</v>
+      </c>
+      <c r="F80">
+        <v>28550</v>
+      </c>
+      <c r="G80">
+        <v>-5200</v>
+      </c>
+      <c r="H80">
+        <v>32</v>
+      </c>
+      <c r="I80">
+        <v>93</v>
+      </c>
+      <c r="J80">
+        <v>-85</v>
+      </c>
+      <c r="K80">
+        <v>4</v>
+      </c>
+      <c r="L80">
+        <v>101305</v>
+      </c>
+      <c r="M80" t="s">
+        <v>13</v>
+      </c>
+      <c r="N80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>24510130600</v>
+      </c>
+      <c r="B81">
+        <v>2257</v>
+      </c>
+      <c r="C81">
+        <v>383</v>
+      </c>
+      <c r="D81">
+        <v>228</v>
+      </c>
+      <c r="E81">
+        <v>346</v>
+      </c>
+      <c r="F81">
+        <v>103911</v>
+      </c>
+      <c r="G81">
+        <v>43275</v>
+      </c>
+      <c r="H81">
+        <v>11</v>
+      </c>
+      <c r="I81">
+        <v>15</v>
+      </c>
+      <c r="J81">
+        <v>-7</v>
+      </c>
+      <c r="K81">
+        <v>27</v>
+      </c>
+      <c r="L81">
+        <v>341028</v>
+      </c>
+      <c r="M81" t="s">
+        <v>13</v>
+      </c>
+      <c r="N81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>24510130700</v>
+      </c>
+      <c r="B82">
+        <v>3362</v>
+      </c>
+      <c r="C82">
+        <v>678</v>
+      </c>
+      <c r="D82">
+        <v>687</v>
+      </c>
+      <c r="E82">
+        <v>-268</v>
+      </c>
+      <c r="F82">
+        <v>72404</v>
+      </c>
+      <c r="G82">
+        <v>9835</v>
+      </c>
+      <c r="H82">
+        <v>8</v>
+      </c>
+      <c r="I82">
+        <v>18</v>
+      </c>
+      <c r="J82">
+        <v>111</v>
+      </c>
+      <c r="K82">
+        <v>25</v>
+      </c>
+      <c r="L82">
+        <v>266352</v>
+      </c>
+      <c r="M82" t="s">
+        <v>13</v>
+      </c>
+      <c r="N82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>24510130803</v>
+      </c>
+      <c r="B83">
+        <v>153</v>
+      </c>
+      <c r="C83">
+        <v>-350</v>
+      </c>
+      <c r="D83">
+        <v>-132</v>
+      </c>
+      <c r="E83">
+        <v>59</v>
+      </c>
+      <c r="F83">
+        <v>56036</v>
+      </c>
+      <c r="G83">
+        <v>-3735</v>
+      </c>
+      <c r="H83">
+        <v>8</v>
+      </c>
+      <c r="I83">
+        <v>27</v>
+      </c>
+      <c r="J83">
+        <v>-65</v>
+      </c>
+      <c r="K83" t="s">
+        <v>13</v>
+      </c>
+      <c r="L83">
+        <v>215300</v>
+      </c>
+      <c r="M83" t="s">
+        <v>13</v>
+      </c>
+      <c r="N83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>24510130804</v>
+      </c>
+      <c r="B84">
+        <v>1868</v>
+      </c>
+      <c r="C84">
+        <v>610</v>
+      </c>
+      <c r="D84">
+        <v>92</v>
+      </c>
+      <c r="E84">
+        <v>11</v>
+      </c>
+      <c r="F84">
+        <v>67500</v>
+      </c>
+      <c r="G84">
+        <v>8350</v>
+      </c>
+      <c r="H84">
+        <v>12</v>
+      </c>
+      <c r="I84">
+        <v>10</v>
+      </c>
+      <c r="J84">
+        <v>-46</v>
+      </c>
+      <c r="K84">
+        <v>21</v>
+      </c>
+      <c r="L84">
+        <v>229405</v>
+      </c>
+      <c r="M84" t="s">
+        <v>13</v>
+      </c>
+      <c r="N84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>24510130805</v>
+      </c>
+      <c r="B85">
+        <v>274</v>
+      </c>
+      <c r="C85">
+        <v>-20</v>
+      </c>
+      <c r="D85">
+        <v>-1</v>
+      </c>
+      <c r="E85">
+        <v>31</v>
+      </c>
+      <c r="F85">
+        <v>51750</v>
+      </c>
+      <c r="G85">
+        <v>12653</v>
+      </c>
+      <c r="H85">
+        <v>18</v>
+      </c>
+      <c r="I85">
+        <v>83</v>
+      </c>
+      <c r="J85">
+        <v>-34</v>
+      </c>
+      <c r="K85" t="s">
+        <v>13</v>
+      </c>
+      <c r="L85" t="s">
+        <v>13</v>
+      </c>
+      <c r="M85" t="s">
+        <v>13</v>
+      </c>
+      <c r="N85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>24510130806</v>
+      </c>
+      <c r="B86">
+        <v>2108</v>
+      </c>
+      <c r="C86">
+        <v>27</v>
+      </c>
+      <c r="D86">
+        <v>-49</v>
+      </c>
+      <c r="E86">
+        <v>103</v>
+      </c>
+      <c r="F86">
+        <v>92885</v>
+      </c>
+      <c r="G86">
+        <v>26322</v>
+      </c>
+      <c r="H86">
+        <v>5</v>
+      </c>
+      <c r="I86">
+        <v>24</v>
+      </c>
+      <c r="J86">
+        <v>9</v>
+      </c>
+      <c r="K86" t="s">
+        <v>13</v>
+      </c>
+      <c r="L86" t="s">
+        <v>13</v>
+      </c>
+      <c r="M86" t="s">
+        <v>13</v>
+      </c>
+      <c r="N86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>24510140100</v>
+      </c>
+      <c r="B87">
+        <v>1244</v>
+      </c>
+      <c r="C87">
+        <v>544</v>
+      </c>
+      <c r="D87">
+        <v>163</v>
+      </c>
+      <c r="E87">
+        <v>88</v>
+      </c>
+      <c r="F87">
+        <v>57014</v>
+      </c>
+      <c r="G87">
+        <v>15649</v>
+      </c>
+      <c r="H87">
+        <v>18</v>
+      </c>
+      <c r="I87">
+        <v>61</v>
+      </c>
+      <c r="J87">
+        <v>129</v>
+      </c>
+      <c r="K87" t="s">
+        <v>13</v>
+      </c>
+      <c r="L87">
+        <v>1022300</v>
+      </c>
+      <c r="M87" t="s">
+        <v>13</v>
+      </c>
+      <c r="N87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>24510150200</v>
+      </c>
+      <c r="B88">
+        <v>82</v>
+      </c>
+      <c r="C88">
+        <v>-72</v>
+      </c>
+      <c r="D88">
+        <v>-23</v>
+      </c>
+      <c r="E88">
+        <v>-264</v>
+      </c>
+      <c r="F88">
+        <v>32273</v>
+      </c>
+      <c r="G88">
+        <v>-5256</v>
+      </c>
+      <c r="H88">
+        <v>39</v>
+      </c>
+      <c r="I88">
+        <v>100</v>
+      </c>
+      <c r="J88">
+        <v>-85</v>
+      </c>
+      <c r="K88">
+        <v>2</v>
+      </c>
+      <c r="L88">
+        <v>41850</v>
+      </c>
+      <c r="M88" t="s">
+        <v>13</v>
+      </c>
+      <c r="N88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>24510150300</v>
+      </c>
+      <c r="B89">
+        <v>230</v>
+      </c>
+      <c r="C89">
+        <v>-54</v>
+      </c>
+      <c r="D89">
+        <v>14</v>
+      </c>
+      <c r="E89">
+        <v>113</v>
+      </c>
+      <c r="F89">
+        <v>41833</v>
+      </c>
+      <c r="G89">
+        <v>9404</v>
+      </c>
+      <c r="H89">
+        <v>20</v>
+      </c>
+      <c r="I89">
+        <v>100</v>
+      </c>
+      <c r="J89">
+        <v>-156</v>
+      </c>
+      <c r="K89">
+        <v>11</v>
+      </c>
+      <c r="L89">
+        <v>32261</v>
+      </c>
+      <c r="M89" t="s">
+        <v>13</v>
+      </c>
+      <c r="N89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>24510150400</v>
+      </c>
+      <c r="B90">
+        <v>1026</v>
+      </c>
+      <c r="C90">
+        <v>-265</v>
+      </c>
+      <c r="D90">
+        <v>-45</v>
+      </c>
+      <c r="E90">
+        <v>-68</v>
+      </c>
+      <c r="F90">
+        <v>31440</v>
+      </c>
+      <c r="G90">
+        <v>-6712</v>
+      </c>
+      <c r="H90">
+        <v>21</v>
+      </c>
+      <c r="I90">
+        <v>100</v>
+      </c>
+      <c r="J90">
+        <v>137</v>
+      </c>
+      <c r="K90">
+        <v>11</v>
+      </c>
+      <c r="L90">
+        <v>118976</v>
+      </c>
+      <c r="M90" t="s">
+        <v>13</v>
+      </c>
+      <c r="N90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>24510150500</v>
+      </c>
+      <c r="B91">
+        <v>3067</v>
+      </c>
+      <c r="C91">
+        <v>358</v>
+      </c>
+      <c r="D91">
+        <v>200</v>
+      </c>
+      <c r="E91">
+        <v>-86</v>
+      </c>
+      <c r="F91">
+        <v>32902</v>
+      </c>
+      <c r="G91">
+        <v>2878</v>
+      </c>
+      <c r="H91">
+        <v>36</v>
+      </c>
+      <c r="I91">
+        <v>97</v>
+      </c>
+      <c r="J91">
+        <v>-62</v>
+      </c>
+      <c r="K91" t="s">
+        <v>13</v>
+      </c>
+      <c r="L91" t="s">
+        <v>13</v>
+      </c>
+      <c r="M91" t="s">
+        <v>13</v>
+      </c>
+      <c r="N91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>24510150600</v>
+      </c>
+      <c r="B92">
+        <v>433</v>
+      </c>
+      <c r="C92">
+        <v>-56</v>
+      </c>
+      <c r="D92">
+        <v>22</v>
+      </c>
+      <c r="E92">
+        <v>215</v>
+      </c>
+      <c r="F92">
+        <v>27109</v>
+      </c>
+      <c r="G92">
+        <v>1586</v>
+      </c>
+      <c r="H92">
+        <v>41</v>
+      </c>
+      <c r="I92">
+        <v>99</v>
+      </c>
+      <c r="J92">
+        <v>88</v>
+      </c>
+      <c r="K92">
+        <v>28</v>
+      </c>
+      <c r="L92">
+        <v>87034</v>
+      </c>
+      <c r="M92" t="s">
+        <v>13</v>
+      </c>
+      <c r="N92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>24510150701</v>
+      </c>
+      <c r="B93">
+        <v>265</v>
+      </c>
+      <c r="C93">
+        <v>-132</v>
+      </c>
+      <c r="D93">
+        <v>-6</v>
+      </c>
+      <c r="E93">
+        <v>207</v>
+      </c>
+      <c r="F93">
+        <v>49531</v>
+      </c>
+      <c r="G93">
+        <v>4281</v>
+      </c>
+      <c r="H93">
+        <v>21</v>
+      </c>
+      <c r="I93">
+        <v>98</v>
+      </c>
+      <c r="J93">
+        <v>61</v>
+      </c>
+      <c r="K93" t="s">
+        <v>13</v>
+      </c>
+      <c r="L93" t="s">
+        <v>13</v>
+      </c>
+      <c r="M93" t="s">
+        <v>13</v>
+      </c>
+      <c r="N93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>24510150702</v>
+      </c>
+      <c r="B94">
+        <v>59</v>
+      </c>
+      <c r="C94">
+        <v>-30</v>
+      </c>
+      <c r="D94">
+        <v>-6</v>
+      </c>
+      <c r="E94">
+        <v>211</v>
+      </c>
+      <c r="F94">
+        <v>50167</v>
+      </c>
+      <c r="G94">
+        <v>6000</v>
+      </c>
+      <c r="H94">
+        <v>23</v>
+      </c>
+      <c r="I94">
+        <v>100</v>
+      </c>
+      <c r="J94">
+        <v>-26</v>
+      </c>
+      <c r="K94" t="s">
+        <v>13</v>
+      </c>
+      <c r="L94">
+        <v>106000</v>
+      </c>
+      <c r="M94" t="s">
+        <v>13</v>
+      </c>
+      <c r="N94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>24510151200</v>
+      </c>
+      <c r="B95">
+        <v>243</v>
+      </c>
+      <c r="C95">
+        <v>82</v>
+      </c>
+      <c r="D95">
+        <v>64</v>
+      </c>
+      <c r="E95">
+        <v>-912</v>
+      </c>
+      <c r="F95">
+        <v>20717</v>
+      </c>
+      <c r="G95">
+        <v>-1805</v>
+      </c>
+      <c r="H95">
+        <v>37</v>
+      </c>
+      <c r="I95">
+        <v>93</v>
+      </c>
+      <c r="J95">
+        <v>-134</v>
+      </c>
+      <c r="K95" t="s">
+        <v>13</v>
+      </c>
+      <c r="L95">
+        <v>130300</v>
+      </c>
+      <c r="M95" t="s">
+        <v>13</v>
+      </c>
+      <c r="N95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>24510151300</v>
+      </c>
+      <c r="B96">
+        <v>446</v>
+      </c>
+      <c r="C96">
+        <v>-2</v>
+      </c>
+      <c r="D96">
+        <v>41</v>
+      </c>
+      <c r="E96">
+        <v>-220</v>
+      </c>
+      <c r="F96">
+        <v>31885</v>
+      </c>
+      <c r="G96">
+        <v>4781</v>
+      </c>
+      <c r="H96">
+        <v>29</v>
+      </c>
+      <c r="I96">
+        <v>97</v>
+      </c>
+      <c r="J96">
+        <v>-105</v>
+      </c>
+      <c r="K96">
+        <v>1</v>
+      </c>
+      <c r="L96" t="s">
+        <v>13</v>
+      </c>
+      <c r="M96" t="s">
+        <v>13</v>
+      </c>
+      <c r="N96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>24510160300</v>
+      </c>
+      <c r="B97">
+        <v>318</v>
+      </c>
+      <c r="C97">
+        <v>-189</v>
+      </c>
+      <c r="D97">
+        <v>-81</v>
+      </c>
+      <c r="E97">
+        <v>-346</v>
+      </c>
+      <c r="F97">
+        <v>14915</v>
+      </c>
+      <c r="G97">
+        <v>-11866</v>
+      </c>
+      <c r="H97">
+        <v>52</v>
+      </c>
+      <c r="I97">
+        <v>99</v>
+      </c>
+      <c r="J97">
+        <v>-136</v>
+      </c>
+      <c r="K97" t="s">
+        <v>13</v>
+      </c>
+      <c r="L97" t="s">
+        <v>13</v>
+      </c>
+      <c r="M97" t="s">
+        <v>13</v>
+      </c>
+      <c r="N97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>24510160400</v>
+      </c>
+      <c r="B98">
+        <v>97</v>
+      </c>
+      <c r="C98">
+        <v>-20</v>
+      </c>
+      <c r="D98">
+        <v>-18</v>
+      </c>
+      <c r="E98">
+        <v>-475</v>
+      </c>
+      <c r="F98">
+        <v>23417</v>
+      </c>
+      <c r="G98">
+        <v>-3771</v>
+      </c>
+      <c r="H98">
+        <v>50</v>
+      </c>
+      <c r="I98">
+        <v>99</v>
+      </c>
+      <c r="J98">
+        <v>-120</v>
+      </c>
+      <c r="K98">
+        <v>8</v>
+      </c>
+      <c r="L98">
+        <v>13526</v>
+      </c>
+      <c r="M98" t="s">
+        <v>13</v>
+      </c>
+      <c r="N98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>24510160500</v>
+      </c>
+      <c r="B99">
+        <v>435</v>
+      </c>
+      <c r="C99">
+        <v>-77</v>
+      </c>
+      <c r="D99">
+        <v>-18</v>
+      </c>
+      <c r="E99">
+        <v>-197</v>
+      </c>
+      <c r="F99">
+        <v>36577</v>
+      </c>
+      <c r="G99">
+        <v>2035</v>
+      </c>
+      <c r="H99">
+        <v>29</v>
+      </c>
+      <c r="I99">
+        <v>100</v>
+      </c>
+      <c r="J99">
+        <v>-167</v>
+      </c>
+      <c r="K99">
+        <v>1</v>
+      </c>
+      <c r="L99">
+        <v>181614</v>
+      </c>
+      <c r="M99" t="s">
+        <v>13</v>
+      </c>
+      <c r="N99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>24510160600</v>
+      </c>
+      <c r="B100">
+        <v>238</v>
+      </c>
+      <c r="C100">
+        <v>44</v>
+      </c>
+      <c r="D100">
+        <v>45</v>
+      </c>
+      <c r="E100">
+        <v>719</v>
+      </c>
+      <c r="F100">
+        <v>43306</v>
+      </c>
+      <c r="G100">
+        <v>17873</v>
+      </c>
+      <c r="H100">
+        <v>24</v>
+      </c>
+      <c r="I100">
+        <v>99</v>
+      </c>
+      <c r="J100">
+        <v>-70</v>
+      </c>
+      <c r="K100">
+        <v>10</v>
+      </c>
+      <c r="L100">
+        <v>72960</v>
+      </c>
+      <c r="M100" t="s">
+        <v>13</v>
+      </c>
+      <c r="N100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>24510160700</v>
+      </c>
+      <c r="B101">
+        <v>169</v>
+      </c>
+      <c r="C101">
+        <v>32</v>
+      </c>
+      <c r="D101">
+        <v>18</v>
+      </c>
+      <c r="E101">
+        <v>-190</v>
+      </c>
+      <c r="F101">
+        <v>37870</v>
+      </c>
+      <c r="G101">
+        <v>4031</v>
+      </c>
+      <c r="H101">
+        <v>34</v>
+      </c>
+      <c r="I101">
+        <v>100</v>
+      </c>
+      <c r="J101">
+        <v>-59</v>
+      </c>
+      <c r="K101">
+        <v>4</v>
+      </c>
+      <c r="L101" t="s">
+        <v>13</v>
+      </c>
+      <c r="M101" t="s">
+        <v>13</v>
+      </c>
+      <c r="N101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>24510160801</v>
+      </c>
+      <c r="B102">
+        <v>60</v>
+      </c>
+      <c r="C102">
+        <v>-11</v>
+      </c>
+      <c r="D102">
+        <v>1</v>
+      </c>
+      <c r="E102">
+        <v>-207</v>
+      </c>
+      <c r="F102">
+        <v>44015</v>
+      </c>
+      <c r="G102">
+        <v>6515</v>
+      </c>
+      <c r="H102">
+        <v>7</v>
+      </c>
+      <c r="I102">
+        <v>100</v>
+      </c>
+      <c r="J102">
+        <v>12</v>
+      </c>
+      <c r="K102" t="s">
+        <v>13</v>
+      </c>
+      <c r="L102" t="s">
+        <v>13</v>
+      </c>
+      <c r="M102" t="s">
+        <v>13</v>
+      </c>
+      <c r="N102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>24510160802</v>
+      </c>
+      <c r="B103">
+        <v>14</v>
+      </c>
+      <c r="C103">
+        <v>-23</v>
+      </c>
+      <c r="D103">
+        <v>-3</v>
+      </c>
+      <c r="E103">
+        <v>49</v>
+      </c>
+      <c r="F103">
+        <v>42547</v>
+      </c>
+      <c r="G103">
+        <v>6840</v>
+      </c>
+      <c r="H103">
+        <v>18</v>
+      </c>
+      <c r="I103">
+        <v>100</v>
+      </c>
+      <c r="J103">
+        <v>-22</v>
+      </c>
+      <c r="K103" t="s">
+        <v>13</v>
+      </c>
+      <c r="L103" t="s">
+        <v>13</v>
+      </c>
+      <c r="M103" t="s">
+        <v>13</v>
+      </c>
+      <c r="N103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>24510200100</v>
+      </c>
+      <c r="B104">
+        <v>1015</v>
+      </c>
+      <c r="C104">
+        <v>27</v>
+      </c>
+      <c r="D104">
+        <v>138</v>
+      </c>
+      <c r="E104">
+        <v>74</v>
+      </c>
+      <c r="F104">
+        <v>30809</v>
+      </c>
+      <c r="G104">
+        <v>2903</v>
+      </c>
+      <c r="H104">
+        <v>37</v>
+      </c>
+      <c r="I104">
+        <v>98</v>
+      </c>
+      <c r="J104">
+        <v>95</v>
+      </c>
+      <c r="K104" t="s">
+        <v>13</v>
+      </c>
+      <c r="L104">
+        <v>23000</v>
+      </c>
+      <c r="M104" t="s">
+        <v>13</v>
+      </c>
+      <c r="N104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>24510200200</v>
+      </c>
+      <c r="B105">
+        <v>459</v>
+      </c>
+      <c r="C105">
+        <v>50</v>
+      </c>
+      <c r="D105">
+        <v>43</v>
+      </c>
+      <c r="E105">
+        <v>-210</v>
+      </c>
+      <c r="F105">
+        <v>27623</v>
+      </c>
+      <c r="G105">
+        <v>1814</v>
+      </c>
+      <c r="H105">
+        <v>34</v>
+      </c>
+      <c r="I105">
+        <v>95</v>
+      </c>
+      <c r="J105">
+        <v>-88</v>
+      </c>
+      <c r="K105" t="s">
+        <v>13</v>
+      </c>
+      <c r="L105">
+        <v>5200</v>
+      </c>
+      <c r="M105" t="s">
+        <v>13</v>
+      </c>
+      <c r="N105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>24510200300</v>
+      </c>
+      <c r="B106">
+        <v>57</v>
+      </c>
+      <c r="C106">
+        <v>-37</v>
+      </c>
+      <c r="D106">
+        <v>-19</v>
+      </c>
+      <c r="E106">
+        <v>47</v>
+      </c>
+      <c r="F106">
+        <v>20820</v>
+      </c>
+      <c r="G106">
+        <v>-1779</v>
+      </c>
+      <c r="H106">
+        <v>53</v>
+      </c>
+      <c r="I106">
+        <v>73</v>
+      </c>
+      <c r="J106">
+        <v>-77</v>
+      </c>
+      <c r="K106">
+        <v>24</v>
+      </c>
+      <c r="L106">
+        <v>60729</v>
+      </c>
+      <c r="M106" t="s">
+        <v>13</v>
+      </c>
+      <c r="N106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>24510200400</v>
+      </c>
+      <c r="B107">
+        <v>156</v>
+      </c>
+      <c r="C107">
+        <v>20</v>
+      </c>
+      <c r="D107">
+        <v>33</v>
+      </c>
+      <c r="E107">
+        <v>-27</v>
+      </c>
+      <c r="F107">
+        <v>30000</v>
+      </c>
+      <c r="G107">
+        <v>-2250</v>
+      </c>
+      <c r="H107">
+        <v>39</v>
+      </c>
+      <c r="I107">
+        <v>95</v>
+      </c>
+      <c r="J107">
+        <v>-96</v>
+      </c>
+      <c r="K107" t="s">
+        <v>13</v>
+      </c>
+      <c r="L107" t="s">
+        <v>13</v>
+      </c>
+      <c r="M107" t="s">
+        <v>13</v>
+      </c>
+      <c r="N107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>24510200500</v>
+      </c>
+      <c r="B108">
+        <v>922</v>
+      </c>
+      <c r="C108">
+        <v>-75</v>
+      </c>
+      <c r="D108">
+        <v>45</v>
+      </c>
+      <c r="E108">
+        <v>-258</v>
+      </c>
+      <c r="F108">
+        <v>32992</v>
+      </c>
+      <c r="G108">
+        <v>15388</v>
+      </c>
+      <c r="H108">
+        <v>31</v>
+      </c>
+      <c r="I108">
+        <v>75</v>
+      </c>
+      <c r="J108">
+        <v>26</v>
+      </c>
+      <c r="K108">
+        <v>10</v>
+      </c>
+      <c r="L108" t="s">
+        <v>13</v>
+      </c>
+      <c r="M108" t="s">
+        <v>13</v>
+      </c>
+      <c r="N108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>24510200800</v>
+      </c>
+      <c r="B109">
+        <v>549</v>
+      </c>
+      <c r="C109">
+        <v>0</v>
+      </c>
+      <c r="D109">
+        <v>-21</v>
+      </c>
+      <c r="E109">
+        <v>-120</v>
+      </c>
+      <c r="F109">
+        <v>48922</v>
+      </c>
+      <c r="G109">
+        <v>15397</v>
+      </c>
+      <c r="H109">
+        <v>21</v>
+      </c>
+      <c r="I109">
+        <v>90</v>
+      </c>
+      <c r="J109">
+        <v>-74</v>
+      </c>
+      <c r="K109">
+        <v>9</v>
+      </c>
+      <c r="L109">
+        <v>227158</v>
+      </c>
+      <c r="M109" t="s">
+        <v>13</v>
+      </c>
+      <c r="N109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>24510220100</v>
+      </c>
+      <c r="B110">
+        <v>9729</v>
+      </c>
+      <c r="C110">
+        <v>247</v>
+      </c>
+      <c r="D110">
+        <v>263</v>
+      </c>
+      <c r="E110">
+        <v>595</v>
+      </c>
+      <c r="F110">
+        <v>80129</v>
+      </c>
+      <c r="G110">
+        <v>25190</v>
+      </c>
+      <c r="H110">
+        <v>12</v>
+      </c>
+      <c r="I110">
+        <v>31</v>
+      </c>
+      <c r="J110">
+        <v>192</v>
+      </c>
+      <c r="K110">
+        <v>61</v>
+      </c>
+      <c r="L110">
+        <v>635205</v>
+      </c>
+      <c r="M110" t="s">
+        <v>13</v>
+      </c>
+      <c r="N110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>24510230100</v>
+      </c>
+      <c r="B111">
+        <v>904</v>
+      </c>
+      <c r="C111">
+        <v>-148</v>
+      </c>
+      <c r="D111">
+        <v>51</v>
+      </c>
+      <c r="E111">
+        <v>7</v>
+      </c>
+      <c r="F111">
+        <v>74578</v>
+      </c>
+      <c r="G111">
+        <v>10828</v>
+      </c>
+      <c r="H111">
+        <v>14</v>
+      </c>
+      <c r="I111">
+        <v>37</v>
+      </c>
+      <c r="J111">
+        <v>-6</v>
+      </c>
+      <c r="K111">
+        <v>8</v>
+      </c>
+      <c r="L111">
+        <v>507542</v>
+      </c>
+      <c r="M111" t="s">
+        <v>13</v>
+      </c>
+      <c r="N111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>24510230200</v>
+      </c>
+      <c r="B112">
+        <v>910</v>
+      </c>
+      <c r="C112">
+        <v>-44</v>
+      </c>
+      <c r="D112">
+        <v>68</v>
+      </c>
+      <c r="E112">
+        <v>-339</v>
+      </c>
+      <c r="F112">
+        <v>107391</v>
+      </c>
+      <c r="G112">
+        <v>8208</v>
+      </c>
+      <c r="H112">
+        <v>8</v>
+      </c>
+      <c r="I112">
+        <v>18</v>
+      </c>
+      <c r="J112">
+        <v>59</v>
+      </c>
+      <c r="K112">
+        <v>33</v>
+      </c>
+      <c r="L112">
+        <v>437110</v>
+      </c>
+      <c r="M112" t="s">
+        <v>13</v>
+      </c>
+      <c r="N112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>24510230300</v>
+      </c>
+      <c r="B113">
+        <v>1243</v>
+      </c>
+      <c r="C113">
+        <v>603</v>
+      </c>
+      <c r="D113">
+        <v>422</v>
+      </c>
+      <c r="E113">
+        <v>232</v>
+      </c>
+      <c r="F113">
+        <v>104250</v>
+      </c>
+      <c r="G113">
+        <v>25115</v>
+      </c>
+      <c r="H113">
+        <v>8</v>
+      </c>
+      <c r="I113">
+        <v>18</v>
+      </c>
+      <c r="J113">
+        <v>70</v>
+      </c>
+      <c r="K113">
+        <v>2</v>
+      </c>
+      <c r="L113">
+        <v>300650</v>
+      </c>
+      <c r="M113" t="s">
+        <v>13</v>
+      </c>
+      <c r="N113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>24510240100</v>
+      </c>
+      <c r="B114">
+        <v>3875</v>
+      </c>
+      <c r="C114">
+        <v>145</v>
+      </c>
+      <c r="D114">
+        <v>337</v>
+      </c>
+      <c r="E114">
+        <v>600</v>
+      </c>
+      <c r="F114">
+        <v>142328</v>
+      </c>
+      <c r="G114">
+        <v>52060</v>
+      </c>
+      <c r="H114">
+        <v>3</v>
+      </c>
+      <c r="I114">
+        <v>10</v>
+      </c>
+      <c r="J114">
+        <v>23</v>
+      </c>
+      <c r="K114">
+        <v>1</v>
+      </c>
+      <c r="L114">
+        <v>223760</v>
+      </c>
+      <c r="M114" t="s">
+        <v>13</v>
+      </c>
+      <c r="N114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>24510240200</v>
+      </c>
+      <c r="B115">
+        <v>2111</v>
+      </c>
+      <c r="C115">
+        <v>722</v>
+      </c>
+      <c r="D115">
+        <v>277</v>
+      </c>
+      <c r="E115">
+        <v>-209</v>
+      </c>
+      <c r="F115">
+        <v>132281</v>
+      </c>
+      <c r="G115">
+        <v>2316</v>
+      </c>
+      <c r="H115">
+        <v>2</v>
+      </c>
+      <c r="I115">
+        <v>13</v>
+      </c>
+      <c r="J115">
+        <v>-26</v>
+      </c>
+      <c r="K115">
+        <v>150</v>
+      </c>
+      <c r="L115">
+        <v>256450</v>
+      </c>
+      <c r="M115" t="s">
+        <v>13</v>
+      </c>
+      <c r="N115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>24510240300</v>
+      </c>
+      <c r="B116">
+        <v>324</v>
+      </c>
+      <c r="C116">
+        <v>42</v>
+      </c>
+      <c r="D116">
+        <v>79</v>
+      </c>
+      <c r="E116">
+        <v>-87</v>
+      </c>
+      <c r="F116">
+        <v>128900</v>
+      </c>
+      <c r="G116">
+        <v>35738</v>
+      </c>
+      <c r="H116">
+        <v>5</v>
+      </c>
+      <c r="I116">
+        <v>23</v>
+      </c>
+      <c r="J116">
+        <v>71</v>
+      </c>
+      <c r="K116">
+        <v>27</v>
+      </c>
+      <c r="L116">
+        <v>372304</v>
+      </c>
+      <c r="M116" t="s">
+        <v>13</v>
+      </c>
+      <c r="N116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>24510240400</v>
+      </c>
+      <c r="B117">
+        <v>1823</v>
+      </c>
+      <c r="C117">
+        <v>234</v>
+      </c>
+      <c r="D117">
+        <v>366</v>
+      </c>
+      <c r="E117">
+        <v>-145</v>
+      </c>
+      <c r="F117">
+        <v>110982</v>
+      </c>
+      <c r="G117">
+        <v>23597</v>
+      </c>
+      <c r="H117">
+        <v>2</v>
+      </c>
+      <c r="I117">
+        <v>6</v>
+      </c>
+      <c r="J117">
+        <v>-113</v>
+      </c>
+      <c r="K117">
+        <v>5</v>
+      </c>
+      <c r="L117">
+        <v>309758</v>
+      </c>
+      <c r="M117" t="s">
+        <v>13</v>
+      </c>
+      <c r="N117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>24510250101</v>
+      </c>
+      <c r="B118">
+        <v>244</v>
+      </c>
+      <c r="C118">
+        <v>164</v>
+      </c>
+      <c r="D118">
+        <v>90</v>
+      </c>
+      <c r="E118">
+        <v>169</v>
+      </c>
+      <c r="F118">
+        <v>57991</v>
+      </c>
+      <c r="G118">
+        <v>8327</v>
+      </c>
+      <c r="H118">
+        <v>14</v>
+      </c>
+      <c r="I118">
+        <v>87</v>
+      </c>
+      <c r="J118">
+        <v>114</v>
+      </c>
+      <c r="K118" t="s">
+        <v>13</v>
+      </c>
+      <c r="L118" t="s">
+        <v>13</v>
+      </c>
+      <c r="M118" t="s">
+        <v>13</v>
+      </c>
+      <c r="N118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>24510250102</v>
+      </c>
+      <c r="B119">
+        <v>254</v>
+      </c>
+      <c r="C119">
+        <v>-16</v>
+      </c>
+      <c r="D119">
+        <v>-20</v>
+      </c>
+      <c r="E119">
+        <v>158</v>
+      </c>
+      <c r="F119">
+        <v>50354</v>
+      </c>
+      <c r="G119">
+        <v>14606</v>
+      </c>
+      <c r="H119">
+        <v>13</v>
+      </c>
+      <c r="I119">
+        <v>91</v>
+      </c>
+      <c r="J119">
+        <v>-89</v>
+      </c>
+      <c r="K119" t="s">
+        <v>13</v>
+      </c>
+      <c r="L119" t="s">
+        <v>13</v>
+      </c>
+      <c r="M119" t="s">
+        <v>13</v>
+      </c>
+      <c r="N119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>24510250103</v>
+      </c>
+      <c r="B120">
+        <v>7109</v>
+      </c>
+      <c r="C120">
+        <v>2677</v>
+      </c>
+      <c r="D120">
+        <v>1660</v>
+      </c>
+      <c r="E120">
+        <v>-84</v>
+      </c>
+      <c r="F120">
+        <v>41307</v>
+      </c>
+      <c r="G120">
+        <v>10986</v>
+      </c>
+      <c r="H120">
+        <v>18</v>
+      </c>
+      <c r="I120">
+        <v>42</v>
+      </c>
+      <c r="J120">
+        <v>100</v>
+      </c>
+      <c r="K120">
+        <v>4</v>
+      </c>
+      <c r="L120">
+        <v>27900</v>
+      </c>
+      <c r="M120" t="s">
+        <v>13</v>
+      </c>
+      <c r="N120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>24510250203</v>
+      </c>
+      <c r="B121">
+        <v>1509</v>
+      </c>
+      <c r="C121">
+        <v>-79</v>
+      </c>
+      <c r="D121">
+        <v>104</v>
+      </c>
+      <c r="E121">
+        <v>-6</v>
+      </c>
+      <c r="F121">
+        <v>34873</v>
+      </c>
+      <c r="G121">
+        <v>2831</v>
+      </c>
+      <c r="H121">
+        <v>23</v>
+      </c>
+      <c r="I121">
+        <v>91</v>
+      </c>
+      <c r="J121">
+        <v>-112</v>
+      </c>
+      <c r="K121">
+        <v>2</v>
+      </c>
+      <c r="L121">
+        <v>108900</v>
+      </c>
+      <c r="M121" t="s">
+        <v>13</v>
+      </c>
+      <c r="N121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>24510250204</v>
+      </c>
+      <c r="B122">
+        <v>107</v>
+      </c>
+      <c r="C122">
+        <v>-11</v>
+      </c>
+      <c r="D122">
+        <v>-2</v>
+      </c>
+      <c r="E122">
+        <v>-73</v>
+      </c>
+      <c r="F122">
+        <v>16750</v>
+      </c>
+      <c r="G122">
+        <v>3417</v>
+      </c>
+      <c r="H122">
+        <v>58</v>
+      </c>
+      <c r="I122">
+        <v>97</v>
+      </c>
+      <c r="J122">
+        <v>-87</v>
+      </c>
+      <c r="K122">
+        <v>1</v>
+      </c>
+      <c r="L122" t="s">
+        <v>13</v>
+      </c>
+      <c r="M122" t="s">
+        <v>13</v>
+      </c>
+      <c r="N122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>24510250205</v>
+      </c>
+      <c r="B123">
+        <v>2337</v>
+      </c>
+      <c r="C123">
+        <v>182</v>
+      </c>
+      <c r="D123">
+        <v>278</v>
+      </c>
+      <c r="E123">
+        <v>-716</v>
+      </c>
+      <c r="F123">
+        <v>41184</v>
+      </c>
+      <c r="G123">
+        <v>-2918</v>
+      </c>
+      <c r="H123">
+        <v>20</v>
+      </c>
+      <c r="I123">
+        <v>78</v>
+      </c>
+      <c r="J123">
+        <v>56</v>
+      </c>
+      <c r="K123">
+        <v>7</v>
+      </c>
+      <c r="L123" t="s">
+        <v>13</v>
+      </c>
+      <c r="M123" t="s">
+        <v>13</v>
+      </c>
+      <c r="N123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>24510250206</v>
+      </c>
+      <c r="B124">
+        <v>3325</v>
+      </c>
+      <c r="C124">
+        <v>-444</v>
+      </c>
+      <c r="D124">
+        <v>172</v>
+      </c>
+      <c r="E124">
+        <v>82</v>
+      </c>
+      <c r="F124">
+        <v>65304</v>
+      </c>
+      <c r="G124">
+        <v>23950</v>
+      </c>
+      <c r="H124">
+        <v>14</v>
+      </c>
+      <c r="I124">
+        <v>35</v>
+      </c>
+      <c r="J124">
+        <v>180</v>
+      </c>
+      <c r="K124">
+        <v>8</v>
+      </c>
+      <c r="L124">
+        <v>181725</v>
+      </c>
+      <c r="M124" t="s">
+        <v>13</v>
+      </c>
+      <c r="N124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>24510250207</v>
+      </c>
+      <c r="B125">
+        <v>767</v>
+      </c>
+      <c r="C125">
+        <v>52</v>
+      </c>
+      <c r="D125">
+        <v>116</v>
+      </c>
+      <c r="E125">
+        <v>-26</v>
+      </c>
+      <c r="F125">
+        <v>38194</v>
+      </c>
+      <c r="G125">
+        <v>7971</v>
+      </c>
+      <c r="H125">
+        <v>30</v>
+      </c>
+      <c r="I125">
+        <v>95</v>
+      </c>
+      <c r="J125">
+        <v>-127</v>
+      </c>
+      <c r="K125">
+        <v>1</v>
+      </c>
+      <c r="L125" t="s">
+        <v>13</v>
+      </c>
+      <c r="M125" t="s">
+        <v>13</v>
+      </c>
+      <c r="N125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>24510250301</v>
+      </c>
+      <c r="B126">
+        <v>446</v>
+      </c>
+      <c r="C126">
+        <v>15</v>
+      </c>
+      <c r="D126">
+        <v>28</v>
+      </c>
+      <c r="E126">
+        <v>-130</v>
+      </c>
+      <c r="F126">
+        <v>26581</v>
+      </c>
+      <c r="G126">
+        <v>-7604</v>
+      </c>
+      <c r="H126">
+        <v>41</v>
+      </c>
+      <c r="I126">
+        <v>91</v>
+      </c>
+      <c r="J126">
+        <v>-2</v>
+      </c>
+      <c r="K126">
+        <v>19</v>
+      </c>
+      <c r="L126">
+        <v>34213</v>
+      </c>
+      <c r="M126" t="s">
+        <v>13</v>
+      </c>
+      <c r="N126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>24510250303</v>
+      </c>
+      <c r="B127">
+        <v>639</v>
+      </c>
+      <c r="C127">
+        <v>23</v>
+      </c>
+      <c r="D127">
+        <v>46</v>
+      </c>
+      <c r="E127">
+        <v>-205</v>
+      </c>
+      <c r="F127">
+        <v>38519</v>
+      </c>
+      <c r="G127">
+        <v>-2759</v>
+      </c>
+      <c r="H127">
+        <v>26</v>
+      </c>
+      <c r="I127">
+        <v>38</v>
+      </c>
+      <c r="J127">
+        <v>46</v>
+      </c>
+      <c r="K127">
+        <v>4</v>
+      </c>
+      <c r="L127">
+        <v>82740</v>
+      </c>
+      <c r="M127" t="s">
+        <v>13</v>
+      </c>
+      <c r="N127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>24510250401</v>
+      </c>
+      <c r="B128">
+        <v>460</v>
+      </c>
+      <c r="C128">
+        <v>-145</v>
+      </c>
+      <c r="D128">
+        <v>-1</v>
+      </c>
+      <c r="E128">
+        <v>21</v>
+      </c>
+      <c r="F128">
+        <v>47321</v>
+      </c>
+      <c r="G128">
+        <v>15015</v>
+      </c>
+      <c r="H128">
+        <v>24</v>
+      </c>
+      <c r="I128">
+        <v>46</v>
+      </c>
+      <c r="J128">
+        <v>174</v>
+      </c>
+      <c r="K128">
+        <v>68</v>
+      </c>
+      <c r="L128">
+        <v>180000</v>
+      </c>
+      <c r="M128" t="s">
+        <v>13</v>
+      </c>
+      <c r="N128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>24510250402</v>
+      </c>
+      <c r="B129">
+        <v>39</v>
+      </c>
+      <c r="C129">
+        <v>-60</v>
+      </c>
+      <c r="D129">
+        <v>1</v>
+      </c>
+      <c r="E129">
+        <v>-419</v>
+      </c>
+      <c r="F129">
+        <v>37451</v>
+      </c>
+      <c r="G129">
+        <v>7812</v>
+      </c>
+      <c r="H129">
+        <v>34</v>
+      </c>
+      <c r="I129">
+        <v>68</v>
+      </c>
+      <c r="J129">
+        <v>-13</v>
+      </c>
+      <c r="K129">
+        <v>3</v>
+      </c>
+      <c r="L129" t="s">
+        <v>13</v>
+      </c>
+      <c r="M129" t="s">
+        <v>13</v>
+      </c>
+      <c r="N129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>24510250500</v>
+      </c>
+      <c r="B130">
+        <v>4485</v>
+      </c>
+      <c r="C130">
+        <v>-454</v>
+      </c>
+      <c r="D130">
+        <v>501</v>
+      </c>
+      <c r="E130">
+        <v>-900</v>
+      </c>
+      <c r="F130">
+        <v>37395</v>
+      </c>
+      <c r="G130">
+        <v>-6418</v>
+      </c>
+      <c r="H130">
+        <v>30</v>
+      </c>
+      <c r="I130">
+        <v>43</v>
+      </c>
+      <c r="J130">
+        <v>-202</v>
+      </c>
+      <c r="K130">
+        <v>26</v>
+      </c>
+      <c r="L130" t="s">
+        <v>13</v>
+      </c>
+      <c r="M130" t="s">
+        <v>13</v>
+      </c>
+      <c r="N130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>24510250600</v>
+      </c>
+      <c r="B131">
+        <v>3058</v>
+      </c>
+      <c r="C131">
+        <v>103</v>
+      </c>
+      <c r="D131">
+        <v>168</v>
+      </c>
+      <c r="E131">
+        <v>0</v>
+      </c>
+      <c r="F131" t="s">
+        <v>13</v>
+      </c>
+      <c r="G131" t="s">
+        <v>13</v>
+      </c>
+      <c r="H131" t="s">
+        <v>13</v>
+      </c>
+      <c r="I131" t="s">
+        <v>13</v>
+      </c>
+      <c r="J131" t="s">
+        <v>13</v>
+      </c>
+      <c r="K131" t="s">
+        <v>13</v>
+      </c>
+      <c r="L131" t="s">
+        <v>13</v>
+      </c>
+      <c r="M131" t="s">
+        <v>13</v>
+      </c>
+      <c r="N131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>24510260101</v>
+      </c>
+      <c r="B132">
+        <v>431</v>
+      </c>
+      <c r="C132">
+        <v>-56</v>
+      </c>
+      <c r="D132">
+        <v>-47</v>
+      </c>
+      <c r="E132">
+        <v>128</v>
+      </c>
+      <c r="F132">
+        <v>59219</v>
+      </c>
+      <c r="G132">
+        <v>14728</v>
+      </c>
+      <c r="H132">
+        <v>9</v>
+      </c>
+      <c r="I132">
+        <v>78</v>
+      </c>
+      <c r="J132">
+        <v>259</v>
+      </c>
+      <c r="K132">
+        <v>20</v>
+      </c>
+      <c r="L132">
+        <v>207047</v>
+      </c>
+      <c r="M132" t="s">
+        <v>13</v>
+      </c>
+      <c r="N132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>24510260102</v>
+      </c>
+      <c r="B133">
+        <v>218</v>
+      </c>
+      <c r="C133">
+        <v>70</v>
+      </c>
+      <c r="D133">
+        <v>12</v>
+      </c>
+      <c r="E133">
+        <v>-4</v>
+      </c>
+      <c r="F133">
+        <v>62586</v>
+      </c>
+      <c r="G133">
+        <v>12845</v>
+      </c>
+      <c r="H133">
+        <v>10</v>
+      </c>
+      <c r="I133">
+        <v>85</v>
+      </c>
+      <c r="J133">
+        <v>-55</v>
+      </c>
+      <c r="K133">
+        <v>2</v>
+      </c>
+      <c r="L133">
+        <v>159500</v>
+      </c>
+      <c r="M133" t="s">
+        <v>13</v>
+      </c>
+      <c r="N133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>24510260201</v>
+      </c>
+      <c r="B134">
+        <v>849</v>
+      </c>
+      <c r="C134">
+        <v>-96</v>
+      </c>
+      <c r="D134">
+        <v>16</v>
+      </c>
+      <c r="E134">
+        <v>-335</v>
+      </c>
+      <c r="F134">
+        <v>40996</v>
+      </c>
+      <c r="G134">
+        <v>2821</v>
+      </c>
+      <c r="H134">
+        <v>17</v>
+      </c>
+      <c r="I134">
+        <v>88</v>
+      </c>
+      <c r="J134">
+        <v>-49</v>
+      </c>
+      <c r="K134">
+        <v>3</v>
+      </c>
+      <c r="L134">
+        <v>168600</v>
+      </c>
+      <c r="M134" t="s">
+        <v>13</v>
+      </c>
+      <c r="N134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>24510260202</v>
+      </c>
+      <c r="B135">
+        <v>145</v>
+      </c>
+      <c r="C135">
+        <v>27</v>
+      </c>
+      <c r="D135">
+        <v>8</v>
+      </c>
+      <c r="E135">
+        <v>-307</v>
+      </c>
+      <c r="F135">
+        <v>41538</v>
+      </c>
+      <c r="G135">
+        <v>9620</v>
+      </c>
+      <c r="H135">
+        <v>16</v>
+      </c>
+      <c r="I135">
+        <v>92</v>
+      </c>
+      <c r="J135">
+        <v>-111</v>
+      </c>
+      <c r="K135">
+        <v>5</v>
+      </c>
+      <c r="L135">
+        <v>99371</v>
+      </c>
+      <c r="M135" t="s">
+        <v>13</v>
+      </c>
+      <c r="N135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>24510260203</v>
+      </c>
+      <c r="B136">
+        <v>314</v>
+      </c>
+      <c r="C136">
+        <v>-22</v>
+      </c>
+      <c r="D136">
+        <v>30</v>
+      </c>
+      <c r="E136">
+        <v>109</v>
+      </c>
+      <c r="F136">
+        <v>53194</v>
+      </c>
+      <c r="G136">
+        <v>18668</v>
+      </c>
+      <c r="H136">
+        <v>31</v>
+      </c>
+      <c r="I136">
+        <v>97</v>
+      </c>
+      <c r="J136">
+        <v>80</v>
+      </c>
+      <c r="K136">
+        <v>2</v>
+      </c>
+      <c r="L136" t="s">
+        <v>13</v>
+      </c>
+      <c r="M136" t="s">
+        <v>13</v>
+      </c>
+      <c r="N136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>24510260301</v>
+      </c>
+      <c r="B137">
+        <v>247</v>
+      </c>
+      <c r="C137">
+        <v>17</v>
+      </c>
+      <c r="D137">
+        <v>-2</v>
+      </c>
+      <c r="E137">
+        <v>-97</v>
+      </c>
+      <c r="F137">
+        <v>49005</v>
+      </c>
+      <c r="G137">
+        <v>12451</v>
+      </c>
+      <c r="H137">
+        <v>33</v>
+      </c>
+      <c r="I137">
+        <v>92</v>
+      </c>
+      <c r="J137">
+        <v>-59</v>
+      </c>
+      <c r="K137">
+        <v>9</v>
+      </c>
+      <c r="L137">
+        <v>228800</v>
+      </c>
+      <c r="M137" t="s">
+        <v>13</v>
+      </c>
+      <c r="N137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>24510260302</v>
+      </c>
+      <c r="B138">
+        <v>246</v>
+      </c>
+      <c r="C138">
+        <v>61</v>
+      </c>
+      <c r="D138">
+        <v>13</v>
+      </c>
+      <c r="E138">
+        <v>-14</v>
+      </c>
+      <c r="F138">
+        <v>41280</v>
+      </c>
+      <c r="G138">
+        <v>6149</v>
+      </c>
+      <c r="H138">
+        <v>34</v>
+      </c>
+      <c r="I138">
+        <v>94</v>
+      </c>
+      <c r="J138">
+        <v>341</v>
+      </c>
+      <c r="K138" t="s">
+        <v>13</v>
+      </c>
+      <c r="L138">
+        <v>290600</v>
+      </c>
+      <c r="M138" t="s">
+        <v>13</v>
+      </c>
+      <c r="N138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>24510260303</v>
+      </c>
+      <c r="B139">
+        <v>1014</v>
+      </c>
+      <c r="C139">
+        <v>-21</v>
+      </c>
+      <c r="D139">
+        <v>78</v>
+      </c>
+      <c r="E139">
+        <v>142</v>
+      </c>
+      <c r="F139">
+        <v>17000</v>
+      </c>
+      <c r="G139">
+        <v>-3114</v>
+      </c>
+      <c r="H139">
+        <v>41</v>
+      </c>
+      <c r="I139">
+        <v>70</v>
+      </c>
+      <c r="J139">
+        <v>55</v>
+      </c>
+      <c r="K139">
+        <v>1</v>
+      </c>
+      <c r="L139" t="s">
+        <v>13</v>
+      </c>
+      <c r="M139" t="s">
+        <v>13</v>
+      </c>
+      <c r="N139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>24510260401</v>
+      </c>
+      <c r="B140">
+        <v>271</v>
+      </c>
+      <c r="C140">
+        <v>-15</v>
+      </c>
+      <c r="D140">
+        <v>17</v>
+      </c>
+      <c r="E140">
+        <v>494</v>
+      </c>
+      <c r="F140">
+        <v>40281</v>
+      </c>
+      <c r="G140">
+        <v>10767</v>
+      </c>
+      <c r="H140">
+        <v>23</v>
+      </c>
+      <c r="I140">
+        <v>45</v>
+      </c>
+      <c r="J140">
+        <v>233</v>
+      </c>
+      <c r="K140" t="s">
+        <v>13</v>
+      </c>
+      <c r="L140" t="s">
+        <v>13</v>
+      </c>
+      <c r="M140" t="s">
+        <v>13</v>
+      </c>
+      <c r="N140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>24510260402</v>
+      </c>
+      <c r="B141">
+        <v>764</v>
+      </c>
+      <c r="C141">
+        <v>89</v>
+      </c>
+      <c r="D141">
+        <v>-5</v>
+      </c>
+      <c r="E141">
+        <v>243</v>
+      </c>
+      <c r="F141">
+        <v>38934</v>
+      </c>
+      <c r="G141">
+        <v>-9437</v>
+      </c>
+      <c r="H141">
+        <v>28</v>
+      </c>
+      <c r="I141">
+        <v>93</v>
+      </c>
+      <c r="J141">
+        <v>104</v>
+      </c>
+      <c r="K141" t="s">
+        <v>13</v>
+      </c>
+      <c r="L141" t="s">
+        <v>13</v>
+      </c>
+      <c r="M141" t="s">
+        <v>13</v>
+      </c>
+      <c r="N141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>24510260403</v>
+      </c>
+      <c r="B142">
+        <v>505</v>
+      </c>
+      <c r="C142">
+        <v>115</v>
+      </c>
+      <c r="D142">
+        <v>113</v>
+      </c>
+      <c r="E142">
+        <v>-107</v>
+      </c>
+      <c r="F142">
+        <v>31625</v>
+      </c>
+      <c r="G142">
+        <v>-5964</v>
+      </c>
+      <c r="H142">
+        <v>25</v>
+      </c>
+      <c r="I142">
+        <v>99</v>
+      </c>
+      <c r="J142">
+        <v>32</v>
+      </c>
+      <c r="K142" t="s">
+        <v>13</v>
+      </c>
+      <c r="L142" t="s">
+        <v>13</v>
+      </c>
+      <c r="M142" t="s">
+        <v>13</v>
+      </c>
+      <c r="N142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>24510260404</v>
+      </c>
+      <c r="B143">
+        <v>5739</v>
+      </c>
+      <c r="C143">
+        <v>89</v>
+      </c>
+      <c r="D143">
+        <v>341</v>
+      </c>
+      <c r="E143">
+        <v>-87</v>
+      </c>
+      <c r="F143">
+        <v>45781</v>
+      </c>
+      <c r="G143">
+        <v>7531</v>
+      </c>
+      <c r="H143">
+        <v>26</v>
+      </c>
+      <c r="I143">
+        <v>54</v>
+      </c>
+      <c r="J143">
+        <v>-219</v>
+      </c>
+      <c r="K143" t="s">
+        <v>13</v>
+      </c>
+      <c r="L143">
+        <v>150950</v>
+      </c>
+      <c r="M143" t="s">
+        <v>13</v>
+      </c>
+      <c r="N143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>24510260605</v>
+      </c>
+      <c r="B144">
+        <v>17451</v>
+      </c>
+      <c r="C144">
+        <v>5400</v>
+      </c>
+      <c r="D144">
+        <v>1672</v>
+      </c>
+      <c r="E144">
+        <v>-110</v>
+      </c>
+      <c r="F144">
+        <v>41698</v>
+      </c>
+      <c r="G144">
+        <v>6902</v>
+      </c>
+      <c r="H144">
+        <v>29</v>
+      </c>
+      <c r="I144">
+        <v>45</v>
+      </c>
+      <c r="J144">
+        <v>111</v>
+      </c>
+      <c r="K144">
+        <v>18</v>
+      </c>
+      <c r="L144">
+        <v>138413</v>
+      </c>
+      <c r="M144" t="s">
+        <v>13</v>
+      </c>
+      <c r="N144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>24510270101</v>
+      </c>
+      <c r="B145">
+        <v>60</v>
+      </c>
+      <c r="C145">
+        <v>19</v>
+      </c>
+      <c r="D145">
+        <v>2</v>
+      </c>
+      <c r="E145">
+        <v>-50</v>
+      </c>
+      <c r="F145">
+        <v>76591</v>
+      </c>
+      <c r="G145">
+        <v>8258</v>
+      </c>
+      <c r="H145">
+        <v>17</v>
+      </c>
+      <c r="I145">
+        <v>45</v>
+      </c>
+      <c r="J145">
+        <v>15</v>
+      </c>
+      <c r="K145">
+        <v>1</v>
+      </c>
+      <c r="L145" t="s">
+        <v>13</v>
+      </c>
+      <c r="M145" t="s">
+        <v>13</v>
+      </c>
+      <c r="N145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>24510270102</v>
+      </c>
+      <c r="B146">
+        <v>73</v>
+      </c>
+      <c r="C146">
+        <v>-8</v>
+      </c>
+      <c r="D146">
+        <v>-2</v>
+      </c>
+      <c r="E146">
+        <v>-178</v>
+      </c>
+      <c r="F146">
+        <v>64922</v>
+      </c>
+      <c r="G146">
+        <v>-1308</v>
+      </c>
+      <c r="H146">
+        <v>7</v>
+      </c>
+      <c r="I146">
+        <v>74</v>
+      </c>
+      <c r="J146">
+        <v>-61</v>
+      </c>
+      <c r="K146">
+        <v>5</v>
+      </c>
+      <c r="L146">
+        <v>100660</v>
+      </c>
+      <c r="M146" t="s">
+        <v>13</v>
+      </c>
+      <c r="N146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>24510270200</v>
+      </c>
+      <c r="B147">
+        <v>931</v>
+      </c>
+      <c r="C147">
+        <v>242</v>
+      </c>
+      <c r="D147">
+        <v>227</v>
+      </c>
+      <c r="E147">
+        <v>-11</v>
+      </c>
+      <c r="F147">
+        <v>77792</v>
+      </c>
+      <c r="G147">
+        <v>12144</v>
+      </c>
+      <c r="H147">
+        <v>7</v>
+      </c>
+      <c r="I147">
+        <v>40</v>
+      </c>
+      <c r="J147">
+        <v>17</v>
+      </c>
+      <c r="K147">
+        <v>12</v>
+      </c>
+      <c r="L147">
+        <v>163482</v>
+      </c>
+      <c r="M147" t="s">
+        <v>13</v>
+      </c>
+      <c r="N147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>24510270301</v>
+      </c>
+      <c r="B148">
+        <v>498</v>
+      </c>
+      <c r="C148">
+        <v>14</v>
+      </c>
+      <c r="D148">
+        <v>24</v>
+      </c>
+      <c r="E148">
+        <v>-5</v>
+      </c>
+      <c r="F148">
+        <v>77977</v>
+      </c>
+      <c r="G148">
+        <v>12188</v>
+      </c>
+      <c r="H148">
+        <v>6</v>
+      </c>
+      <c r="I148">
+        <v>57</v>
+      </c>
+      <c r="J148">
+        <v>-26</v>
+      </c>
+      <c r="K148">
+        <v>3</v>
+      </c>
+      <c r="L148" t="s">
+        <v>13</v>
+      </c>
+      <c r="M148" t="s">
+        <v>13</v>
+      </c>
+      <c r="N148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>24510270302</v>
+      </c>
+      <c r="B149">
+        <v>160</v>
+      </c>
+      <c r="C149">
+        <v>-15</v>
+      </c>
+      <c r="D149">
+        <v>16</v>
+      </c>
+      <c r="E149">
+        <v>-122</v>
+      </c>
+      <c r="F149">
+        <v>71500</v>
+      </c>
+      <c r="G149">
+        <v>7621</v>
+      </c>
+      <c r="H149">
+        <v>16</v>
+      </c>
+      <c r="I149">
+        <v>53</v>
+      </c>
+      <c r="J149">
+        <v>77</v>
+      </c>
+      <c r="K149">
+        <v>5</v>
+      </c>
+      <c r="L149">
+        <v>290750</v>
+      </c>
+      <c r="M149" t="s">
+        <v>13</v>
+      </c>
+      <c r="N149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>24510270401</v>
+      </c>
+      <c r="B150">
+        <v>684</v>
+      </c>
+      <c r="C150">
+        <v>37</v>
+      </c>
+      <c r="D150">
+        <v>49</v>
+      </c>
+      <c r="E150">
+        <v>-705</v>
+      </c>
+      <c r="F150">
+        <v>59886</v>
+      </c>
+      <c r="G150">
+        <v>-9188</v>
+      </c>
+      <c r="H150">
+        <v>10</v>
+      </c>
+      <c r="I150">
+        <v>61</v>
+      </c>
+      <c r="J150">
+        <v>-353</v>
+      </c>
+      <c r="K150">
+        <v>24</v>
+      </c>
+      <c r="L150">
+        <v>136859</v>
+      </c>
+      <c r="M150" t="s">
+        <v>13</v>
+      </c>
+      <c r="N150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>24510270402</v>
+      </c>
+      <c r="B151">
+        <v>446</v>
+      </c>
+      <c r="C151">
+        <v>-116</v>
+      </c>
+      <c r="D151">
+        <v>21</v>
+      </c>
+      <c r="E151">
+        <v>21</v>
+      </c>
+      <c r="F151">
+        <v>83160</v>
+      </c>
+      <c r="G151">
+        <v>17410</v>
+      </c>
+      <c r="H151">
+        <v>5</v>
+      </c>
+      <c r="I151">
+        <v>53</v>
+      </c>
+      <c r="J151">
+        <v>30</v>
+      </c>
+      <c r="K151">
+        <v>11</v>
+      </c>
+      <c r="L151">
+        <v>321370</v>
+      </c>
+      <c r="M151" t="s">
+        <v>13</v>
+      </c>
+      <c r="N151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>24510270501</v>
+      </c>
+      <c r="B152">
+        <v>812</v>
+      </c>
+      <c r="C152">
+        <v>-94</v>
+      </c>
+      <c r="D152">
+        <v>84</v>
+      </c>
+      <c r="E152">
+        <v>-284</v>
+      </c>
+      <c r="F152">
+        <v>63509</v>
+      </c>
+      <c r="G152">
+        <v>-11064</v>
+      </c>
+      <c r="H152">
+        <v>7</v>
+      </c>
+      <c r="I152">
+        <v>36</v>
+      </c>
+      <c r="J152">
+        <v>41</v>
+      </c>
+      <c r="K152">
+        <v>8</v>
+      </c>
+      <c r="L152">
+        <v>306435</v>
+      </c>
+      <c r="M152" t="s">
+        <v>13</v>
+      </c>
+      <c r="N152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>24510270502</v>
+      </c>
+      <c r="B153">
+        <v>429</v>
+      </c>
+      <c r="C153">
+        <v>-15</v>
+      </c>
+      <c r="D153">
+        <v>4</v>
+      </c>
+      <c r="E153">
+        <v>159</v>
+      </c>
+      <c r="F153">
+        <v>75197</v>
+      </c>
+      <c r="G153">
+        <v>16978</v>
+      </c>
+      <c r="H153">
+        <v>9</v>
+      </c>
+      <c r="I153">
+        <v>56</v>
+      </c>
+      <c r="J153">
+        <v>-50</v>
+      </c>
+      <c r="K153">
+        <v>3</v>
+      </c>
+      <c r="L153">
+        <v>464750</v>
+      </c>
+      <c r="M153" t="s">
+        <v>13</v>
+      </c>
+      <c r="N153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>24510270600</v>
+      </c>
+      <c r="B154">
+        <v>413</v>
+      </c>
+      <c r="C154">
+        <v>-356</v>
+      </c>
+      <c r="D154">
+        <v>-44</v>
+      </c>
+      <c r="E154">
+        <v>341</v>
+      </c>
+      <c r="F154">
+        <v>71847</v>
+      </c>
+      <c r="G154">
+        <v>12085</v>
+      </c>
+      <c r="H154">
+        <v>7</v>
+      </c>
+      <c r="I154">
+        <v>64</v>
+      </c>
+      <c r="J154">
+        <v>214</v>
+      </c>
+      <c r="K154">
+        <v>13</v>
+      </c>
+      <c r="L154">
+        <v>374641</v>
+      </c>
+      <c r="M154" t="s">
+        <v>13</v>
+      </c>
+      <c r="N154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>24510270701</v>
+      </c>
+      <c r="B155">
+        <v>239</v>
+      </c>
+      <c r="C155">
+        <v>42</v>
+      </c>
+      <c r="D155">
+        <v>47</v>
+      </c>
+      <c r="E155">
+        <v>-102</v>
+      </c>
+      <c r="F155">
+        <v>36824</v>
+      </c>
+      <c r="G155">
+        <v>-2098</v>
+      </c>
+      <c r="H155">
+        <v>18</v>
+      </c>
+      <c r="I155">
+        <v>95</v>
+      </c>
+      <c r="J155">
+        <v>-76</v>
+      </c>
+      <c r="K155" t="s">
+        <v>13</v>
+      </c>
+      <c r="L155" t="s">
+        <v>13</v>
+      </c>
+      <c r="M155" t="s">
+        <v>13</v>
+      </c>
+      <c r="N155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>24510270702</v>
+      </c>
+      <c r="B156">
+        <v>469</v>
+      </c>
+      <c r="C156">
+        <v>-158</v>
+      </c>
+      <c r="D156">
+        <v>-15</v>
+      </c>
+      <c r="E156">
+        <v>-127</v>
+      </c>
+      <c r="F156">
+        <v>55285</v>
+      </c>
+      <c r="G156">
+        <v>18345</v>
+      </c>
+      <c r="H156">
+        <v>8</v>
+      </c>
+      <c r="I156">
+        <v>70</v>
+      </c>
+      <c r="J156">
+        <v>-55</v>
+      </c>
+      <c r="K156">
+        <v>9</v>
+      </c>
+      <c r="L156" t="s">
+        <v>13</v>
+      </c>
+      <c r="M156" t="s">
+        <v>13</v>
+      </c>
+      <c r="N156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>24510270703</v>
+      </c>
+      <c r="B157">
+        <v>213</v>
+      </c>
+      <c r="C157">
+        <v>-36</v>
+      </c>
+      <c r="D157">
+        <v>7</v>
+      </c>
+      <c r="E157">
+        <v>176</v>
+      </c>
+      <c r="F157">
+        <v>67895</v>
+      </c>
+      <c r="G157">
+        <v>9863</v>
+      </c>
+      <c r="H157">
+        <v>8</v>
+      </c>
+      <c r="I157">
+        <v>41</v>
+      </c>
+      <c r="J157">
+        <v>112</v>
+      </c>
+      <c r="K157">
+        <v>8</v>
+      </c>
+      <c r="L157">
+        <v>331642</v>
+      </c>
+      <c r="M157" t="s">
+        <v>13</v>
+      </c>
+      <c r="N157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>24510270801</v>
+      </c>
+      <c r="B158">
+        <v>72</v>
+      </c>
+      <c r="C158">
+        <v>-81</v>
+      </c>
+      <c r="D158">
+        <v>-8</v>
+      </c>
+      <c r="E158">
+        <v>256</v>
+      </c>
+      <c r="F158">
+        <v>56670</v>
+      </c>
+      <c r="G158">
+        <v>4061</v>
+      </c>
+      <c r="H158">
+        <v>15</v>
+      </c>
+      <c r="I158">
+        <v>81</v>
+      </c>
+      <c r="J158">
+        <v>-58</v>
+      </c>
+      <c r="K158" t="s">
+        <v>13</v>
+      </c>
+      <c r="L158" t="s">
+        <v>13</v>
+      </c>
+      <c r="M158" t="s">
+        <v>13</v>
+      </c>
+      <c r="N158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>24510270802</v>
+      </c>
+      <c r="B159">
+        <v>338</v>
+      </c>
+      <c r="C159">
+        <v>43</v>
+      </c>
+      <c r="D159">
+        <v>48</v>
+      </c>
+      <c r="E159">
+        <v>-621</v>
+      </c>
+      <c r="F159">
+        <v>47566</v>
+      </c>
+      <c r="G159">
+        <v>-156</v>
+      </c>
+      <c r="H159">
+        <v>19</v>
+      </c>
+      <c r="I159">
+        <v>96</v>
+      </c>
+      <c r="J159">
+        <v>225</v>
+      </c>
+      <c r="K159">
+        <v>3</v>
+      </c>
+      <c r="L159" t="s">
+        <v>13</v>
+      </c>
+      <c r="M159" t="s">
+        <v>13</v>
+      </c>
+      <c r="N159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>24510270803</v>
+      </c>
+      <c r="B160">
+        <v>2605</v>
+      </c>
+      <c r="C160">
+        <v>-547</v>
+      </c>
+      <c r="D160">
+        <v>23</v>
+      </c>
+      <c r="E160">
+        <v>366</v>
+      </c>
+      <c r="F160">
+        <v>50686</v>
+      </c>
+      <c r="G160">
+        <v>7824</v>
+      </c>
+      <c r="H160">
+        <v>5</v>
+      </c>
+      <c r="I160">
+        <v>92</v>
+      </c>
+      <c r="J160">
+        <v>117</v>
+      </c>
+      <c r="K160" t="s">
+        <v>13</v>
+      </c>
+      <c r="L160" t="s">
+        <v>13</v>
+      </c>
+      <c r="M160" t="s">
+        <v>13</v>
+      </c>
+      <c r="N160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>24510270804</v>
+      </c>
+      <c r="B161">
+        <v>161</v>
+      </c>
+      <c r="C161">
+        <v>5</v>
+      </c>
+      <c r="D161">
+        <v>16</v>
+      </c>
+      <c r="E161">
+        <v>180</v>
+      </c>
+      <c r="F161">
+        <v>55750</v>
+      </c>
+      <c r="G161">
+        <v>7000</v>
+      </c>
+      <c r="H161">
+        <v>13</v>
+      </c>
+      <c r="I161">
+        <v>52</v>
+      </c>
+      <c r="J161">
+        <v>-56</v>
+      </c>
+      <c r="K161" t="s">
+        <v>13</v>
+      </c>
+      <c r="L161" t="s">
+        <v>13</v>
+      </c>
+      <c r="M161" t="s">
+        <v>13</v>
+      </c>
+      <c r="N161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>24510270805</v>
+      </c>
+      <c r="B162">
+        <v>678</v>
+      </c>
+      <c r="C162">
+        <v>-108</v>
+      </c>
+      <c r="D162">
+        <v>-8</v>
+      </c>
+      <c r="E162">
+        <v>516</v>
+      </c>
+      <c r="F162">
+        <v>58441</v>
+      </c>
+      <c r="G162">
+        <v>15581</v>
+      </c>
+      <c r="H162">
+        <v>11</v>
+      </c>
+      <c r="I162">
+        <v>87</v>
+      </c>
+      <c r="J162">
+        <v>-107</v>
+      </c>
+      <c r="K162">
+        <v>5</v>
+      </c>
+      <c r="L162">
+        <v>335206</v>
+      </c>
+      <c r="M162" t="s">
+        <v>13</v>
+      </c>
+      <c r="N162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>24510270901</v>
+      </c>
+      <c r="B163">
+        <v>227</v>
+      </c>
+      <c r="C163">
+        <v>-16</v>
+      </c>
+      <c r="D163">
+        <v>21</v>
+      </c>
+      <c r="E163">
+        <v>33</v>
+      </c>
+      <c r="F163">
+        <v>53120</v>
+      </c>
+      <c r="G163">
+        <v>-7126</v>
+      </c>
+      <c r="H163">
+        <v>7</v>
+      </c>
+      <c r="I163">
+        <v>97</v>
+      </c>
+      <c r="J163">
+        <v>99</v>
+      </c>
+      <c r="K163" t="s">
+        <v>13</v>
+      </c>
+      <c r="L163" t="s">
+        <v>13</v>
+      </c>
+      <c r="M163" t="s">
+        <v>13</v>
+      </c>
+      <c r="N163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>24510270902</v>
+      </c>
+      <c r="B164">
+        <v>2309</v>
+      </c>
+      <c r="C164">
+        <v>-60</v>
+      </c>
+      <c r="D164">
+        <v>108</v>
+      </c>
+      <c r="E164">
+        <v>-187</v>
+      </c>
+      <c r="F164">
+        <v>64028</v>
+      </c>
+      <c r="G164">
+        <v>1877</v>
+      </c>
+      <c r="H164">
+        <v>9</v>
+      </c>
+      <c r="I164">
+        <v>96</v>
+      </c>
+      <c r="J164">
+        <v>54</v>
+      </c>
+      <c r="K164" t="s">
+        <v>13</v>
+      </c>
+      <c r="L164" t="s">
+        <v>13</v>
+      </c>
+      <c r="M164" t="s">
+        <v>13</v>
+      </c>
+      <c r="N164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>24510270903</v>
+      </c>
+      <c r="B165">
+        <v>395</v>
+      </c>
+      <c r="C165">
+        <v>-31</v>
+      </c>
+      <c r="D165">
+        <v>14</v>
+      </c>
+      <c r="E165">
+        <v>303</v>
+      </c>
+      <c r="F165">
+        <v>49327</v>
+      </c>
+      <c r="G165">
+        <v>7058</v>
+      </c>
+      <c r="H165">
+        <v>15</v>
+      </c>
+      <c r="I165">
+        <v>84</v>
+      </c>
+      <c r="J165">
+        <v>62</v>
+      </c>
+      <c r="K165">
+        <v>1</v>
+      </c>
+      <c r="L165" t="s">
+        <v>13</v>
+      </c>
+      <c r="M165" t="s">
+        <v>13</v>
+      </c>
+      <c r="N165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>24510271001</v>
+      </c>
+      <c r="B166">
+        <v>100</v>
+      </c>
+      <c r="C166">
+        <v>-2</v>
+      </c>
+      <c r="D166">
+        <v>8</v>
+      </c>
+      <c r="E166">
+        <v>116</v>
+      </c>
+      <c r="F166">
+        <v>40039</v>
+      </c>
+      <c r="G166">
+        <v>5774</v>
+      </c>
+      <c r="H166">
+        <v>18</v>
+      </c>
+      <c r="I166">
+        <v>97</v>
+      </c>
+      <c r="J166">
+        <v>5</v>
+      </c>
+      <c r="K166">
+        <v>3</v>
+      </c>
+      <c r="L166">
+        <v>114050</v>
+      </c>
+      <c r="M166" t="s">
+        <v>13</v>
+      </c>
+      <c r="N166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>24510271002</v>
+      </c>
+      <c r="B167">
+        <v>266</v>
+      </c>
+      <c r="C167">
+        <v>29</v>
+      </c>
+      <c r="D167">
+        <v>27</v>
+      </c>
+      <c r="E167">
+        <v>25</v>
+      </c>
+      <c r="F167">
+        <v>40147</v>
+      </c>
+      <c r="G167">
+        <v>1034</v>
+      </c>
+      <c r="H167">
+        <v>38</v>
+      </c>
+      <c r="I167">
+        <v>95</v>
+      </c>
+      <c r="J167">
+        <v>52</v>
+      </c>
+      <c r="K167">
+        <v>5</v>
+      </c>
+      <c r="L167">
+        <v>107163</v>
+      </c>
+      <c r="M167" t="s">
+        <v>13</v>
+      </c>
+      <c r="N167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>24510271101</v>
+      </c>
+      <c r="B168">
+        <v>244</v>
+      </c>
+      <c r="C168">
+        <v>-504</v>
+      </c>
+      <c r="D168">
+        <v>-156</v>
+      </c>
+      <c r="E168">
+        <v>-32</v>
+      </c>
+      <c r="F168">
+        <v>51765</v>
+      </c>
+      <c r="G168">
+        <v>12479</v>
+      </c>
+      <c r="H168">
+        <v>22</v>
+      </c>
+      <c r="I168">
+        <v>54</v>
+      </c>
+      <c r="J168">
+        <v>11</v>
+      </c>
+      <c r="K168">
+        <v>13</v>
+      </c>
+      <c r="L168" t="s">
+        <v>13</v>
+      </c>
+      <c r="M168" t="s">
+        <v>13</v>
+      </c>
+      <c r="N168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>24510271102</v>
+      </c>
+      <c r="B169">
+        <v>2104</v>
+      </c>
+      <c r="C169">
+        <v>404</v>
+      </c>
+      <c r="D169">
+        <v>239</v>
+      </c>
+      <c r="E169">
+        <v>16</v>
+      </c>
+      <c r="F169">
+        <v>195156</v>
+      </c>
+      <c r="G169">
+        <v>3638</v>
+      </c>
+      <c r="H169">
+        <v>2</v>
+      </c>
+      <c r="I169">
+        <v>19</v>
+      </c>
+      <c r="J169">
+        <v>28</v>
+      </c>
+      <c r="K169" t="s">
+        <v>13</v>
+      </c>
+      <c r="L169" t="s">
+        <v>13</v>
+      </c>
+      <c r="M169" t="s">
+        <v>13</v>
+      </c>
+      <c r="N169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>24510271200</v>
+      </c>
+      <c r="B170">
+        <v>1531</v>
+      </c>
+      <c r="C170">
+        <v>175</v>
+      </c>
+      <c r="D170">
+        <v>157</v>
+      </c>
+      <c r="E170">
+        <v>-23</v>
+      </c>
+      <c r="F170">
+        <v>165443</v>
+      </c>
+      <c r="G170">
+        <v>35296</v>
+      </c>
+      <c r="H170">
+        <v>6</v>
+      </c>
+      <c r="I170">
+        <v>19</v>
+      </c>
+      <c r="J170">
+        <v>-81</v>
+      </c>
+      <c r="K170">
+        <v>16</v>
+      </c>
+      <c r="L170">
+        <v>235824</v>
+      </c>
+      <c r="M170" t="s">
+        <v>13</v>
+      </c>
+      <c r="N170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>24510271300</v>
+      </c>
+      <c r="B171">
+        <v>1591</v>
+      </c>
+      <c r="C171">
+        <v>116</v>
+      </c>
+      <c r="D171">
+        <v>100</v>
+      </c>
+      <c r="E171">
+        <v>-108</v>
+      </c>
+      <c r="F171">
+        <v>154313</v>
+      </c>
+      <c r="G171">
+        <v>26535</v>
+      </c>
+      <c r="H171">
+        <v>2</v>
+      </c>
+      <c r="I171">
+        <v>18</v>
+      </c>
+      <c r="J171">
+        <v>-9</v>
+      </c>
+      <c r="K171" t="s">
+        <v>13</v>
+      </c>
+      <c r="L171">
+        <v>697182</v>
+      </c>
+      <c r="M171" t="s">
+        <v>13</v>
+      </c>
+      <c r="N171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>24510271400</v>
+      </c>
+      <c r="B172">
+        <v>954</v>
+      </c>
+      <c r="C172">
+        <v>-163</v>
+      </c>
+      <c r="D172">
+        <v>-77</v>
+      </c>
+      <c r="E172">
+        <v>54</v>
+      </c>
+      <c r="F172">
+        <v>133333</v>
+      </c>
+      <c r="G172">
+        <v>25476</v>
+      </c>
+      <c r="H172">
+        <v>7</v>
+      </c>
+      <c r="I172">
+        <v>22</v>
+      </c>
+      <c r="J172">
+        <v>123</v>
+      </c>
+      <c r="K172">
+        <v>4</v>
+      </c>
+      <c r="L172">
+        <v>453708</v>
+      </c>
+      <c r="M172" t="s">
+        <v>13</v>
+      </c>
+      <c r="N172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>24510271501</v>
+      </c>
+      <c r="B173">
+        <v>3334</v>
+      </c>
+      <c r="C173">
+        <v>1005</v>
+      </c>
+      <c r="D173">
+        <v>736</v>
+      </c>
+      <c r="E173">
+        <v>-180</v>
+      </c>
+      <c r="F173">
+        <v>104375</v>
+      </c>
+      <c r="G173">
+        <v>10076</v>
+      </c>
+      <c r="H173">
+        <v>7</v>
+      </c>
+      <c r="I173">
+        <v>21</v>
+      </c>
+      <c r="J173">
+        <v>-57</v>
+      </c>
+      <c r="K173">
+        <v>2</v>
+      </c>
+      <c r="L173">
+        <v>416976</v>
+      </c>
+      <c r="M173" t="s">
+        <v>13</v>
+      </c>
+      <c r="N173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>24510271503</v>
+      </c>
+      <c r="B174">
+        <v>1071</v>
+      </c>
+      <c r="C174">
+        <v>-701</v>
+      </c>
+      <c r="D174">
+        <v>-216</v>
+      </c>
+      <c r="E174">
+        <v>-7</v>
+      </c>
+      <c r="F174">
+        <v>56490</v>
+      </c>
+      <c r="G174">
+        <v>-11010</v>
+      </c>
+      <c r="H174">
+        <v>4</v>
+      </c>
+      <c r="I174">
+        <v>24</v>
+      </c>
+      <c r="J174">
+        <v>76</v>
+      </c>
+      <c r="K174">
+        <v>1</v>
+      </c>
+      <c r="L174" t="s">
+        <v>13</v>
+      </c>
+      <c r="M174" t="s">
+        <v>13</v>
+      </c>
+      <c r="N174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>24510271600</v>
+      </c>
+      <c r="B175">
+        <v>535</v>
+      </c>
+      <c r="C175">
+        <v>3</v>
+      </c>
+      <c r="D175">
+        <v>26</v>
+      </c>
+      <c r="E175">
+        <v>-367</v>
+      </c>
+      <c r="F175">
+        <v>31361</v>
+      </c>
+      <c r="G175">
+        <v>3759</v>
+      </c>
+      <c r="H175">
+        <v>29</v>
+      </c>
+      <c r="I175">
+        <v>96</v>
+      </c>
+      <c r="J175">
+        <v>-130</v>
+      </c>
+      <c r="K175">
+        <v>12</v>
+      </c>
+      <c r="L175">
+        <v>52733</v>
+      </c>
+      <c r="M175" t="s">
+        <v>13</v>
+      </c>
+      <c r="N175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>24510271700</v>
+      </c>
+      <c r="B176">
+        <v>6352</v>
+      </c>
+      <c r="C176">
+        <v>427</v>
+      </c>
+      <c r="D176">
+        <v>140</v>
+      </c>
+      <c r="E176">
+        <v>-434</v>
+      </c>
+      <c r="F176">
+        <v>39432</v>
+      </c>
+      <c r="G176">
+        <v>5723</v>
+      </c>
+      <c r="H176">
+        <v>17</v>
+      </c>
+      <c r="I176">
+        <v>98</v>
+      </c>
+      <c r="J176">
+        <v>-92</v>
+      </c>
+      <c r="K176">
+        <v>5</v>
+      </c>
+      <c r="L176">
+        <v>138308</v>
+      </c>
+      <c r="M176" t="s">
+        <v>13</v>
+      </c>
+      <c r="N176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>24510271801</v>
+      </c>
+      <c r="B177">
+        <v>197</v>
+      </c>
+      <c r="C177">
+        <v>-90</v>
+      </c>
+      <c r="D177">
+        <v>-7</v>
+      </c>
+      <c r="E177">
+        <v>-382</v>
+      </c>
+      <c r="F177">
+        <v>26817</v>
+      </c>
+      <c r="G177">
+        <v>-4766</v>
+      </c>
+      <c r="H177">
+        <v>37</v>
+      </c>
+      <c r="I177">
+        <v>98</v>
+      </c>
+      <c r="J177">
+        <v>-11</v>
+      </c>
+      <c r="K177">
+        <v>12</v>
+      </c>
+      <c r="L177" t="s">
+        <v>13</v>
+      </c>
+      <c r="M177" t="s">
+        <v>13</v>
+      </c>
+      <c r="N177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>24510271802</v>
+      </c>
+      <c r="B178">
+        <v>572</v>
+      </c>
+      <c r="C178">
+        <v>282</v>
+      </c>
+      <c r="D178">
+        <v>135</v>
+      </c>
+      <c r="E178">
+        <v>-494</v>
+      </c>
+      <c r="F178">
+        <v>33156</v>
+      </c>
+      <c r="G178">
+        <v>1346</v>
+      </c>
+      <c r="H178">
+        <v>29</v>
+      </c>
+      <c r="I178">
+        <v>99</v>
+      </c>
+      <c r="J178">
+        <v>-63</v>
+      </c>
+      <c r="K178">
+        <v>13</v>
+      </c>
+      <c r="L178">
+        <v>165331</v>
+      </c>
+      <c r="M178" t="s">
+        <v>13</v>
+      </c>
+      <c r="N178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>24510271900</v>
+      </c>
+      <c r="B179">
+        <v>902</v>
+      </c>
+      <c r="C179">
+        <v>47</v>
+      </c>
+      <c r="D179">
+        <v>64</v>
+      </c>
+      <c r="E179">
+        <v>174</v>
+      </c>
+      <c r="F179">
+        <v>51938</v>
+      </c>
+      <c r="G179">
+        <v>-2055</v>
+      </c>
+      <c r="H179">
+        <v>17</v>
+      </c>
+      <c r="I179">
+        <v>80</v>
+      </c>
+      <c r="J179">
+        <v>166</v>
+      </c>
+      <c r="K179">
+        <v>5</v>
+      </c>
+      <c r="L179" t="s">
+        <v>13</v>
+      </c>
+      <c r="M179" t="s">
+        <v>13</v>
+      </c>
+      <c r="N179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>24510272003</v>
+      </c>
+      <c r="B180">
+        <v>386</v>
+      </c>
+      <c r="C180">
+        <v>18</v>
+      </c>
+      <c r="D180">
+        <v>35</v>
+      </c>
+      <c r="E180">
+        <v>-119</v>
+      </c>
+      <c r="F180">
+        <v>69016</v>
+      </c>
+      <c r="G180">
+        <v>7674</v>
+      </c>
+      <c r="H180">
+        <v>12</v>
+      </c>
+      <c r="I180">
+        <v>46</v>
+      </c>
+      <c r="J180">
+        <v>106</v>
+      </c>
+      <c r="K180" t="s">
+        <v>13</v>
+      </c>
+      <c r="L180" t="s">
+        <v>13</v>
+      </c>
+      <c r="M180" t="s">
+        <v>13</v>
+      </c>
+      <c r="N180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>24510272004</v>
+      </c>
+      <c r="B181">
+        <v>343</v>
+      </c>
+      <c r="C181">
+        <v>250</v>
+      </c>
+      <c r="D181">
+        <v>92</v>
+      </c>
+      <c r="E181">
+        <v>295</v>
+      </c>
+      <c r="F181">
+        <v>49603</v>
+      </c>
+      <c r="G181">
+        <v>389</v>
+      </c>
+      <c r="H181">
+        <v>13</v>
+      </c>
+      <c r="I181">
+        <v>30</v>
+      </c>
+      <c r="J181">
+        <v>140</v>
+      </c>
+      <c r="K181" t="s">
+        <v>13</v>
+      </c>
+      <c r="L181" t="s">
+        <v>13</v>
+      </c>
+      <c r="M181" t="s">
+        <v>13</v>
+      </c>
+      <c r="N181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>24510272005</v>
+      </c>
+      <c r="B182">
+        <v>235</v>
+      </c>
+      <c r="C182">
+        <v>14</v>
+      </c>
+      <c r="D182">
+        <v>15</v>
+      </c>
+      <c r="E182">
+        <v>198</v>
+      </c>
+      <c r="F182">
+        <v>59883</v>
+      </c>
+      <c r="G182">
+        <v>15520</v>
+      </c>
+      <c r="H182">
+        <v>14</v>
+      </c>
+      <c r="I182">
+        <v>20</v>
+      </c>
+      <c r="J182">
+        <v>-128</v>
+      </c>
+      <c r="K182" t="s">
+        <v>13</v>
+      </c>
+      <c r="L182" t="s">
+        <v>13</v>
+      </c>
+      <c r="M182" t="s">
+        <v>13</v>
+      </c>
+      <c r="N182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>24510272006</v>
+      </c>
+      <c r="B183">
+        <v>618</v>
+      </c>
+      <c r="C183">
+        <v>27</v>
+      </c>
+      <c r="D183">
+        <v>70</v>
+      </c>
+      <c r="E183">
+        <v>-488</v>
+      </c>
+      <c r="F183">
+        <v>30878</v>
+      </c>
+      <c r="G183">
+        <v>1820</v>
+      </c>
+      <c r="H183">
+        <v>15</v>
+      </c>
+      <c r="I183">
+        <v>63</v>
+      </c>
+      <c r="J183">
+        <v>-27</v>
+      </c>
+      <c r="K183">
+        <v>2</v>
+      </c>
+      <c r="L183" t="s">
+        <v>13</v>
+      </c>
+      <c r="M183" t="s">
+        <v>13</v>
+      </c>
+      <c r="N183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>24510272007</v>
+      </c>
+      <c r="B184">
+        <v>1039</v>
+      </c>
+      <c r="C184">
+        <v>223</v>
+      </c>
+      <c r="D184">
+        <v>164</v>
+      </c>
+      <c r="E184">
+        <v>-295</v>
+      </c>
+      <c r="F184">
+        <v>39748</v>
+      </c>
+      <c r="G184">
+        <v>-2834</v>
+      </c>
+      <c r="H184">
+        <v>27</v>
+      </c>
+      <c r="I184">
+        <v>62</v>
+      </c>
+      <c r="J184">
+        <v>-312</v>
+      </c>
+      <c r="K184" t="s">
+        <v>13</v>
+      </c>
+      <c r="L184" t="s">
+        <v>13</v>
+      </c>
+      <c r="M184" t="s">
+        <v>13</v>
+      </c>
+      <c r="N184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>24510280101</v>
+      </c>
+      <c r="B185">
+        <v>4795</v>
+      </c>
+      <c r="C185">
+        <v>228</v>
+      </c>
+      <c r="D185">
+        <v>968</v>
+      </c>
+      <c r="E185">
+        <v>-215</v>
+      </c>
+      <c r="F185">
+        <v>45855</v>
+      </c>
+      <c r="G185">
+        <v>2920</v>
+      </c>
+      <c r="H185">
+        <v>29</v>
+      </c>
+      <c r="I185">
+        <v>99</v>
+      </c>
+      <c r="J185">
+        <v>-1</v>
+      </c>
+      <c r="K185">
+        <v>8</v>
+      </c>
+      <c r="L185" t="s">
+        <v>13</v>
+      </c>
+      <c r="M185" t="s">
+        <v>13</v>
+      </c>
+      <c r="N185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>24510280102</v>
+      </c>
+      <c r="B186">
+        <v>3763</v>
+      </c>
+      <c r="C186">
+        <v>-233</v>
+      </c>
+      <c r="D186">
+        <v>35</v>
+      </c>
+      <c r="E186">
+        <v>-114</v>
+      </c>
+      <c r="F186">
+        <v>50798</v>
+      </c>
+      <c r="G186">
+        <v>14079</v>
+      </c>
+      <c r="H186">
+        <v>21</v>
+      </c>
+      <c r="I186">
+        <v>98</v>
+      </c>
+      <c r="J186">
+        <v>267</v>
+      </c>
+      <c r="K186">
+        <v>5</v>
+      </c>
+      <c r="L186">
+        <v>121750</v>
+      </c>
+      <c r="M186" t="s">
+        <v>13</v>
+      </c>
+      <c r="N186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>24510280200</v>
+      </c>
+      <c r="B187">
+        <v>239</v>
+      </c>
+      <c r="C187">
+        <v>75</v>
+      </c>
+      <c r="D187">
+        <v>15</v>
+      </c>
+      <c r="E187">
+        <v>125</v>
+      </c>
+      <c r="F187">
+        <v>59524</v>
+      </c>
+      <c r="G187">
+        <v>6885</v>
+      </c>
+      <c r="H187">
+        <v>17</v>
+      </c>
+      <c r="I187">
+        <v>97</v>
+      </c>
+      <c r="J187">
+        <v>-48</v>
+      </c>
+      <c r="K187">
+        <v>1</v>
+      </c>
+      <c r="L187">
+        <v>221167</v>
+      </c>
+      <c r="M187" t="s">
+        <v>13</v>
+      </c>
+      <c r="N187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>24510280301</v>
+      </c>
+      <c r="B188">
+        <v>247</v>
+      </c>
+      <c r="C188">
+        <v>-22</v>
+      </c>
+      <c r="D188">
+        <v>40</v>
+      </c>
+      <c r="E188">
+        <v>256</v>
+      </c>
+      <c r="F188">
+        <v>44390</v>
+      </c>
+      <c r="G188">
+        <v>11622</v>
+      </c>
+      <c r="H188">
+        <v>18</v>
+      </c>
+      <c r="I188">
+        <v>92</v>
+      </c>
+      <c r="J188">
+        <v>153</v>
+      </c>
+      <c r="K188">
+        <v>2</v>
+      </c>
+      <c r="L188" t="s">
+        <v>13</v>
+      </c>
+      <c r="M188" t="s">
+        <v>13</v>
+      </c>
+      <c r="N188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>24510280302</v>
+      </c>
+      <c r="B189">
+        <v>6</v>
+      </c>
+      <c r="C189">
+        <v>-1</v>
+      </c>
+      <c r="D189">
+        <v>3</v>
+      </c>
+      <c r="E189">
+        <v>186</v>
+      </c>
+      <c r="F189">
+        <v>44423</v>
+      </c>
+      <c r="G189">
+        <v>5256</v>
+      </c>
+      <c r="H189">
+        <v>20</v>
+      </c>
+      <c r="I189">
+        <v>97</v>
+      </c>
+      <c r="J189">
+        <v>146</v>
+      </c>
+      <c r="K189" t="s">
+        <v>13</v>
+      </c>
+      <c r="L189" t="s">
+        <v>13</v>
+      </c>
+      <c r="M189" t="s">
+        <v>13</v>
+      </c>
+      <c r="N189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>24510280401</v>
+      </c>
+      <c r="B190">
+        <v>347</v>
+      </c>
+      <c r="C190">
+        <v>0</v>
+      </c>
+      <c r="D190">
+        <v>-11</v>
+      </c>
+      <c r="E190">
+        <v>-457</v>
+      </c>
+      <c r="F190">
+        <v>46493</v>
+      </c>
+      <c r="G190">
+        <v>-6657</v>
+      </c>
+      <c r="H190">
+        <v>11</v>
+      </c>
+      <c r="I190">
+        <v>83</v>
+      </c>
+      <c r="J190">
+        <v>-63</v>
+      </c>
+      <c r="K190" t="s">
+        <v>13</v>
+      </c>
+      <c r="L190" t="s">
+        <v>13</v>
+      </c>
+      <c r="M190" t="s">
+        <v>13</v>
+      </c>
+      <c r="N190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>24510280402</v>
+      </c>
+      <c r="B191">
+        <v>109</v>
+      </c>
+      <c r="C191">
+        <v>-11</v>
+      </c>
+      <c r="D191">
+        <v>-3</v>
+      </c>
+      <c r="E191">
+        <v>-143</v>
+      </c>
+      <c r="F191">
+        <v>48750</v>
+      </c>
+      <c r="G191">
+        <v>10333</v>
+      </c>
+      <c r="H191">
+        <v>16</v>
+      </c>
+      <c r="I191">
+        <v>100</v>
+      </c>
+      <c r="J191">
+        <v>-70</v>
+      </c>
+      <c r="K191">
+        <v>1</v>
+      </c>
+      <c r="L191">
+        <v>575700</v>
+      </c>
+      <c r="M191" t="s">
+        <v>13</v>
+      </c>
+      <c r="N191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>24510280403</v>
+      </c>
+      <c r="B192">
+        <v>717</v>
+      </c>
+      <c r="C192">
+        <v>107</v>
+      </c>
+      <c r="D192">
+        <v>58</v>
+      </c>
+      <c r="E192">
+        <v>147</v>
+      </c>
+      <c r="F192">
+        <v>57973</v>
+      </c>
+      <c r="G192">
+        <v>3275</v>
+      </c>
+      <c r="H192">
+        <v>5</v>
+      </c>
+      <c r="I192">
+        <v>75</v>
+      </c>
+      <c r="J192">
+        <v>-150</v>
+      </c>
+      <c r="K192" t="s">
+        <v>13</v>
+      </c>
+      <c r="L192">
+        <v>548000</v>
+      </c>
+      <c r="M192" t="s">
+        <v>13</v>
+      </c>
+      <c r="N192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>24510280404</v>
+      </c>
+      <c r="B193">
+        <v>287</v>
+      </c>
+      <c r="C193">
+        <v>-7</v>
+      </c>
+      <c r="D193">
+        <v>11</v>
+      </c>
+      <c r="E193">
+        <v>216</v>
+      </c>
+      <c r="F193">
+        <v>39233</v>
+      </c>
+      <c r="G193">
+        <v>2219</v>
+      </c>
+      <c r="H193">
+        <v>25</v>
+      </c>
+      <c r="I193">
+        <v>98</v>
+      </c>
+      <c r="J193">
+        <v>257</v>
+      </c>
+      <c r="K193" t="s">
+        <v>13</v>
+      </c>
+      <c r="L193" t="s">
+        <v>13</v>
+      </c>
+      <c r="M193" t="s">
+        <v>13</v>
+      </c>
+      <c r="N193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>24510280500</v>
+      </c>
+      <c r="B194">
+        <v>3218</v>
+      </c>
+      <c r="C194">
+        <v>-936</v>
+      </c>
+      <c r="D194">
+        <v>-313</v>
+      </c>
+      <c r="E194">
+        <v>14</v>
+      </c>
+      <c r="F194">
+        <v>13289</v>
+      </c>
+      <c r="G194">
+        <v>1293</v>
+      </c>
+      <c r="H194">
+        <v>58</v>
+      </c>
+      <c r="I194">
+        <v>97</v>
+      </c>
+      <c r="J194">
+        <v>-5</v>
+      </c>
+      <c r="K194">
+        <v>25</v>
+      </c>
+      <c r="L194">
+        <v>91917</v>
+      </c>
+      <c r="M194" t="s">
+        <v>13</v>
+      </c>
+      <c r="N194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>24510260501</v>
+      </c>
+      <c r="B195">
+        <v>8387</v>
+      </c>
+      <c r="C195">
+        <v>-91</v>
+      </c>
+      <c r="D195">
+        <v>923</v>
+      </c>
+      <c r="E195">
+        <v>-100</v>
+      </c>
+      <c r="F195">
+        <v>57639</v>
+      </c>
+      <c r="G195">
+        <v>14486</v>
+      </c>
+      <c r="H195">
+        <v>8</v>
+      </c>
+      <c r="I195">
+        <v>32</v>
+      </c>
+      <c r="J195">
+        <v>44</v>
+      </c>
+      <c r="K195">
+        <v>14</v>
+      </c>
+      <c r="L195">
+        <v>235140</v>
+      </c>
+      <c r="M195" t="s">
+        <v>47</v>
+      </c>
+      <c r="N195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>24510260604</v>
+      </c>
+      <c r="B196">
+        <v>55</v>
+      </c>
+      <c r="C196">
+        <v>-146</v>
+      </c>
+      <c r="D196">
+        <v>-13</v>
+      </c>
+      <c r="E196">
+        <v>-52</v>
+      </c>
+      <c r="F196">
+        <v>27778</v>
+      </c>
+      <c r="G196">
+        <v>7348</v>
+      </c>
+      <c r="H196">
+        <v>44</v>
+      </c>
+      <c r="I196">
+        <v>75</v>
+      </c>
+      <c r="J196">
+        <v>-23</v>
+      </c>
+      <c r="K196" t="s">
+        <v>13</v>
+      </c>
+      <c r="L196" t="s">
+        <v>13</v>
+      </c>
+      <c r="M196" t="s">
+        <v>24</v>
+      </c>
+      <c r="N196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>24510260700</v>
+      </c>
+      <c r="B197">
+        <v>694</v>
+      </c>
+      <c r="C197">
+        <v>5</v>
+      </c>
+      <c r="D197">
+        <v>42</v>
+      </c>
+      <c r="E197">
+        <v>134</v>
+      </c>
+      <c r="F197">
+        <v>83050</v>
+      </c>
+      <c r="G197">
+        <v>45456</v>
+      </c>
+      <c r="H197">
+        <v>14</v>
+      </c>
+      <c r="I197">
+        <v>24</v>
+      </c>
+      <c r="J197">
+        <v>-22</v>
+      </c>
+      <c r="K197">
+        <v>12</v>
+      </c>
+      <c r="L197">
+        <v>154283</v>
+      </c>
+      <c r="M197" t="s">
+        <v>47</v>
+      </c>
+      <c r="N197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>24510260800</v>
+      </c>
+      <c r="B198">
+        <v>560</v>
+      </c>
+      <c r="C198">
+        <v>-210</v>
+      </c>
+      <c r="D198">
+        <v>-57</v>
+      </c>
+      <c r="E198">
+        <v>-614</v>
+      </c>
+      <c r="F198">
+        <v>40795</v>
+      </c>
+      <c r="G198">
+        <v>208</v>
+      </c>
+      <c r="H198">
+        <v>21</v>
+      </c>
+      <c r="I198">
+        <v>44</v>
+      </c>
+      <c r="J198">
+        <v>10</v>
+      </c>
+      <c r="K198">
+        <v>1</v>
+      </c>
+      <c r="L198">
+        <v>286032</v>
+      </c>
+      <c r="M198" t="s">
+        <v>14</v>
+      </c>
+      <c r="N198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>24510260900</v>
+      </c>
+      <c r="B199">
+        <v>2349</v>
+      </c>
+      <c r="C199">
+        <v>-71</v>
+      </c>
+      <c r="D199">
+        <v>152</v>
+      </c>
+      <c r="E199">
+        <v>1019</v>
+      </c>
+      <c r="F199">
+        <v>109618</v>
+      </c>
+      <c r="G199">
+        <v>30630</v>
+      </c>
+      <c r="H199">
+        <v>10</v>
+      </c>
+      <c r="I199">
+        <v>13</v>
+      </c>
+      <c r="J199">
+        <v>52</v>
+      </c>
+      <c r="K199">
+        <v>73</v>
+      </c>
+      <c r="L199">
+        <v>298448</v>
+      </c>
+      <c r="M199" t="s">
+        <v>14</v>
+      </c>
+      <c r="N199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>24510261000</v>
+      </c>
+      <c r="B200">
+        <v>276</v>
+      </c>
+      <c r="C200">
+        <v>-37</v>
+      </c>
+      <c r="D200">
+        <v>-10</v>
+      </c>
+      <c r="E200">
+        <v>-94</v>
+      </c>
+      <c r="F200">
+        <v>55221</v>
+      </c>
+      <c r="G200">
+        <v>12192</v>
+      </c>
+      <c r="H200">
+        <v>38</v>
+      </c>
+      <c r="I200">
+        <v>62</v>
+      </c>
+      <c r="J200">
+        <v>112</v>
+      </c>
+      <c r="K200">
+        <v>2</v>
+      </c>
+      <c r="L200">
+        <v>216369</v>
+      </c>
+      <c r="M200" t="s">
+        <v>14</v>
+      </c>
+      <c r="N200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>24510261100</v>
+      </c>
+      <c r="B201">
+        <v>244</v>
+      </c>
+      <c r="C201">
+        <v>-63</v>
+      </c>
+      <c r="D201">
+        <v>-88</v>
+      </c>
+      <c r="E201">
+        <v>-10</v>
+      </c>
+      <c r="F201">
+        <v>133152</v>
+      </c>
+      <c r="G201">
+        <v>38652</v>
+      </c>
+      <c r="H201">
+        <v>7</v>
+      </c>
+      <c r="I201">
+        <v>15</v>
+      </c>
+      <c r="J201">
+        <v>23</v>
+      </c>
+      <c r="K201">
+        <v>15</v>
+      </c>
+      <c r="L201">
+        <v>434476</v>
+      </c>
+      <c r="M201" t="s">
+        <v>14</v>
+      </c>
+      <c r="N201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>24</v>
+      </c>
+      <c r="B202">
+        <v>9136</v>
+      </c>
+      <c r="C202">
+        <v>-232</v>
+      </c>
+      <c r="D202">
+        <v>952</v>
+      </c>
+      <c r="E202">
+        <v>-18</v>
+      </c>
+      <c r="F202">
+        <v>56155.666666666664</v>
+      </c>
+      <c r="G202">
+        <v>22430</v>
+      </c>
+      <c r="H202">
+        <v>22</v>
+      </c>
+      <c r="I202">
+        <v>43.666666666666664</v>
+      </c>
+      <c r="J202">
+        <v>-1</v>
+      </c>
+      <c r="K202">
+        <v>13</v>
+      </c>
+      <c r="L202">
+        <v>194711.5</v>
+      </c>
+      <c r="M202">
+        <v>1</v>
+      </c>
+      <c r="N202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>21</v>
+      </c>
+      <c r="B203">
+        <v>1190</v>
+      </c>
+      <c r="C203">
+        <v>-131</v>
+      </c>
+      <c r="D203">
+        <v>-6</v>
+      </c>
+      <c r="E203">
+        <v>106</v>
+      </c>
+      <c r="F203">
+        <v>41065.666666666664</v>
+      </c>
+      <c r="G203">
+        <v>6310</v>
+      </c>
+      <c r="H203">
+        <v>20.333333333333332</v>
+      </c>
+      <c r="I203">
+        <v>91.333333333333329</v>
+      </c>
+      <c r="J203">
+        <v>0</v>
+      </c>
+      <c r="K203">
+        <v>7.333333333333333</v>
+      </c>
+      <c r="L203">
+        <v>97972.333333333328</v>
+      </c>
+      <c r="M203">
+        <v>1</v>
+      </c>
+      <c r="N203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>23</v>
+      </c>
+      <c r="B204">
+        <v>9081</v>
+      </c>
+      <c r="C204">
+        <v>-86</v>
+      </c>
+      <c r="D204">
+        <v>965</v>
+      </c>
+      <c r="E204">
+        <v>34</v>
+      </c>
+      <c r="F204">
+        <v>70344.5</v>
+      </c>
+      <c r="G204">
+        <v>29971</v>
+      </c>
+      <c r="H204">
+        <v>11</v>
+      </c>
+      <c r="I204">
+        <v>28</v>
+      </c>
+      <c r="J204">
+        <v>22</v>
+      </c>
+      <c r="K204">
+        <v>13</v>
+      </c>
+      <c r="L204">
+        <v>194711.5</v>
+      </c>
+      <c r="M204">
+        <v>1</v>
+      </c>
+      <c r="N204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>17</v>
+      </c>
+      <c r="B205">
+        <v>2575</v>
+      </c>
+      <c r="C205">
+        <v>43</v>
+      </c>
+      <c r="D205">
+        <v>303</v>
+      </c>
+      <c r="E205">
+        <v>151</v>
+      </c>
+      <c r="F205">
+        <v>39610.75</v>
+      </c>
+      <c r="G205">
+        <v>8051.25</v>
+      </c>
+      <c r="H205">
+        <v>30.75</v>
+      </c>
+      <c r="I205">
+        <v>78.25</v>
+      </c>
+      <c r="J205">
+        <v>-312</v>
+      </c>
+      <c r="K205">
+        <v>9.5</v>
+      </c>
+      <c r="L205">
+        <v>92539</v>
+      </c>
+      <c r="M205">
+        <v>1</v>
+      </c>
+      <c r="N205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>16</v>
+      </c>
+      <c r="B206">
+        <v>3581</v>
+      </c>
+      <c r="C206">
+        <v>207</v>
+      </c>
+      <c r="D206">
+        <v>441</v>
+      </c>
+      <c r="E206">
+        <v>661</v>
+      </c>
+      <c r="F206">
+        <v>54095.4</v>
+      </c>
+      <c r="G206">
+        <v>16069.4</v>
+      </c>
+      <c r="H206">
+        <v>22.8</v>
+      </c>
+      <c r="I206">
+        <v>64.400000000000006</v>
+      </c>
+      <c r="J206">
+        <v>-185</v>
+      </c>
+      <c r="K206">
+        <v>9</v>
+      </c>
+      <c r="L206">
+        <v>164333.79999999999</v>
+      </c>
+      <c r="M206">
+        <v>1</v>
+      </c>
+      <c r="N206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>14</v>
+      </c>
+      <c r="B207">
+        <v>3670</v>
+      </c>
+      <c r="C207">
+        <v>-363</v>
+      </c>
+      <c r="D207">
+        <v>4</v>
+      </c>
+      <c r="E207">
+        <v>207</v>
+      </c>
+      <c r="F207">
+        <v>89007.2</v>
+      </c>
+      <c r="G207">
+        <v>21106.6</v>
+      </c>
+      <c r="H207">
+        <v>16.2</v>
+      </c>
+      <c r="I207">
+        <v>28.8</v>
+      </c>
+      <c r="J207">
+        <v>28</v>
+      </c>
+      <c r="K207">
+        <v>19</v>
+      </c>
+      <c r="L207">
+        <v>309936</v>
+      </c>
+      <c r="M207">
+        <v>1</v>
+      </c>
+      <c r="N207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>20</v>
+      </c>
+      <c r="B208">
+        <v>1460</v>
+      </c>
+      <c r="C208">
+        <v>-3</v>
+      </c>
+      <c r="D208">
+        <v>180</v>
+      </c>
+      <c r="E208">
+        <v>-474</v>
+      </c>
+      <c r="F208">
+        <v>29724.5</v>
+      </c>
+      <c r="G208">
+        <v>4643.333333333333</v>
+      </c>
+      <c r="H208">
+        <v>40.833333333333336</v>
+      </c>
+      <c r="I208">
+        <v>79.166666666666671</v>
+      </c>
+      <c r="J208">
+        <v>-161</v>
+      </c>
+      <c r="K208">
+        <v>17.2</v>
+      </c>
+      <c r="L208">
+        <v>72377.600000000006</v>
+      </c>
+      <c r="M208">
+        <v>1</v>
+      </c>
+      <c r="N208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>19</v>
+      </c>
+      <c r="B209">
+        <v>1541</v>
+      </c>
+      <c r="C209">
+        <v>25</v>
+      </c>
+      <c r="D209">
+        <v>28</v>
+      </c>
+      <c r="E209">
+        <v>1418</v>
+      </c>
+      <c r="F209">
+        <v>47141.75</v>
+      </c>
+      <c r="G209">
+        <v>9044.75</v>
+      </c>
+      <c r="H209">
+        <v>20.75</v>
+      </c>
+      <c r="I209">
+        <v>98</v>
+      </c>
+      <c r="J209">
+        <v>355</v>
+      </c>
+      <c r="K209">
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="L209">
+        <v>195605</v>
+      </c>
+      <c r="M209">
+        <v>1</v>
+      </c>
+      <c r="N209">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>15</v>
+      </c>
+      <c r="B210">
+        <v>77641</v>
+      </c>
+      <c r="C210">
+        <v>1760</v>
+      </c>
+      <c r="D210">
+        <v>7850</v>
+      </c>
+      <c r="E210">
+        <v>882</v>
+      </c>
+      <c r="F210">
+        <v>46173.666666666664</v>
+      </c>
+      <c r="G210">
+        <v>11812</v>
+      </c>
+      <c r="H210">
+        <v>20</v>
+      </c>
+      <c r="I210">
+        <v>61.333333333333336</v>
+      </c>
+      <c r="J210">
+        <v>737</v>
+      </c>
+      <c r="K210">
+        <v>13</v>
+      </c>
+      <c r="L210">
+        <v>232792</v>
+      </c>
+      <c r="M210">
+        <v>1</v>
+      </c>
+      <c r="N210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>18</v>
+      </c>
+      <c r="B211">
+        <v>7505</v>
+      </c>
+      <c r="C211">
+        <v>-213</v>
+      </c>
+      <c r="D211">
+        <v>1513</v>
+      </c>
+      <c r="E211">
+        <v>-1408</v>
+      </c>
+      <c r="F211">
+        <v>23652</v>
+      </c>
+      <c r="G211">
+        <v>3481.1428571428573</v>
+      </c>
+      <c r="H211">
+        <v>41.857142857142854</v>
+      </c>
+      <c r="I211">
+        <v>94.714285714285708</v>
+      </c>
+      <c r="J211">
+        <v>-925</v>
+      </c>
+      <c r="K211">
+        <v>4</v>
+      </c>
+      <c r="L211">
+        <v>178048</v>
+      </c>
+      <c r="M211">
+        <v>1</v>
+      </c>
+      <c r="N211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>22</v>
+      </c>
+      <c r="B212">
+        <v>8513</v>
+      </c>
+      <c r="C212">
+        <v>1898</v>
+      </c>
+      <c r="D212">
+        <v>1009</v>
+      </c>
+      <c r="E212">
+        <v>702</v>
+      </c>
+      <c r="F212">
+        <v>59062.5</v>
+      </c>
+      <c r="G212">
+        <v>12615</v>
+      </c>
+      <c r="H212">
+        <v>24.5</v>
+      </c>
+      <c r="I212">
+        <v>64</v>
+      </c>
+      <c r="J212">
+        <v>67</v>
+      </c>
+      <c r="K212">
+        <v>20</v>
+      </c>
+      <c r="L212">
+        <v>218162.5</v>
+      </c>
+      <c r="M212">
+        <v>1</v>
+      </c>
+      <c r="N212">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:M212" xr:uid="{CC5883D3-9794-4001-B607-5C1DE4BA342C}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M201">
+      <sortCondition ref="A1:A212"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4BC8659-6D4A-45BE-A31C-CAB5E5FC4C55}">
+  <dimension ref="A1:M212"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A161" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H205" sqref="H205"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
@@ -9460,37 +18822,20 @@
         <v>24</v>
       </c>
       <c r="B202">
+        <f>SUMIF(M$2:M$201, "*Bayview*", B$2:B$201)</f>
         <v>9136</v>
       </c>
-      <c r="C202">
-        <v>-232</v>
-      </c>
-      <c r="D202">
-        <v>952</v>
-      </c>
-      <c r="E202">
-        <v>-18</v>
-      </c>
-      <c r="F202">
-        <v>56155.666666666664</v>
-      </c>
-      <c r="G202">
-        <v>22430</v>
-      </c>
-      <c r="H202">
-        <v>22</v>
-      </c>
-      <c r="I202">
-        <v>43.666666666666664</v>
-      </c>
-      <c r="J202">
-        <v>-1</v>
-      </c>
-      <c r="K202">
-        <v>13</v>
-      </c>
-      <c r="L202">
-        <v>194711.5</v>
+      <c r="C202" t="s">
+        <v>48</v>
+      </c>
+      <c r="D202" t="s">
+        <v>48</v>
+      </c>
+      <c r="E202" t="s">
+        <v>48</v>
+      </c>
+      <c r="K202" t="s">
+        <v>48</v>
       </c>
       <c r="M202">
         <v>1</v>
@@ -9501,37 +18846,8 @@
         <v>21</v>
       </c>
       <c r="B203">
+        <f>SUMIF(M$2:M$201, "*Frederick*", B$2:B$201)</f>
         <v>1190</v>
-      </c>
-      <c r="C203">
-        <v>-131</v>
-      </c>
-      <c r="D203">
-        <v>-6</v>
-      </c>
-      <c r="E203">
-        <v>106</v>
-      </c>
-      <c r="F203">
-        <v>41065.666666666664</v>
-      </c>
-      <c r="G203">
-        <v>6310</v>
-      </c>
-      <c r="H203">
-        <v>20.333333333333332</v>
-      </c>
-      <c r="I203">
-        <v>91.333333333333329</v>
-      </c>
-      <c r="J203">
-        <v>0</v>
-      </c>
-      <c r="K203">
-        <v>7.333333333333333</v>
-      </c>
-      <c r="L203">
-        <v>97972.333333333328</v>
       </c>
       <c r="M203">
         <v>1</v>
@@ -9542,37 +18858,8 @@
         <v>23</v>
       </c>
       <c r="B204">
+        <f>SUMIF(M$2:M$201, "*Greektown*", B$2:B$201)</f>
         <v>9081</v>
-      </c>
-      <c r="C204">
-        <v>-86</v>
-      </c>
-      <c r="D204">
-        <v>965</v>
-      </c>
-      <c r="E204">
-        <v>34</v>
-      </c>
-      <c r="F204">
-        <v>70344.5</v>
-      </c>
-      <c r="G204">
-        <v>29971</v>
-      </c>
-      <c r="H204">
-        <v>11</v>
-      </c>
-      <c r="I204">
-        <v>28</v>
-      </c>
-      <c r="J204">
-        <v>22</v>
-      </c>
-      <c r="K204">
-        <v>13</v>
-      </c>
-      <c r="L204">
-        <v>194711.5</v>
       </c>
       <c r="M204">
         <v>1</v>
@@ -9583,37 +18870,8 @@
         <v>17</v>
       </c>
       <c r="B205">
+        <f>SUMIF(M$2:M$201, "*North Ave to 28th Street*", B$2:B$201)</f>
         <v>2575</v>
-      </c>
-      <c r="C205">
-        <v>43</v>
-      </c>
-      <c r="D205">
-        <v>303</v>
-      </c>
-      <c r="E205">
-        <v>151</v>
-      </c>
-      <c r="F205">
-        <v>39610.75</v>
-      </c>
-      <c r="G205">
-        <v>8051.25</v>
-      </c>
-      <c r="H205">
-        <v>30.75</v>
-      </c>
-      <c r="I205">
-        <v>78.25</v>
-      </c>
-      <c r="J205">
-        <v>-312</v>
-      </c>
-      <c r="K205">
-        <v>9.5</v>
-      </c>
-      <c r="L205">
-        <v>92539</v>
       </c>
       <c r="M205">
         <v>1</v>
@@ -9624,37 +18882,8 @@
         <v>16</v>
       </c>
       <c r="B206">
+        <f>SUMIF(M$2:M$201, "*Waverly Main Street*", B$2:B$201)</f>
         <v>3581</v>
-      </c>
-      <c r="C206">
-        <v>207</v>
-      </c>
-      <c r="D206">
-        <v>441</v>
-      </c>
-      <c r="E206">
-        <v>661</v>
-      </c>
-      <c r="F206">
-        <v>54095.4</v>
-      </c>
-      <c r="G206">
-        <v>16069.4</v>
-      </c>
-      <c r="H206">
-        <v>22.8</v>
-      </c>
-      <c r="I206">
-        <v>64.400000000000006</v>
-      </c>
-      <c r="J206">
-        <v>-185</v>
-      </c>
-      <c r="K206">
-        <v>9</v>
-      </c>
-      <c r="L206">
-        <v>164333.79999999999</v>
       </c>
       <c r="M206">
         <v>1</v>
@@ -9665,37 +18894,8 @@
         <v>14</v>
       </c>
       <c r="B207">
+        <f>SUMIF(M$2:M$201, "*Highlandtown*", B$2:B$201)</f>
         <v>3670</v>
-      </c>
-      <c r="C207">
-        <v>-363</v>
-      </c>
-      <c r="D207">
-        <v>4</v>
-      </c>
-      <c r="E207">
-        <v>207</v>
-      </c>
-      <c r="F207">
-        <v>89007.2</v>
-      </c>
-      <c r="G207">
-        <v>21106.6</v>
-      </c>
-      <c r="H207">
-        <v>16.2</v>
-      </c>
-      <c r="I207">
-        <v>28.8</v>
-      </c>
-      <c r="J207">
-        <v>28</v>
-      </c>
-      <c r="K207">
-        <v>19</v>
-      </c>
-      <c r="L207">
-        <v>309936</v>
       </c>
       <c r="M207">
         <v>1</v>
@@ -9706,37 +18906,8 @@
         <v>20</v>
       </c>
       <c r="B208">
+        <f>SUMIF(M$2:M$201, "*Hollins Market*", B$2:B$201)</f>
         <v>1460</v>
-      </c>
-      <c r="C208">
-        <v>-3</v>
-      </c>
-      <c r="D208">
-        <v>180</v>
-      </c>
-      <c r="E208">
-        <v>-474</v>
-      </c>
-      <c r="F208">
-        <v>29724.5</v>
-      </c>
-      <c r="G208">
-        <v>4643.333333333333</v>
-      </c>
-      <c r="H208">
-        <v>40.833333333333336</v>
-      </c>
-      <c r="I208">
-        <v>79.166666666666671</v>
-      </c>
-      <c r="J208">
-        <v>-161</v>
-      </c>
-      <c r="K208">
-        <v>17.2</v>
-      </c>
-      <c r="L208">
-        <v>72377.600000000006</v>
       </c>
       <c r="M208">
         <v>1</v>
@@ -9747,37 +18918,8 @@
         <v>19</v>
       </c>
       <c r="B209">
+        <f>SUMIF(M$2:M$201, "*Liberty Heights*", B$2:B$201)</f>
         <v>1541</v>
-      </c>
-      <c r="C209">
-        <v>25</v>
-      </c>
-      <c r="D209">
-        <v>28</v>
-      </c>
-      <c r="E209">
-        <v>1418</v>
-      </c>
-      <c r="F209">
-        <v>47141.75</v>
-      </c>
-      <c r="G209">
-        <v>9044.75</v>
-      </c>
-      <c r="H209">
-        <v>20.75</v>
-      </c>
-      <c r="I209">
-        <v>98</v>
-      </c>
-      <c r="J209">
-        <v>355</v>
-      </c>
-      <c r="K209">
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="L209">
-        <v>195605</v>
       </c>
       <c r="M209">
         <v>1</v>
@@ -9788,37 +18930,8 @@
         <v>15</v>
       </c>
       <c r="B210">
+        <f>SUMIF(M$2:M$201, "*Market Center*", B$2:B$201)</f>
         <v>77641</v>
-      </c>
-      <c r="C210">
-        <v>1760</v>
-      </c>
-      <c r="D210">
-        <v>7850</v>
-      </c>
-      <c r="E210">
-        <v>882</v>
-      </c>
-      <c r="F210">
-        <v>46173.666666666664</v>
-      </c>
-      <c r="G210">
-        <v>11812</v>
-      </c>
-      <c r="H210">
-        <v>20</v>
-      </c>
-      <c r="I210">
-        <v>61.333333333333336</v>
-      </c>
-      <c r="J210">
-        <v>737</v>
-      </c>
-      <c r="K210">
-        <v>13</v>
-      </c>
-      <c r="L210">
-        <v>232792</v>
       </c>
       <c r="M210">
         <v>1</v>
@@ -9829,37 +18942,8 @@
         <v>18</v>
       </c>
       <c r="B211">
+        <f>SUMIF(M$2:M$201, "*Pennsylvania Ave*", B$2:B$201)</f>
         <v>7505</v>
-      </c>
-      <c r="C211">
-        <v>-213</v>
-      </c>
-      <c r="D211">
-        <v>1513</v>
-      </c>
-      <c r="E211">
-        <v>-1408</v>
-      </c>
-      <c r="F211">
-        <v>23652</v>
-      </c>
-      <c r="G211">
-        <v>3481.1428571428573</v>
-      </c>
-      <c r="H211">
-        <v>41.857142857142854</v>
-      </c>
-      <c r="I211">
-        <v>94.714285714285708</v>
-      </c>
-      <c r="J211">
-        <v>-925</v>
-      </c>
-      <c r="K211">
-        <v>4</v>
-      </c>
-      <c r="L211">
-        <v>178048</v>
       </c>
       <c r="M211">
         <v>1</v>
@@ -9870,37 +18954,8 @@
         <v>22</v>
       </c>
       <c r="B212">
+        <f>SUMIF(M$2:M$201, "*Pigtown*", B$2:B$201)</f>
         <v>8513</v>
-      </c>
-      <c r="C212">
-        <v>1898</v>
-      </c>
-      <c r="D212">
-        <v>1009</v>
-      </c>
-      <c r="E212">
-        <v>702</v>
-      </c>
-      <c r="F212">
-        <v>59062.5</v>
-      </c>
-      <c r="G212">
-        <v>12615</v>
-      </c>
-      <c r="H212">
-        <v>24.5</v>
-      </c>
-      <c r="I212">
-        <v>64</v>
-      </c>
-      <c r="J212">
-        <v>67</v>
-      </c>
-      <c r="K212">
-        <v>20</v>
-      </c>
-      <c r="L212">
-        <v>218162.5</v>
       </c>
       <c r="M212">
         <v>1</v>

--- a/data-raw/baltimore.xlsx
+++ b/data-raw/baltimore.xlsx
@@ -8,18 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://brookingsinstitution-my.sharepoint.com/personal/cgeorge_brookings_edu/Documents/Caroline R/economic-values-atlas/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="175" documentId="8_{7E727825-FFEA-4C1B-8736-24A2A11E51D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{9625A89F-DD61-4AEC-8C6A-AED3AC66486F}"/>
+  <xr:revisionPtr revIDLastSave="227" documentId="8_{7E727825-FFEA-4C1B-8736-24A2A11E51D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{714C9C54-5D56-42D7-BA8D-96F70E686B86}"/>
   <bookViews>
-    <workbookView xWindow="16690" yWindow="-350" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet2 (2)" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$M$212</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Sheet2 (2)'!$A$1:$M$212</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="49">
   <si>
     <t>tract_string</t>
   </si>
@@ -180,9 +178,6 @@
   </si>
   <si>
     <t>Bayview and Greektown</t>
-  </si>
-  <si>
-    <t>sum</t>
   </si>
   <si>
     <t>Corridor</t>
@@ -1213,7 +1208,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A198" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A212" sqref="A212"/>
+      <selection pane="bottomLeft" activeCell="Q208" sqref="Q208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1263,7 +1258,7 @@
         <v>12</v>
       </c>
       <c r="N1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -10071,37 +10066,42 @@
         <v>24</v>
       </c>
       <c r="B202">
+        <f>SUMIF($M$2:$M$201, "*Bayview*", B$2:B$201)</f>
         <v>9136</v>
       </c>
       <c r="C202">
+        <f t="shared" ref="C202:L202" si="0">SUMIF($M$2:$M$201, "*Bayview*", C$2:C$201)</f>
         <v>-232</v>
       </c>
       <c r="D202">
+        <f t="shared" si="0"/>
         <v>952</v>
       </c>
       <c r="E202">
+        <f t="shared" si="0"/>
         <v>-18</v>
       </c>
-      <c r="F202">
-        <v>56155.666666666664</v>
-      </c>
-      <c r="G202">
-        <v>22430</v>
-      </c>
-      <c r="H202">
-        <v>22</v>
-      </c>
-      <c r="I202">
-        <v>43.666666666666664</v>
-      </c>
-      <c r="J202">
-        <v>-1</v>
+      <c r="F202" t="s">
+        <v>13</v>
+      </c>
+      <c r="G202" t="s">
+        <v>13</v>
+      </c>
+      <c r="H202" t="s">
+        <v>13</v>
+      </c>
+      <c r="I202" t="s">
+        <v>13</v>
+      </c>
+      <c r="J202" t="s">
+        <v>13</v>
       </c>
       <c r="K202">
-        <v>13</v>
-      </c>
-      <c r="L202">
-        <v>194711.5</v>
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="L202" t="s">
+        <v>13</v>
       </c>
       <c r="M202">
         <v>1</v>
@@ -10115,37 +10115,42 @@
         <v>21</v>
       </c>
       <c r="B203">
+        <f>SUMIF($M$2:$M$201, "*Frederick*", B$2:B$201)</f>
         <v>1190</v>
       </c>
       <c r="C203">
+        <f t="shared" ref="C203:L203" si="1">SUMIF($M$2:$M$201, "*Frederick*", C$2:C$201)</f>
         <v>-131</v>
       </c>
       <c r="D203">
+        <f t="shared" si="1"/>
         <v>-6</v>
       </c>
       <c r="E203">
+        <f t="shared" si="1"/>
         <v>106</v>
       </c>
-      <c r="F203">
-        <v>41065.666666666664</v>
-      </c>
-      <c r="G203">
-        <v>6310</v>
-      </c>
-      <c r="H203">
-        <v>20.333333333333332</v>
-      </c>
-      <c r="I203">
-        <v>91.333333333333329</v>
-      </c>
-      <c r="J203">
-        <v>0</v>
+      <c r="F203" t="s">
+        <v>13</v>
+      </c>
+      <c r="G203" t="s">
+        <v>13</v>
+      </c>
+      <c r="H203" t="s">
+        <v>13</v>
+      </c>
+      <c r="I203" t="s">
+        <v>13</v>
+      </c>
+      <c r="J203" t="s">
+        <v>13</v>
       </c>
       <c r="K203">
-        <v>7.333333333333333</v>
-      </c>
-      <c r="L203">
-        <v>97972.333333333328</v>
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="L203" t="s">
+        <v>13</v>
       </c>
       <c r="M203">
         <v>1</v>
@@ -10159,37 +10164,42 @@
         <v>23</v>
       </c>
       <c r="B204">
+        <f>SUMIF($M$2:$M$201, "*Greektown*", B$2:B$201)</f>
         <v>9081</v>
       </c>
       <c r="C204">
+        <f t="shared" ref="C204:L204" si="2">SUMIF($M$2:$M$201, "*Greektown*", C$2:C$201)</f>
         <v>-86</v>
       </c>
       <c r="D204">
+        <f t="shared" si="2"/>
         <v>965</v>
       </c>
       <c r="E204">
+        <f t="shared" si="2"/>
         <v>34</v>
       </c>
-      <c r="F204">
-        <v>70344.5</v>
-      </c>
-      <c r="G204">
-        <v>29971</v>
-      </c>
-      <c r="H204">
-        <v>11</v>
-      </c>
-      <c r="I204">
-        <v>28</v>
-      </c>
-      <c r="J204">
-        <v>22</v>
+      <c r="F204" t="s">
+        <v>13</v>
+      </c>
+      <c r="G204" t="s">
+        <v>13</v>
+      </c>
+      <c r="H204" t="s">
+        <v>13</v>
+      </c>
+      <c r="I204" t="s">
+        <v>13</v>
+      </c>
+      <c r="J204" t="s">
+        <v>13</v>
       </c>
       <c r="K204">
-        <v>13</v>
-      </c>
-      <c r="L204">
-        <v>194711.5</v>
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="L204" t="s">
+        <v>13</v>
       </c>
       <c r="M204">
         <v>1</v>
@@ -10203,37 +10213,42 @@
         <v>17</v>
       </c>
       <c r="B205">
+        <f>SUMIF($M$2:$M$201, "*North Ave to 28th Street*", B$2:B$201)</f>
         <v>2575</v>
       </c>
       <c r="C205">
+        <f t="shared" ref="C205:L205" si="3">SUMIF($M$2:$M$201, "*North Ave to 28th Street*", C$2:C$201)</f>
         <v>43</v>
       </c>
       <c r="D205">
+        <f t="shared" si="3"/>
         <v>303</v>
       </c>
       <c r="E205">
+        <f t="shared" si="3"/>
         <v>151</v>
       </c>
-      <c r="F205">
-        <v>39610.75</v>
-      </c>
-      <c r="G205">
-        <v>8051.25</v>
-      </c>
-      <c r="H205">
-        <v>30.75</v>
-      </c>
-      <c r="I205">
-        <v>78.25</v>
-      </c>
-      <c r="J205">
-        <v>-312</v>
+      <c r="F205" t="s">
+        <v>13</v>
+      </c>
+      <c r="G205" t="s">
+        <v>13</v>
+      </c>
+      <c r="H205" t="s">
+        <v>13</v>
+      </c>
+      <c r="I205" t="s">
+        <v>13</v>
+      </c>
+      <c r="J205" t="s">
+        <v>13</v>
       </c>
       <c r="K205">
-        <v>9.5</v>
-      </c>
-      <c r="L205">
-        <v>92539</v>
+        <f t="shared" si="3"/>
+        <v>38</v>
+      </c>
+      <c r="L205" t="s">
+        <v>13</v>
       </c>
       <c r="M205">
         <v>1</v>
@@ -10247,37 +10262,42 @@
         <v>16</v>
       </c>
       <c r="B206">
+        <f>SUMIF($M$2:$M$201, "*Waverly Main Street*", B$2:B$201)</f>
         <v>3581</v>
       </c>
       <c r="C206">
+        <f t="shared" ref="C206:L206" si="4">SUMIF($M$2:$M$201, "*Waverly Main Street*", C$2:C$201)</f>
         <v>207</v>
       </c>
       <c r="D206">
+        <f t="shared" si="4"/>
         <v>441</v>
       </c>
       <c r="E206">
+        <f t="shared" si="4"/>
         <v>661</v>
       </c>
-      <c r="F206">
-        <v>54095.4</v>
-      </c>
-      <c r="G206">
-        <v>16069.4</v>
-      </c>
-      <c r="H206">
-        <v>22.8</v>
-      </c>
-      <c r="I206">
-        <v>64.400000000000006</v>
-      </c>
-      <c r="J206">
-        <v>-185</v>
+      <c r="F206" t="s">
+        <v>13</v>
+      </c>
+      <c r="G206" t="s">
+        <v>13</v>
+      </c>
+      <c r="H206" t="s">
+        <v>13</v>
+      </c>
+      <c r="I206" t="s">
+        <v>13</v>
+      </c>
+      <c r="J206" t="s">
+        <v>13</v>
       </c>
       <c r="K206">
-        <v>9</v>
-      </c>
-      <c r="L206">
-        <v>164333.79999999999</v>
+        <f t="shared" si="4"/>
+        <v>45</v>
+      </c>
+      <c r="L206" t="s">
+        <v>13</v>
       </c>
       <c r="M206">
         <v>1</v>
@@ -10291,37 +10311,42 @@
         <v>14</v>
       </c>
       <c r="B207">
+        <f>SUMIF($M$2:$M$201, "*Highlandtown*", B$2:B$201)</f>
         <v>3670</v>
       </c>
       <c r="C207">
+        <f t="shared" ref="C207:L207" si="5">SUMIF($M$2:$M$201, "*Highlandtown*", C$2:C$201)</f>
         <v>-363</v>
       </c>
       <c r="D207">
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="E207">
+        <f t="shared" si="5"/>
         <v>207</v>
       </c>
-      <c r="F207">
-        <v>89007.2</v>
-      </c>
-      <c r="G207">
-        <v>21106.6</v>
-      </c>
-      <c r="H207">
-        <v>16.2</v>
-      </c>
-      <c r="I207">
-        <v>28.8</v>
-      </c>
-      <c r="J207">
-        <v>28</v>
+      <c r="F207" t="s">
+        <v>13</v>
+      </c>
+      <c r="G207" t="s">
+        <v>13</v>
+      </c>
+      <c r="H207" t="s">
+        <v>13</v>
+      </c>
+      <c r="I207" t="s">
+        <v>13</v>
+      </c>
+      <c r="J207" t="s">
+        <v>13</v>
       </c>
       <c r="K207">
-        <v>19</v>
-      </c>
-      <c r="L207">
-        <v>309936</v>
+        <f t="shared" si="5"/>
+        <v>95</v>
+      </c>
+      <c r="L207" t="s">
+        <v>13</v>
       </c>
       <c r="M207">
         <v>1</v>
@@ -10335,37 +10360,42 @@
         <v>20</v>
       </c>
       <c r="B208">
+        <f>SUMIF($M$2:$M$201, "*Hollins Market*", B$2:B$201)</f>
         <v>1460</v>
       </c>
       <c r="C208">
+        <f t="shared" ref="C208:L208" si="6">SUMIF($M$2:$M$201, "*Hollins Market*", C$2:C$201)</f>
         <v>-3</v>
       </c>
       <c r="D208">
+        <f t="shared" si="6"/>
         <v>180</v>
       </c>
       <c r="E208">
+        <f t="shared" si="6"/>
         <v>-474</v>
       </c>
-      <c r="F208">
-        <v>29724.5</v>
-      </c>
-      <c r="G208">
-        <v>4643.333333333333</v>
-      </c>
-      <c r="H208">
-        <v>40.833333333333336</v>
-      </c>
-      <c r="I208">
-        <v>79.166666666666671</v>
-      </c>
-      <c r="J208">
-        <v>-161</v>
+      <c r="F208" t="s">
+        <v>13</v>
+      </c>
+      <c r="G208" t="s">
+        <v>13</v>
+      </c>
+      <c r="H208" t="s">
+        <v>13</v>
+      </c>
+      <c r="I208" t="s">
+        <v>13</v>
+      </c>
+      <c r="J208" t="s">
+        <v>13</v>
       </c>
       <c r="K208">
-        <v>17.2</v>
-      </c>
-      <c r="L208">
-        <v>72377.600000000006</v>
+        <f t="shared" si="6"/>
+        <v>86</v>
+      </c>
+      <c r="L208" t="s">
+        <v>13</v>
       </c>
       <c r="M208">
         <v>1</v>
@@ -10379,37 +10409,42 @@
         <v>19</v>
       </c>
       <c r="B209">
+        <f>SUMIF($M$2:$M$201, "*Liberty Heights*", B$2:B$201)</f>
         <v>1541</v>
       </c>
       <c r="C209">
+        <f t="shared" ref="C209:L209" si="7">SUMIF($M$2:$M$201, "*Liberty Heights*", C$2:C$201)</f>
         <v>25</v>
       </c>
       <c r="D209">
+        <f t="shared" si="7"/>
         <v>28</v>
       </c>
       <c r="E209">
+        <f t="shared" si="7"/>
         <v>1418</v>
       </c>
-      <c r="F209">
-        <v>47141.75</v>
-      </c>
-      <c r="G209">
-        <v>9044.75</v>
-      </c>
-      <c r="H209">
-        <v>20.75</v>
-      </c>
-      <c r="I209">
-        <v>98</v>
-      </c>
-      <c r="J209">
-        <v>355</v>
+      <c r="F209" t="s">
+        <v>13</v>
+      </c>
+      <c r="G209" t="s">
+        <v>13</v>
+      </c>
+      <c r="H209" t="s">
+        <v>13</v>
+      </c>
+      <c r="I209" t="s">
+        <v>13</v>
+      </c>
+      <c r="J209" t="s">
+        <v>13</v>
       </c>
       <c r="K209">
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="L209">
-        <v>195605</v>
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="L209" t="s">
+        <v>13</v>
       </c>
       <c r="M209">
         <v>1</v>
@@ -10423,37 +10458,42 @@
         <v>15</v>
       </c>
       <c r="B210">
+        <f>SUMIF($M$2:$M$201, "*Market Center*", B$2:B$201)</f>
         <v>77641</v>
       </c>
       <c r="C210">
+        <f t="shared" ref="C210:L210" si="8">SUMIF($M$2:$M$201, "*Market Center*", C$2:C$201)</f>
         <v>1760</v>
       </c>
       <c r="D210">
+        <f t="shared" si="8"/>
         <v>7850</v>
       </c>
       <c r="E210">
+        <f t="shared" si="8"/>
         <v>882</v>
       </c>
-      <c r="F210">
-        <v>46173.666666666664</v>
-      </c>
-      <c r="G210">
-        <v>11812</v>
-      </c>
-      <c r="H210">
-        <v>20</v>
-      </c>
-      <c r="I210">
-        <v>61.333333333333336</v>
-      </c>
-      <c r="J210">
-        <v>737</v>
+      <c r="F210" t="s">
+        <v>13</v>
+      </c>
+      <c r="G210" t="s">
+        <v>13</v>
+      </c>
+      <c r="H210" t="s">
+        <v>13</v>
+      </c>
+      <c r="I210" t="s">
+        <v>13</v>
+      </c>
+      <c r="J210" t="s">
+        <v>13</v>
       </c>
       <c r="K210">
-        <v>13</v>
-      </c>
-      <c r="L210">
-        <v>232792</v>
+        <f t="shared" si="8"/>
+        <v>13</v>
+      </c>
+      <c r="L210" t="s">
+        <v>13</v>
       </c>
       <c r="M210">
         <v>1</v>
@@ -10467,37 +10507,42 @@
         <v>18</v>
       </c>
       <c r="B211">
+        <f>SUMIF($M$2:$M$201, "*Pennsylvania Ave*", B$2:B$201)</f>
         <v>7505</v>
       </c>
       <c r="C211">
+        <f t="shared" ref="C211:L211" si="9">SUMIF($M$2:$M$201, "*Pennsylvania Ave*", C$2:C$201)</f>
         <v>-213</v>
       </c>
       <c r="D211">
+        <f t="shared" si="9"/>
         <v>1513</v>
       </c>
       <c r="E211">
+        <f t="shared" si="9"/>
         <v>-1408</v>
       </c>
-      <c r="F211">
-        <v>23652</v>
-      </c>
-      <c r="G211">
-        <v>3481.1428571428573</v>
-      </c>
-      <c r="H211">
-        <v>41.857142857142854</v>
-      </c>
-      <c r="I211">
-        <v>94.714285714285708</v>
-      </c>
-      <c r="J211">
-        <v>-925</v>
+      <c r="F211" t="s">
+        <v>13</v>
+      </c>
+      <c r="G211" t="s">
+        <v>13</v>
+      </c>
+      <c r="H211" t="s">
+        <v>13</v>
+      </c>
+      <c r="I211" t="s">
+        <v>13</v>
+      </c>
+      <c r="J211" t="s">
+        <v>13</v>
       </c>
       <c r="K211">
-        <v>4</v>
-      </c>
-      <c r="L211">
-        <v>178048</v>
+        <f t="shared" si="9"/>
+        <v>24</v>
+      </c>
+      <c r="L211" t="s">
+        <v>13</v>
       </c>
       <c r="M211">
         <v>1</v>
@@ -10511,8453 +10556,47 @@
         <v>22</v>
       </c>
       <c r="B212">
+        <f>SUMIF($M$2:$M$201, "*Pigtown*", B$2:B$201)</f>
         <v>8513</v>
       </c>
       <c r="C212">
+        <f t="shared" ref="C212:L212" si="10">SUMIF($M$2:$M$201, "*Pigtown*", C$2:C$201)</f>
         <v>1898</v>
       </c>
       <c r="D212">
+        <f t="shared" si="10"/>
         <v>1009</v>
       </c>
       <c r="E212">
+        <f t="shared" si="10"/>
         <v>702</v>
       </c>
-      <c r="F212">
-        <v>59062.5</v>
-      </c>
-      <c r="G212">
-        <v>12615</v>
-      </c>
-      <c r="H212">
-        <v>24.5</v>
-      </c>
-      <c r="I212">
-        <v>64</v>
-      </c>
-      <c r="J212">
-        <v>67</v>
+      <c r="F212" t="s">
+        <v>13</v>
+      </c>
+      <c r="G212" t="s">
+        <v>13</v>
+      </c>
+      <c r="H212" t="s">
+        <v>13</v>
+      </c>
+      <c r="I212" t="s">
+        <v>13</v>
+      </c>
+      <c r="J212" t="s">
+        <v>13</v>
       </c>
       <c r="K212">
-        <v>20</v>
-      </c>
-      <c r="L212">
-        <v>218162.5</v>
+        <f t="shared" si="10"/>
+        <v>40</v>
+      </c>
+      <c r="L212" t="s">
+        <v>13</v>
       </c>
       <c r="M212">
         <v>1</v>
       </c>
       <c r="N212">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:M212" xr:uid="{CC5883D3-9794-4001-B607-5C1DE4BA342C}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M201">
-      <sortCondition ref="A1:A212"/>
-    </sortState>
-  </autoFilter>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4BC8659-6D4A-45BE-A31C-CAB5E5FC4C55}">
-  <dimension ref="A1:M212"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A161" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H205" sqref="H205"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.28515625" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" customWidth="1"/>
-    <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>24510010200</v>
-      </c>
-      <c r="B2">
-        <v>241</v>
-      </c>
-      <c r="C2">
-        <v>18</v>
-      </c>
-      <c r="D2">
-        <v>7</v>
-      </c>
-      <c r="E2">
-        <v>-94</v>
-      </c>
-      <c r="F2">
-        <v>106250</v>
-      </c>
-      <c r="G2">
-        <v>23851</v>
-      </c>
-      <c r="H2">
-        <v>5</v>
-      </c>
-      <c r="I2">
-        <v>10</v>
-      </c>
-      <c r="J2">
-        <v>-169</v>
-      </c>
-      <c r="K2">
-        <v>4</v>
-      </c>
-      <c r="L2">
-        <v>314355</v>
-      </c>
-      <c r="M2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>24510040100</v>
-      </c>
-      <c r="B3">
-        <v>66542</v>
-      </c>
-      <c r="C3">
-        <v>8958</v>
-      </c>
-      <c r="D3">
-        <v>11267</v>
-      </c>
-      <c r="E3">
-        <v>998</v>
-      </c>
-      <c r="F3">
-        <v>64016</v>
-      </c>
-      <c r="G3">
-        <v>11981</v>
-      </c>
-      <c r="H3">
-        <v>12</v>
-      </c>
-      <c r="I3">
-        <v>58</v>
-      </c>
-      <c r="J3">
-        <v>877</v>
-      </c>
-      <c r="K3" t="s">
-        <v>13</v>
-      </c>
-      <c r="L3" t="s">
-        <v>13</v>
-      </c>
-      <c r="M3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>24510040200</v>
-      </c>
-      <c r="B4">
-        <v>8702</v>
-      </c>
-      <c r="C4">
-        <v>-8736</v>
-      </c>
-      <c r="D4">
-        <v>-4370</v>
-      </c>
-      <c r="E4">
-        <v>-52</v>
-      </c>
-      <c r="F4">
-        <v>43417</v>
-      </c>
-      <c r="G4">
-        <v>20417</v>
-      </c>
-      <c r="H4">
-        <v>25</v>
-      </c>
-      <c r="I4">
-        <v>56</v>
-      </c>
-      <c r="J4">
-        <v>-47</v>
-      </c>
-      <c r="K4" t="s">
-        <v>13</v>
-      </c>
-      <c r="L4" t="s">
-        <v>13</v>
-      </c>
-      <c r="M4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>24510090300</v>
-      </c>
-      <c r="B5">
-        <v>424</v>
-      </c>
-      <c r="C5">
-        <v>163</v>
-      </c>
-      <c r="D5">
-        <v>80</v>
-      </c>
-      <c r="E5">
-        <v>190</v>
-      </c>
-      <c r="F5">
-        <v>49722</v>
-      </c>
-      <c r="G5">
-        <v>16753</v>
-      </c>
-      <c r="H5">
-        <v>23</v>
-      </c>
-      <c r="I5">
-        <v>71</v>
-      </c>
-      <c r="J5">
-        <v>-55</v>
-      </c>
-      <c r="K5">
-        <v>8</v>
-      </c>
-      <c r="L5">
-        <v>127850</v>
-      </c>
-      <c r="M5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>24510090400</v>
-      </c>
-      <c r="B6">
-        <v>673</v>
-      </c>
-      <c r="C6">
-        <v>220</v>
-      </c>
-      <c r="D6">
-        <v>259</v>
-      </c>
-      <c r="E6">
-        <v>-49</v>
-      </c>
-      <c r="F6">
-        <v>32276</v>
-      </c>
-      <c r="G6">
-        <v>5501</v>
-      </c>
-      <c r="H6">
-        <v>36</v>
-      </c>
-      <c r="I6">
-        <v>93</v>
-      </c>
-      <c r="J6">
-        <v>-71</v>
-      </c>
-      <c r="K6">
-        <v>6</v>
-      </c>
-      <c r="L6">
-        <v>61283</v>
-      </c>
-      <c r="M6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>24510090500</v>
-      </c>
-      <c r="B7">
-        <v>1526</v>
-      </c>
-      <c r="C7">
-        <v>-191</v>
-      </c>
-      <c r="D7">
-        <v>49</v>
-      </c>
-      <c r="E7">
-        <v>-341</v>
-      </c>
-      <c r="F7">
-        <v>44229</v>
-      </c>
-      <c r="G7">
-        <v>6729</v>
-      </c>
-      <c r="H7">
-        <v>21</v>
-      </c>
-      <c r="I7">
-        <v>78</v>
-      </c>
-      <c r="J7">
-        <v>33</v>
-      </c>
-      <c r="K7">
-        <v>9</v>
-      </c>
-      <c r="L7">
-        <v>174841</v>
-      </c>
-      <c r="M7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>24510090800</v>
-      </c>
-      <c r="B8">
-        <v>1151</v>
-      </c>
-      <c r="C8">
-        <v>-143</v>
-      </c>
-      <c r="D8">
-        <v>-3</v>
-      </c>
-      <c r="E8">
-        <v>-670</v>
-      </c>
-      <c r="F8">
-        <v>30972</v>
-      </c>
-      <c r="G8">
-        <v>6037</v>
-      </c>
-      <c r="H8">
-        <v>35</v>
-      </c>
-      <c r="I8">
-        <v>97</v>
-      </c>
-      <c r="J8">
-        <v>-170</v>
-      </c>
-      <c r="K8">
-        <v>18</v>
-      </c>
-      <c r="L8">
-        <v>38885</v>
-      </c>
-      <c r="M8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>24510120201</v>
-      </c>
-      <c r="B9">
-        <v>406</v>
-      </c>
-      <c r="C9">
-        <v>18</v>
-      </c>
-      <c r="D9">
-        <v>16</v>
-      </c>
-      <c r="E9">
-        <v>52</v>
-      </c>
-      <c r="F9">
-        <v>87500</v>
-      </c>
-      <c r="G9">
-        <v>34327</v>
-      </c>
-      <c r="H9">
-        <v>14</v>
-      </c>
-      <c r="I9">
-        <v>25</v>
-      </c>
-      <c r="J9">
-        <v>-38</v>
-      </c>
-      <c r="K9">
-        <v>11</v>
-      </c>
-      <c r="L9">
-        <v>239816</v>
-      </c>
-      <c r="M9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>24510120300</v>
-      </c>
-      <c r="B10">
-        <v>552</v>
-      </c>
-      <c r="C10">
-        <v>-3</v>
-      </c>
-      <c r="D10">
-        <v>37</v>
-      </c>
-      <c r="E10">
-        <v>809</v>
-      </c>
-      <c r="F10">
-        <v>56750</v>
-      </c>
-      <c r="G10">
-        <v>17037</v>
-      </c>
-      <c r="H10">
-        <v>20</v>
-      </c>
-      <c r="I10">
-        <v>55</v>
-      </c>
-      <c r="J10">
-        <v>-54</v>
-      </c>
-      <c r="K10">
-        <v>11</v>
-      </c>
-      <c r="L10">
-        <v>217879</v>
-      </c>
-      <c r="M10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>24510120400</v>
-      </c>
-      <c r="B11">
-        <v>199</v>
-      </c>
-      <c r="C11">
-        <v>-31</v>
-      </c>
-      <c r="D11">
-        <v>10</v>
-      </c>
-      <c r="E11">
-        <v>61</v>
-      </c>
-      <c r="F11">
-        <v>38445</v>
-      </c>
-      <c r="G11">
-        <v>3630</v>
-      </c>
-      <c r="H11">
-        <v>32</v>
-      </c>
-      <c r="I11">
-        <v>68</v>
-      </c>
-      <c r="J11">
-        <v>-17</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>52109</v>
-      </c>
-      <c r="M11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>24510140200</v>
-      </c>
-      <c r="B12">
-        <v>391</v>
-      </c>
-      <c r="C12">
-        <v>-678</v>
-      </c>
-      <c r="D12">
-        <v>-160</v>
-      </c>
-      <c r="E12">
-        <v>40</v>
-      </c>
-      <c r="F12">
-        <v>23295</v>
-      </c>
-      <c r="G12">
-        <v>5989</v>
-      </c>
-      <c r="H12">
-        <v>59</v>
-      </c>
-      <c r="I12">
-        <v>96</v>
-      </c>
-      <c r="J12">
-        <v>-80</v>
-      </c>
-      <c r="K12">
-        <v>2</v>
-      </c>
-      <c r="L12">
-        <v>249616</v>
-      </c>
-      <c r="M12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>24510140300</v>
-      </c>
-      <c r="B13">
-        <v>186</v>
-      </c>
-      <c r="C13">
-        <v>-108</v>
-      </c>
-      <c r="D13">
-        <v>-13</v>
-      </c>
-      <c r="E13">
-        <v>-129</v>
-      </c>
-      <c r="F13">
-        <v>37917</v>
-      </c>
-      <c r="G13">
-        <v>15305</v>
-      </c>
-      <c r="H13">
-        <v>22</v>
-      </c>
-      <c r="I13">
-        <v>93</v>
-      </c>
-      <c r="J13">
-        <v>-149</v>
-      </c>
-      <c r="K13">
-        <v>17</v>
-      </c>
-      <c r="L13">
-        <v>61377</v>
-      </c>
-      <c r="M13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>24510150100</v>
-      </c>
-      <c r="B14">
-        <v>233</v>
-      </c>
-      <c r="C14">
-        <v>-13</v>
-      </c>
-      <c r="D14">
-        <v>8</v>
-      </c>
-      <c r="E14">
-        <v>-454</v>
-      </c>
-      <c r="F14">
-        <v>17371</v>
-      </c>
-      <c r="G14">
-        <v>-1457</v>
-      </c>
-      <c r="H14">
-        <v>44</v>
-      </c>
-      <c r="I14">
-        <v>95</v>
-      </c>
-      <c r="J14">
-        <v>-166</v>
-      </c>
-      <c r="K14">
-        <v>2</v>
-      </c>
-      <c r="L14">
-        <v>62195</v>
-      </c>
-      <c r="M14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>24510150800</v>
-      </c>
-      <c r="B15">
-        <v>453</v>
-      </c>
-      <c r="C15">
-        <v>71</v>
-      </c>
-      <c r="D15">
-        <v>-14</v>
-      </c>
-      <c r="E15">
-        <v>461</v>
-      </c>
-      <c r="F15">
-        <v>36446</v>
-      </c>
-      <c r="G15">
-        <v>2370</v>
-      </c>
-      <c r="H15">
-        <v>24</v>
-      </c>
-      <c r="I15">
-        <v>99</v>
-      </c>
-      <c r="J15">
-        <v>192</v>
-      </c>
-      <c r="K15">
-        <v>2</v>
-      </c>
-      <c r="L15">
-        <v>173640</v>
-      </c>
-      <c r="M15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>24510150900</v>
-      </c>
-      <c r="B16">
-        <v>46</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16">
-        <v>452</v>
-      </c>
-      <c r="F16">
-        <v>56530</v>
-      </c>
-      <c r="G16">
-        <v>12861</v>
-      </c>
-      <c r="H16">
-        <v>19</v>
-      </c>
-      <c r="I16">
-        <v>96</v>
-      </c>
-      <c r="J16">
-        <v>207</v>
-      </c>
-      <c r="K16" t="s">
-        <v>13</v>
-      </c>
-      <c r="L16" t="s">
-        <v>13</v>
-      </c>
-      <c r="M16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>24510151000</v>
-      </c>
-      <c r="B17">
-        <v>645</v>
-      </c>
-      <c r="C17">
-        <v>-101</v>
-      </c>
-      <c r="D17">
-        <v>-8</v>
-      </c>
-      <c r="E17">
-        <v>324</v>
-      </c>
-      <c r="F17">
-        <v>43257</v>
-      </c>
-      <c r="G17">
-        <v>9458</v>
-      </c>
-      <c r="H17">
-        <v>22</v>
-      </c>
-      <c r="I17">
-        <v>99</v>
-      </c>
-      <c r="J17">
-        <v>82</v>
-      </c>
-      <c r="K17">
-        <v>2</v>
-      </c>
-      <c r="L17">
-        <v>83625</v>
-      </c>
-      <c r="M17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>24510151100</v>
-      </c>
-      <c r="B18">
-        <v>397</v>
-      </c>
-      <c r="C18">
-        <v>55</v>
-      </c>
-      <c r="D18">
-        <v>49</v>
-      </c>
-      <c r="E18">
-        <v>181</v>
-      </c>
-      <c r="F18">
-        <v>52334</v>
-      </c>
-      <c r="G18">
-        <v>11490</v>
-      </c>
-      <c r="H18">
-        <v>18</v>
-      </c>
-      <c r="I18">
-        <v>98</v>
-      </c>
-      <c r="J18">
-        <v>-126</v>
-      </c>
-      <c r="K18">
-        <v>1</v>
-      </c>
-      <c r="L18">
-        <v>329550</v>
-      </c>
-      <c r="M18" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>24510160100</v>
-      </c>
-      <c r="B19">
-        <v>26</v>
-      </c>
-      <c r="C19">
-        <v>-30</v>
-      </c>
-      <c r="D19">
-        <v>-5</v>
-      </c>
-      <c r="E19">
-        <v>-338</v>
-      </c>
-      <c r="F19">
-        <v>29375</v>
-      </c>
-      <c r="G19">
-        <v>11205</v>
-      </c>
-      <c r="H19">
-        <v>29</v>
-      </c>
-      <c r="I19">
-        <v>95</v>
-      </c>
-      <c r="J19">
-        <v>-179</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>12000</v>
-      </c>
-      <c r="M19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>24510160200</v>
-      </c>
-      <c r="B20">
-        <v>65</v>
-      </c>
-      <c r="C20">
-        <v>-5</v>
-      </c>
-      <c r="D20">
-        <v>9</v>
-      </c>
-      <c r="E20">
-        <v>-361</v>
-      </c>
-      <c r="F20">
-        <v>22881</v>
-      </c>
-      <c r="G20">
-        <v>-7469</v>
-      </c>
-      <c r="H20">
-        <v>50</v>
-      </c>
-      <c r="I20">
-        <v>97</v>
-      </c>
-      <c r="J20">
-        <v>-105</v>
-      </c>
-      <c r="K20">
-        <v>1</v>
-      </c>
-      <c r="L20">
-        <v>10000</v>
-      </c>
-      <c r="M20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>24510170100</v>
-      </c>
-      <c r="B21">
-        <v>2397</v>
-      </c>
-      <c r="C21">
-        <v>1538</v>
-      </c>
-      <c r="D21">
-        <v>953</v>
-      </c>
-      <c r="E21">
-        <v>-64</v>
-      </c>
-      <c r="F21">
-        <v>31088</v>
-      </c>
-      <c r="G21">
-        <v>3038</v>
-      </c>
-      <c r="H21">
-        <v>23</v>
-      </c>
-      <c r="I21">
-        <v>70</v>
-      </c>
-      <c r="J21">
-        <v>-93</v>
-      </c>
-      <c r="K21">
-        <v>13</v>
-      </c>
-      <c r="L21">
-        <v>232792</v>
-      </c>
-      <c r="M21" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>24510170200</v>
-      </c>
-      <c r="B22">
-        <v>6506</v>
-      </c>
-      <c r="C22">
-        <v>638</v>
-      </c>
-      <c r="D22">
-        <v>1676</v>
-      </c>
-      <c r="E22">
-        <v>-207</v>
-      </c>
-      <c r="F22">
-        <v>13841</v>
-      </c>
-      <c r="G22">
-        <v>4229</v>
-      </c>
-      <c r="H22">
-        <v>49</v>
-      </c>
-      <c r="I22">
-        <v>89</v>
-      </c>
-      <c r="J22">
-        <v>-284</v>
-      </c>
-      <c r="K22">
-        <v>1</v>
-      </c>
-      <c r="L22">
-        <v>673100</v>
-      </c>
-      <c r="M22" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>24510170300</v>
-      </c>
-      <c r="B23">
-        <v>98</v>
-      </c>
-      <c r="C23">
-        <v>-17</v>
-      </c>
-      <c r="D23">
-        <v>-2</v>
-      </c>
-      <c r="E23">
-        <v>41</v>
-      </c>
-      <c r="F23">
-        <v>20884</v>
-      </c>
-      <c r="G23">
-        <v>-3434</v>
-      </c>
-      <c r="H23">
-        <v>40</v>
-      </c>
-      <c r="I23">
-        <v>98</v>
-      </c>
-      <c r="J23">
-        <v>38</v>
-      </c>
-      <c r="K23" t="s">
-        <v>13</v>
-      </c>
-      <c r="L23" t="s">
-        <v>13</v>
-      </c>
-      <c r="M23" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>24510180100</v>
-      </c>
-      <c r="B24">
-        <v>133</v>
-      </c>
-      <c r="C24">
-        <v>-22</v>
-      </c>
-      <c r="D24">
-        <v>24</v>
-      </c>
-      <c r="E24">
-        <v>66</v>
-      </c>
-      <c r="F24">
-        <v>15195</v>
-      </c>
-      <c r="G24">
-        <v>1957</v>
-      </c>
-      <c r="H24">
-        <v>58</v>
-      </c>
-      <c r="I24">
-        <v>100</v>
-      </c>
-      <c r="J24">
-        <v>73</v>
-      </c>
-      <c r="K24" t="s">
-        <v>13</v>
-      </c>
-      <c r="L24" t="s">
-        <v>13</v>
-      </c>
-      <c r="M24" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>24510180200</v>
-      </c>
-      <c r="B25">
-        <v>534</v>
-      </c>
-      <c r="C25">
-        <v>-11</v>
-      </c>
-      <c r="D25">
-        <v>9</v>
-      </c>
-      <c r="E25">
-        <v>56</v>
-      </c>
-      <c r="F25">
-        <v>25398</v>
-      </c>
-      <c r="G25">
-        <v>8605</v>
-      </c>
-      <c r="H25">
-        <v>37</v>
-      </c>
-      <c r="I25">
-        <v>92</v>
-      </c>
-      <c r="J25">
-        <v>-29</v>
-      </c>
-      <c r="K25">
-        <v>11</v>
-      </c>
-      <c r="L25">
-        <v>31988</v>
-      </c>
-      <c r="M25" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>24510180300</v>
-      </c>
-      <c r="B26">
-        <v>395</v>
-      </c>
-      <c r="C26">
-        <v>85</v>
-      </c>
-      <c r="D26">
-        <v>131</v>
-      </c>
-      <c r="E26">
-        <v>210</v>
-      </c>
-      <c r="F26">
-        <v>50761</v>
-      </c>
-      <c r="G26">
-        <v>22904</v>
-      </c>
-      <c r="H26">
-        <v>25</v>
-      </c>
-      <c r="I26">
-        <v>56</v>
-      </c>
-      <c r="J26">
-        <v>-18</v>
-      </c>
-      <c r="K26">
-        <v>40</v>
-      </c>
-      <c r="L26">
-        <v>96766</v>
-      </c>
-      <c r="M26" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>24510190100</v>
-      </c>
-      <c r="B27">
-        <v>193</v>
-      </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="D27">
-        <v>28</v>
-      </c>
-      <c r="E27">
-        <v>5</v>
-      </c>
-      <c r="F27">
-        <v>25190</v>
-      </c>
-      <c r="G27">
-        <v>-3456</v>
-      </c>
-      <c r="H27">
-        <v>49</v>
-      </c>
-      <c r="I27">
-        <v>97</v>
-      </c>
-      <c r="J27">
-        <v>82</v>
-      </c>
-      <c r="K27">
-        <v>10</v>
-      </c>
-      <c r="L27">
-        <v>95883</v>
-      </c>
-      <c r="M27" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>24510190200</v>
-      </c>
-      <c r="B28">
-        <v>51</v>
-      </c>
-      <c r="C28">
-        <v>-13</v>
-      </c>
-      <c r="D28">
-        <v>-6</v>
-      </c>
-      <c r="E28">
-        <v>-601</v>
-      </c>
-      <c r="F28">
-        <v>43878</v>
-      </c>
-      <c r="G28">
-        <v>2550</v>
-      </c>
-      <c r="H28">
-        <v>21</v>
-      </c>
-      <c r="I28">
-        <v>59</v>
-      </c>
-      <c r="J28">
-        <v>-69</v>
-      </c>
-      <c r="K28">
-        <v>15</v>
-      </c>
-      <c r="L28">
-        <v>92442</v>
-      </c>
-      <c r="M28" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>24510190300</v>
-      </c>
-      <c r="B29">
-        <v>154</v>
-      </c>
-      <c r="C29">
-        <v>-43</v>
-      </c>
-      <c r="D29">
-        <v>-6</v>
-      </c>
-      <c r="E29">
-        <v>-210</v>
-      </c>
-      <c r="F29">
-        <v>17925</v>
-      </c>
-      <c r="G29">
-        <v>-4700</v>
-      </c>
-      <c r="H29">
-        <v>55</v>
-      </c>
-      <c r="I29">
-        <v>71</v>
-      </c>
-      <c r="J29">
-        <v>-200</v>
-      </c>
-      <c r="K29">
-        <v>10</v>
-      </c>
-      <c r="L29">
-        <v>44809</v>
-      </c>
-      <c r="M29" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>24510200600</v>
-      </c>
-      <c r="B30">
-        <v>865</v>
-      </c>
-      <c r="C30">
-        <v>-133</v>
-      </c>
-      <c r="D30">
-        <v>-26</v>
-      </c>
-      <c r="E30">
-        <v>-29</v>
-      </c>
-      <c r="F30">
-        <v>39159</v>
-      </c>
-      <c r="G30">
-        <v>4593</v>
-      </c>
-      <c r="H30">
-        <v>14</v>
-      </c>
-      <c r="I30">
-        <v>77</v>
-      </c>
-      <c r="J30">
-        <v>28</v>
-      </c>
-      <c r="K30">
-        <v>17</v>
-      </c>
-      <c r="L30">
-        <v>65517</v>
-      </c>
-      <c r="M30" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>24510200701</v>
-      </c>
-      <c r="B31">
-        <v>219</v>
-      </c>
-      <c r="C31">
-        <v>-26</v>
-      </c>
-      <c r="D31">
-        <v>21</v>
-      </c>
-      <c r="E31">
-        <v>144</v>
-      </c>
-      <c r="F31">
-        <v>39208</v>
-      </c>
-      <c r="G31">
-        <v>936</v>
-      </c>
-      <c r="H31">
-        <v>22</v>
-      </c>
-      <c r="I31">
-        <v>99</v>
-      </c>
-      <c r="J31">
-        <v>59</v>
-      </c>
-      <c r="K31">
-        <v>1</v>
-      </c>
-      <c r="L31">
-        <v>155600</v>
-      </c>
-      <c r="M31" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>24510200702</v>
-      </c>
-      <c r="B32">
-        <v>106</v>
-      </c>
-      <c r="C32">
-        <v>28</v>
-      </c>
-      <c r="D32">
-        <v>-1</v>
-      </c>
-      <c r="E32">
-        <v>-9</v>
-      </c>
-      <c r="F32">
-        <v>44830</v>
-      </c>
-      <c r="G32">
-        <v>13401</v>
-      </c>
-      <c r="H32">
-        <v>25</v>
-      </c>
-      <c r="I32">
-        <v>98</v>
-      </c>
-      <c r="J32">
-        <v>-87</v>
-      </c>
-      <c r="K32">
-        <v>4</v>
-      </c>
-      <c r="L32">
-        <v>72800</v>
-      </c>
-      <c r="M32" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>24510210100</v>
-      </c>
-      <c r="B33">
-        <v>4270</v>
-      </c>
-      <c r="C33">
-        <v>1494</v>
-      </c>
-      <c r="D33">
-        <v>737</v>
-      </c>
-      <c r="E33">
-        <v>236</v>
-      </c>
-      <c r="F33">
-        <v>72216</v>
-      </c>
-      <c r="G33">
-        <v>19994</v>
-      </c>
-      <c r="H33">
-        <v>17</v>
-      </c>
-      <c r="I33">
-        <v>63</v>
-      </c>
-      <c r="J33">
-        <v>26</v>
-      </c>
-      <c r="K33">
-        <v>39</v>
-      </c>
-      <c r="L33">
-        <v>243025</v>
-      </c>
-      <c r="M33" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>24510210200</v>
-      </c>
-      <c r="B34">
-        <v>4243</v>
-      </c>
-      <c r="C34">
-        <v>404</v>
-      </c>
-      <c r="D34">
-        <v>272</v>
-      </c>
-      <c r="E34">
-        <v>466</v>
-      </c>
-      <c r="F34">
-        <v>45909</v>
-      </c>
-      <c r="G34">
-        <v>5236</v>
-      </c>
-      <c r="H34">
-        <v>32</v>
-      </c>
-      <c r="I34">
-        <v>65</v>
-      </c>
-      <c r="J34">
-        <v>41</v>
-      </c>
-      <c r="K34">
-        <v>1</v>
-      </c>
-      <c r="L34">
-        <v>193300</v>
-      </c>
-      <c r="M34" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>24510010100</v>
-      </c>
-      <c r="B35">
-        <v>1071</v>
-      </c>
-      <c r="C35">
-        <v>18</v>
-      </c>
-      <c r="D35">
-        <v>13</v>
-      </c>
-      <c r="E35">
-        <v>95</v>
-      </c>
-      <c r="F35">
-        <v>125417</v>
-      </c>
-      <c r="G35">
-        <v>35115</v>
-      </c>
-      <c r="H35">
-        <v>4</v>
-      </c>
-      <c r="I35">
-        <v>9</v>
-      </c>
-      <c r="J35">
-        <v>2</v>
-      </c>
-      <c r="K35">
-        <v>28</v>
-      </c>
-      <c r="L35">
-        <v>408268</v>
-      </c>
-      <c r="M35" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>24510010300</v>
-      </c>
-      <c r="B36">
-        <v>152</v>
-      </c>
-      <c r="C36">
-        <v>-173</v>
-      </c>
-      <c r="D36">
-        <v>-140</v>
-      </c>
-      <c r="E36">
-        <v>143</v>
-      </c>
-      <c r="F36">
-        <v>142368</v>
-      </c>
-      <c r="G36">
-        <v>50897</v>
-      </c>
-      <c r="H36">
-        <v>5</v>
-      </c>
-      <c r="I36">
-        <v>8</v>
-      </c>
-      <c r="J36">
-        <v>-1</v>
-      </c>
-      <c r="K36" t="s">
-        <v>13</v>
-      </c>
-      <c r="L36">
-        <v>176300</v>
-      </c>
-      <c r="M36" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>24510010400</v>
-      </c>
-      <c r="B37">
-        <v>2343</v>
-      </c>
-      <c r="C37">
-        <v>392</v>
-      </c>
-      <c r="D37">
-        <v>290</v>
-      </c>
-      <c r="E37">
-        <v>447</v>
-      </c>
-      <c r="F37">
-        <v>122765</v>
-      </c>
-      <c r="G37">
-        <v>38598</v>
-      </c>
-      <c r="H37">
-        <v>4</v>
-      </c>
-      <c r="I37">
-        <v>17</v>
-      </c>
-      <c r="J37">
-        <v>106</v>
-      </c>
-      <c r="K37">
-        <v>136</v>
-      </c>
-      <c r="L37">
-        <v>367949</v>
-      </c>
-      <c r="M37" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>24510010500</v>
-      </c>
-      <c r="B38">
-        <v>90</v>
-      </c>
-      <c r="C38">
-        <v>32</v>
-      </c>
-      <c r="D38">
-        <v>23</v>
-      </c>
-      <c r="E38">
-        <v>-156</v>
-      </c>
-      <c r="F38">
-        <v>128227</v>
-      </c>
-      <c r="G38">
-        <v>32227</v>
-      </c>
-      <c r="H38">
-        <v>7</v>
-      </c>
-      <c r="I38">
-        <v>16</v>
-      </c>
-      <c r="J38">
-        <v>-5</v>
-      </c>
-      <c r="K38">
-        <v>8</v>
-      </c>
-      <c r="L38">
-        <v>260177</v>
-      </c>
-      <c r="M38" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>24510020100</v>
-      </c>
-      <c r="B39">
-        <v>173</v>
-      </c>
-      <c r="C39">
-        <v>97</v>
-      </c>
-      <c r="D39">
-        <v>52</v>
-      </c>
-      <c r="E39">
-        <v>-351</v>
-      </c>
-      <c r="F39">
-        <v>89000</v>
-      </c>
-      <c r="G39">
-        <v>3293</v>
-      </c>
-      <c r="H39">
-        <v>8</v>
-      </c>
-      <c r="I39">
-        <v>19</v>
-      </c>
-      <c r="J39">
-        <v>24</v>
-      </c>
-      <c r="K39">
-        <v>3</v>
-      </c>
-      <c r="L39">
-        <v>245060</v>
-      </c>
-      <c r="M39" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>24510020200</v>
-      </c>
-      <c r="B40">
-        <v>227</v>
-      </c>
-      <c r="C40">
-        <v>-541</v>
-      </c>
-      <c r="D40">
-        <v>-111</v>
-      </c>
-      <c r="E40">
-        <v>-129</v>
-      </c>
-      <c r="F40">
-        <v>84489</v>
-      </c>
-      <c r="G40">
-        <v>23424</v>
-      </c>
-      <c r="H40">
-        <v>15</v>
-      </c>
-      <c r="I40">
-        <v>28</v>
-      </c>
-      <c r="J40">
-        <v>-158</v>
-      </c>
-      <c r="K40">
-        <v>17</v>
-      </c>
-      <c r="L40">
-        <v>287597</v>
-      </c>
-      <c r="M40" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>24510020300</v>
-      </c>
-      <c r="B41">
-        <v>7079</v>
-      </c>
-      <c r="C41">
-        <v>801</v>
-      </c>
-      <c r="D41">
-        <v>1198</v>
-      </c>
-      <c r="E41">
-        <v>18</v>
-      </c>
-      <c r="F41">
-        <v>108026</v>
-      </c>
-      <c r="G41">
-        <v>38687</v>
-      </c>
-      <c r="H41">
-        <v>9</v>
-      </c>
-      <c r="I41">
-        <v>19</v>
-      </c>
-      <c r="J41">
-        <v>-21</v>
-      </c>
-      <c r="K41">
-        <v>219</v>
-      </c>
-      <c r="L41">
-        <v>534348</v>
-      </c>
-      <c r="M41" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>24510030100</v>
-      </c>
-      <c r="B42">
-        <v>851</v>
-      </c>
-      <c r="C42">
-        <v>215</v>
-      </c>
-      <c r="D42">
-        <v>115</v>
-      </c>
-      <c r="E42">
-        <v>-280</v>
-      </c>
-      <c r="F42">
-        <v>19531</v>
-      </c>
-      <c r="G42">
-        <v>-625</v>
-      </c>
-      <c r="H42">
-        <v>45</v>
-      </c>
-      <c r="I42">
-        <v>79</v>
-      </c>
-      <c r="J42">
-        <v>-156</v>
-      </c>
-      <c r="K42">
-        <v>15</v>
-      </c>
-      <c r="L42">
-        <v>322087</v>
-      </c>
-      <c r="M42" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>24510030200</v>
-      </c>
-      <c r="B43">
-        <v>8581</v>
-      </c>
-      <c r="C43">
-        <v>1867</v>
-      </c>
-      <c r="D43">
-        <v>1752</v>
-      </c>
-      <c r="E43">
-        <v>-254</v>
-      </c>
-      <c r="F43">
-        <v>72386</v>
-      </c>
-      <c r="G43">
-        <v>2136</v>
-      </c>
-      <c r="H43">
-        <v>21</v>
-      </c>
-      <c r="I43">
-        <v>39</v>
-      </c>
-      <c r="J43">
-        <v>-128</v>
-      </c>
-      <c r="K43">
-        <v>66</v>
-      </c>
-      <c r="L43">
-        <v>280981</v>
-      </c>
-      <c r="M43" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>24510060100</v>
-      </c>
-      <c r="B44">
-        <v>78</v>
-      </c>
-      <c r="C44">
-        <v>-39</v>
-      </c>
-      <c r="D44">
-        <v>-5</v>
-      </c>
-      <c r="E44">
-        <v>-178</v>
-      </c>
-      <c r="F44">
-        <v>63421</v>
-      </c>
-      <c r="G44">
-        <v>24753</v>
-      </c>
-      <c r="H44">
-        <v>36</v>
-      </c>
-      <c r="I44">
-        <v>61</v>
-      </c>
-      <c r="J44">
-        <v>41</v>
-      </c>
-      <c r="K44" t="s">
-        <v>13</v>
-      </c>
-      <c r="L44" t="s">
-        <v>13</v>
-      </c>
-      <c r="M44" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>24510060200</v>
-      </c>
-      <c r="B45">
-        <v>313</v>
-      </c>
-      <c r="C45">
-        <v>11</v>
-      </c>
-      <c r="D45">
-        <v>48</v>
-      </c>
-      <c r="E45">
-        <v>8</v>
-      </c>
-      <c r="F45">
-        <v>69034</v>
-      </c>
-      <c r="G45">
-        <v>17511</v>
-      </c>
-      <c r="H45">
-        <v>34</v>
-      </c>
-      <c r="I45">
-        <v>50</v>
-      </c>
-      <c r="J45">
-        <v>-129</v>
-      </c>
-      <c r="K45">
-        <v>6</v>
-      </c>
-      <c r="L45">
-        <v>499814</v>
-      </c>
-      <c r="M45" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>24510060300</v>
-      </c>
-      <c r="B46">
-        <v>115</v>
-      </c>
-      <c r="C46">
-        <v>10</v>
-      </c>
-      <c r="D46">
-        <v>8</v>
-      </c>
-      <c r="E46">
-        <v>110</v>
-      </c>
-      <c r="F46">
-        <v>72132</v>
-      </c>
-      <c r="G46">
-        <v>18770</v>
-      </c>
-      <c r="H46">
-        <v>18</v>
-      </c>
-      <c r="I46">
-        <v>51</v>
-      </c>
-      <c r="J46">
-        <v>-66</v>
-      </c>
-      <c r="K46" t="s">
-        <v>13</v>
-      </c>
-      <c r="L46">
-        <v>198729</v>
-      </c>
-      <c r="M46" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>24510060400</v>
-      </c>
-      <c r="B47">
-        <v>14129</v>
-      </c>
-      <c r="C47">
-        <v>129</v>
-      </c>
-      <c r="D47">
-        <v>1850</v>
-      </c>
-      <c r="E47">
-        <v>136</v>
-      </c>
-      <c r="F47">
-        <v>51089</v>
-      </c>
-      <c r="G47">
-        <v>18736</v>
-      </c>
-      <c r="H47">
-        <v>19</v>
-      </c>
-      <c r="I47">
-        <v>75</v>
-      </c>
-      <c r="J47">
-        <v>137</v>
-      </c>
-      <c r="K47">
-        <v>11</v>
-      </c>
-      <c r="L47">
-        <v>451920</v>
-      </c>
-      <c r="M47" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>24510070100</v>
-      </c>
-      <c r="B48">
-        <v>35</v>
-      </c>
-      <c r="C48">
-        <v>-66</v>
-      </c>
-      <c r="D48">
-        <v>2</v>
-      </c>
-      <c r="E48">
-        <v>-258</v>
-      </c>
-      <c r="F48">
-        <v>43327</v>
-      </c>
-      <c r="G48">
-        <v>657</v>
-      </c>
-      <c r="H48">
-        <v>41</v>
-      </c>
-      <c r="I48">
-        <v>94</v>
-      </c>
-      <c r="J48">
-        <v>-4</v>
-      </c>
-      <c r="K48">
-        <v>1</v>
-      </c>
-      <c r="L48" t="s">
-        <v>13</v>
-      </c>
-      <c r="M48" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>24510070200</v>
-      </c>
-      <c r="B49">
-        <v>133</v>
-      </c>
-      <c r="C49">
-        <v>71</v>
-      </c>
-      <c r="D49">
-        <v>28</v>
-      </c>
-      <c r="E49">
-        <v>128</v>
-      </c>
-      <c r="F49">
-        <v>31292</v>
-      </c>
-      <c r="G49">
-        <v>6359</v>
-      </c>
-      <c r="H49">
-        <v>43</v>
-      </c>
-      <c r="I49">
-        <v>99</v>
-      </c>
-      <c r="J49">
-        <v>53</v>
-      </c>
-      <c r="K49">
-        <v>24</v>
-      </c>
-      <c r="L49">
-        <v>66790</v>
-      </c>
-      <c r="M49" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>24510070300</v>
-      </c>
-      <c r="B50">
-        <v>247</v>
-      </c>
-      <c r="C50">
-        <v>-57</v>
-      </c>
-      <c r="D50">
-        <v>-13</v>
-      </c>
-      <c r="E50">
-        <v>45</v>
-      </c>
-      <c r="F50">
-        <v>36985</v>
-      </c>
-      <c r="G50">
-        <v>25199</v>
-      </c>
-      <c r="H50">
-        <v>26</v>
-      </c>
-      <c r="I50">
-        <v>92</v>
-      </c>
-      <c r="J50">
-        <v>-30</v>
-      </c>
-      <c r="K50">
-        <v>40</v>
-      </c>
-      <c r="L50">
-        <v>141059</v>
-      </c>
-      <c r="M50" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>24510070400</v>
-      </c>
-      <c r="B51">
-        <v>12454</v>
-      </c>
-      <c r="C51">
-        <v>2496</v>
-      </c>
-      <c r="D51">
-        <v>2579</v>
-      </c>
-      <c r="E51">
-        <v>267</v>
-      </c>
-      <c r="F51">
-        <v>24457</v>
-      </c>
-      <c r="G51">
-        <v>6162</v>
-      </c>
-      <c r="H51">
-        <v>36</v>
-      </c>
-      <c r="I51">
-        <v>91</v>
-      </c>
-      <c r="J51">
-        <v>194</v>
-      </c>
-      <c r="K51" t="s">
-        <v>13</v>
-      </c>
-      <c r="L51">
-        <v>231400</v>
-      </c>
-      <c r="M51" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>24510080101</v>
-      </c>
-      <c r="B52">
-        <v>671</v>
-      </c>
-      <c r="C52">
-        <v>92</v>
-      </c>
-      <c r="D52">
-        <v>72</v>
-      </c>
-      <c r="E52">
-        <v>141</v>
-      </c>
-      <c r="F52">
-        <v>66845</v>
-      </c>
-      <c r="G52">
-        <v>14156</v>
-      </c>
-      <c r="H52">
-        <v>15</v>
-      </c>
-      <c r="I52">
-        <v>64</v>
-      </c>
-      <c r="J52">
-        <v>-148</v>
-      </c>
-      <c r="K52">
-        <v>12</v>
-      </c>
-      <c r="L52">
-        <v>285327</v>
-      </c>
-      <c r="M52" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>24510080102</v>
-      </c>
-      <c r="B53">
-        <v>344</v>
-      </c>
-      <c r="C53">
-        <v>-29</v>
-      </c>
-      <c r="D53">
-        <v>39</v>
-      </c>
-      <c r="E53">
-        <v>-73</v>
-      </c>
-      <c r="F53">
-        <v>32747</v>
-      </c>
-      <c r="G53">
-        <v>-7753</v>
-      </c>
-      <c r="H53">
-        <v>41</v>
-      </c>
-      <c r="I53">
-        <v>98</v>
-      </c>
-      <c r="J53">
-        <v>79</v>
-      </c>
-      <c r="K53">
-        <v>6</v>
-      </c>
-      <c r="L53">
-        <v>108866</v>
-      </c>
-      <c r="M53" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>24510080200</v>
-      </c>
-      <c r="B54">
-        <v>552</v>
-      </c>
-      <c r="C54">
-        <v>9</v>
-      </c>
-      <c r="D54">
-        <v>40</v>
-      </c>
-      <c r="E54">
-        <v>-112</v>
-      </c>
-      <c r="F54">
-        <v>36375</v>
-      </c>
-      <c r="G54">
-        <v>9580</v>
-      </c>
-      <c r="H54">
-        <v>21</v>
-      </c>
-      <c r="I54">
-        <v>94</v>
-      </c>
-      <c r="J54">
-        <v>-169</v>
-      </c>
-      <c r="K54">
-        <v>7</v>
-      </c>
-      <c r="L54" t="s">
-        <v>13</v>
-      </c>
-      <c r="M54" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>24510080301</v>
-      </c>
-      <c r="B55">
-        <v>41</v>
-      </c>
-      <c r="C55">
-        <v>4</v>
-      </c>
-      <c r="D55">
-        <v>1</v>
-      </c>
-      <c r="E55">
-        <v>8</v>
-      </c>
-      <c r="F55">
-        <v>31250</v>
-      </c>
-      <c r="G55">
-        <v>-1767</v>
-      </c>
-      <c r="H55">
-        <v>30</v>
-      </c>
-      <c r="I55">
-        <v>100</v>
-      </c>
-      <c r="J55">
-        <v>44</v>
-      </c>
-      <c r="K55">
-        <v>1</v>
-      </c>
-      <c r="L55">
-        <v>19500</v>
-      </c>
-      <c r="M55" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>24510080302</v>
-      </c>
-      <c r="B56">
-        <v>280</v>
-      </c>
-      <c r="C56">
-        <v>-211</v>
-      </c>
-      <c r="D56">
-        <v>-82</v>
-      </c>
-      <c r="E56">
-        <v>-145</v>
-      </c>
-      <c r="F56">
-        <v>36700</v>
-      </c>
-      <c r="G56">
-        <v>14585</v>
-      </c>
-      <c r="H56">
-        <v>25</v>
-      </c>
-      <c r="I56">
-        <v>97</v>
-      </c>
-      <c r="J56">
-        <v>8</v>
-      </c>
-      <c r="K56" t="s">
-        <v>13</v>
-      </c>
-      <c r="L56" t="s">
-        <v>13</v>
-      </c>
-      <c r="M56" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>24510080400</v>
-      </c>
-      <c r="B57">
-        <v>183</v>
-      </c>
-      <c r="C57">
-        <v>0</v>
-      </c>
-      <c r="D57">
-        <v>12</v>
-      </c>
-      <c r="E57">
-        <v>82</v>
-      </c>
-      <c r="F57">
-        <v>32772</v>
-      </c>
-      <c r="G57">
-        <v>9338</v>
-      </c>
-      <c r="H57">
-        <v>38</v>
-      </c>
-      <c r="I57">
-        <v>92</v>
-      </c>
-      <c r="J57">
-        <v>-29</v>
-      </c>
-      <c r="K57" t="s">
-        <v>13</v>
-      </c>
-      <c r="L57" t="s">
-        <v>13</v>
-      </c>
-      <c r="M57" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>24510080500</v>
-      </c>
-      <c r="B58">
-        <v>335</v>
-      </c>
-      <c r="C58">
-        <v>-223</v>
-      </c>
-      <c r="D58">
-        <v>32</v>
-      </c>
-      <c r="E58">
-        <v>-195</v>
-      </c>
-      <c r="F58">
-        <v>30714</v>
-      </c>
-      <c r="G58">
-        <v>4062</v>
-      </c>
-      <c r="H58">
-        <v>18</v>
-      </c>
-      <c r="I58">
-        <v>98</v>
-      </c>
-      <c r="J58">
-        <v>-35</v>
-      </c>
-      <c r="K58">
-        <v>2</v>
-      </c>
-      <c r="L58">
-        <v>169572</v>
-      </c>
-      <c r="M58" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>24510080600</v>
-      </c>
-      <c r="B59">
-        <v>24</v>
-      </c>
-      <c r="C59">
-        <v>-11</v>
-      </c>
-      <c r="D59">
-        <v>-6</v>
-      </c>
-      <c r="E59">
-        <v>-356</v>
-      </c>
-      <c r="F59">
-        <v>34449</v>
-      </c>
-      <c r="G59">
-        <v>5407</v>
-      </c>
-      <c r="H59">
-        <v>30</v>
-      </c>
-      <c r="I59">
-        <v>94</v>
-      </c>
-      <c r="J59">
-        <v>-74</v>
-      </c>
-      <c r="K59" t="s">
-        <v>13</v>
-      </c>
-      <c r="L59" t="s">
-        <v>13</v>
-      </c>
-      <c r="M59" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>24510080700</v>
-      </c>
-      <c r="B60">
-        <v>82</v>
-      </c>
-      <c r="C60">
-        <v>40</v>
-      </c>
-      <c r="D60">
-        <v>16</v>
-      </c>
-      <c r="E60">
-        <v>-64</v>
-      </c>
-      <c r="F60">
-        <v>39851</v>
-      </c>
-      <c r="G60">
-        <v>16815</v>
-      </c>
-      <c r="H60">
-        <v>15</v>
-      </c>
-      <c r="I60">
-        <v>95</v>
-      </c>
-      <c r="J60">
-        <v>-90</v>
-      </c>
-      <c r="K60">
-        <v>4</v>
-      </c>
-      <c r="L60" t="s">
-        <v>13</v>
-      </c>
-      <c r="M60" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>24510080800</v>
-      </c>
-      <c r="B61">
-        <v>79</v>
-      </c>
-      <c r="C61">
-        <v>-10</v>
-      </c>
-      <c r="D61">
-        <v>4</v>
-      </c>
-      <c r="E61">
-        <v>52</v>
-      </c>
-      <c r="F61">
-        <v>53333</v>
-      </c>
-      <c r="G61">
-        <v>37732</v>
-      </c>
-      <c r="H61">
-        <v>30</v>
-      </c>
-      <c r="I61">
-        <v>95</v>
-      </c>
-      <c r="J61">
-        <v>60</v>
-      </c>
-      <c r="K61" t="s">
-        <v>13</v>
-      </c>
-      <c r="L61" t="s">
-        <v>13</v>
-      </c>
-      <c r="M61" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <v>24510090100</v>
-      </c>
-      <c r="B62">
-        <v>299</v>
-      </c>
-      <c r="C62">
-        <v>13</v>
-      </c>
-      <c r="D62">
-        <v>66</v>
-      </c>
-      <c r="E62">
-        <v>-268</v>
-      </c>
-      <c r="F62">
-        <v>44759</v>
-      </c>
-      <c r="G62">
-        <v>8208</v>
-      </c>
-      <c r="H62">
-        <v>21</v>
-      </c>
-      <c r="I62">
-        <v>85</v>
-      </c>
-      <c r="J62">
-        <v>-230</v>
-      </c>
-      <c r="K62" t="s">
-        <v>13</v>
-      </c>
-      <c r="L62">
-        <v>88800</v>
-      </c>
-      <c r="M62" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <v>24510090200</v>
-      </c>
-      <c r="B63">
-        <v>517</v>
-      </c>
-      <c r="C63">
-        <v>-10</v>
-      </c>
-      <c r="D63">
-        <v>32</v>
-      </c>
-      <c r="E63">
-        <v>-417</v>
-      </c>
-      <c r="F63">
-        <v>71189</v>
-      </c>
-      <c r="G63">
-        <v>10011</v>
-      </c>
-      <c r="H63">
-        <v>6</v>
-      </c>
-      <c r="I63">
-        <v>79</v>
-      </c>
-      <c r="J63">
-        <v>-92</v>
-      </c>
-      <c r="K63" t="s">
-        <v>13</v>
-      </c>
-      <c r="L63">
-        <v>80786</v>
-      </c>
-      <c r="M63" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <v>24510090600</v>
-      </c>
-      <c r="B64">
-        <v>19</v>
-      </c>
-      <c r="C64">
-        <v>5</v>
-      </c>
-      <c r="D64">
-        <v>0</v>
-      </c>
-      <c r="E64">
-        <v>-4</v>
-      </c>
-      <c r="F64">
-        <v>35313</v>
-      </c>
-      <c r="G64">
-        <v>-9231</v>
-      </c>
-      <c r="H64">
-        <v>30</v>
-      </c>
-      <c r="I64">
-        <v>95</v>
-      </c>
-      <c r="J64">
-        <v>-54</v>
-      </c>
-      <c r="K64">
-        <v>1</v>
-      </c>
-      <c r="L64">
-        <v>149850</v>
-      </c>
-      <c r="M64" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <v>24510090700</v>
-      </c>
-      <c r="B65">
-        <v>36</v>
-      </c>
-      <c r="C65">
-        <v>11</v>
-      </c>
-      <c r="D65">
-        <v>-1</v>
-      </c>
-      <c r="E65">
-        <v>-111</v>
-      </c>
-      <c r="F65">
-        <v>27174</v>
-      </c>
-      <c r="G65">
-        <v>-2741</v>
-      </c>
-      <c r="H65">
-        <v>25</v>
-      </c>
-      <c r="I65">
-        <v>98</v>
-      </c>
-      <c r="J65">
-        <v>34</v>
-      </c>
-      <c r="K65">
-        <v>8</v>
-      </c>
-      <c r="L65">
-        <v>30817</v>
-      </c>
-      <c r="M65" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <v>24510090900</v>
-      </c>
-      <c r="B66">
-        <v>141</v>
-      </c>
-      <c r="C66">
-        <v>-56</v>
-      </c>
-      <c r="D66">
-        <v>0</v>
-      </c>
-      <c r="E66">
-        <v>37</v>
-      </c>
-      <c r="F66">
-        <v>22571</v>
-      </c>
-      <c r="G66">
-        <v>3261</v>
-      </c>
-      <c r="H66">
-        <v>31</v>
-      </c>
-      <c r="I66">
-        <v>95</v>
-      </c>
-      <c r="J66">
-        <v>71</v>
-      </c>
-      <c r="K66">
-        <v>11</v>
-      </c>
-      <c r="L66">
-        <v>117726</v>
-      </c>
-      <c r="M66" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <v>24510100100</v>
-      </c>
-      <c r="B67">
-        <v>487</v>
-      </c>
-      <c r="C67">
-        <v>70</v>
-      </c>
-      <c r="D67">
-        <v>82</v>
-      </c>
-      <c r="E67">
-        <v>270</v>
-      </c>
-      <c r="F67">
-        <v>26350</v>
-      </c>
-      <c r="G67">
-        <v>4491</v>
-      </c>
-      <c r="H67">
-        <v>48</v>
-      </c>
-      <c r="I67">
-        <v>98</v>
-      </c>
-      <c r="J67">
-        <v>-22</v>
-      </c>
-      <c r="K67">
-        <v>4</v>
-      </c>
-      <c r="L67">
-        <v>268762</v>
-      </c>
-      <c r="M67" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A68">
-        <v>24510100200</v>
-      </c>
-      <c r="B68">
-        <v>123</v>
-      </c>
-      <c r="C68">
-        <v>-110</v>
-      </c>
-      <c r="D68">
-        <v>-77</v>
-      </c>
-      <c r="E68">
-        <v>48</v>
-      </c>
-      <c r="F68">
-        <v>16080</v>
-      </c>
-      <c r="G68">
-        <v>3427</v>
-      </c>
-      <c r="H68">
-        <v>50</v>
-      </c>
-      <c r="I68">
-        <v>100</v>
-      </c>
-      <c r="J68">
-        <v>-151</v>
-      </c>
-      <c r="K68" t="s">
-        <v>13</v>
-      </c>
-      <c r="L68">
-        <v>1000</v>
-      </c>
-      <c r="M68" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <v>24510100300</v>
-      </c>
-      <c r="B69">
-        <v>2183</v>
-      </c>
-      <c r="C69">
-        <v>-534</v>
-      </c>
-      <c r="D69">
-        <v>449</v>
-      </c>
-      <c r="E69">
-        <v>-532</v>
-      </c>
-      <c r="F69" t="s">
-        <v>13</v>
-      </c>
-      <c r="G69" t="s">
-        <v>13</v>
-      </c>
-      <c r="H69" t="s">
-        <v>13</v>
-      </c>
-      <c r="I69" t="s">
-        <v>13</v>
-      </c>
-      <c r="J69" t="s">
-        <v>13</v>
-      </c>
-      <c r="K69" t="s">
-        <v>13</v>
-      </c>
-      <c r="L69" t="s">
-        <v>13</v>
-      </c>
-      <c r="M69" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <v>24510110100</v>
-      </c>
-      <c r="B70">
-        <v>1447</v>
-      </c>
-      <c r="C70">
-        <v>-1260</v>
-      </c>
-      <c r="D70">
-        <v>-743</v>
-      </c>
-      <c r="E70">
-        <v>598</v>
-      </c>
-      <c r="F70">
-        <v>55796</v>
-      </c>
-      <c r="G70">
-        <v>10629</v>
-      </c>
-      <c r="H70">
-        <v>16</v>
-      </c>
-      <c r="I70">
-        <v>45</v>
-      </c>
-      <c r="J70">
-        <v>228</v>
-      </c>
-      <c r="K70">
-        <v>30</v>
-      </c>
-      <c r="L70" t="s">
-        <v>13</v>
-      </c>
-      <c r="M70" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <v>24510110200</v>
-      </c>
-      <c r="B71">
-        <v>8653</v>
-      </c>
-      <c r="C71">
-        <v>-543</v>
-      </c>
-      <c r="D71">
-        <v>716</v>
-      </c>
-      <c r="E71">
-        <v>-83</v>
-      </c>
-      <c r="F71">
-        <v>49970</v>
-      </c>
-      <c r="G71">
-        <v>13878</v>
-      </c>
-      <c r="H71">
-        <v>18</v>
-      </c>
-      <c r="I71">
-        <v>44</v>
-      </c>
-      <c r="J71">
-        <v>457</v>
-      </c>
-      <c r="K71">
-        <v>151</v>
-      </c>
-      <c r="L71">
-        <v>313736</v>
-      </c>
-      <c r="M71" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <v>24510120100</v>
-      </c>
-      <c r="B72">
-        <v>588</v>
-      </c>
-      <c r="C72">
-        <v>16</v>
-      </c>
-      <c r="D72">
-        <v>66</v>
-      </c>
-      <c r="E72">
-        <v>-292</v>
-      </c>
-      <c r="F72">
-        <v>64794</v>
-      </c>
-      <c r="G72">
-        <v>999</v>
-      </c>
-      <c r="H72">
-        <v>20</v>
-      </c>
-      <c r="I72">
-        <v>38</v>
-      </c>
-      <c r="J72">
-        <v>46</v>
-      </c>
-      <c r="K72" t="s">
-        <v>13</v>
-      </c>
-      <c r="L72" t="s">
-        <v>13</v>
-      </c>
-      <c r="M72" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <v>24510120202</v>
-      </c>
-      <c r="B73">
-        <v>9332</v>
-      </c>
-      <c r="C73">
-        <v>-305</v>
-      </c>
-      <c r="D73">
-        <v>594</v>
-      </c>
-      <c r="E73">
-        <v>-315</v>
-      </c>
-      <c r="F73">
-        <v>42674</v>
-      </c>
-      <c r="G73">
-        <v>11485</v>
-      </c>
-      <c r="H73">
-        <v>24</v>
-      </c>
-      <c r="I73">
-        <v>41</v>
-      </c>
-      <c r="J73">
-        <v>-289</v>
-      </c>
-      <c r="K73">
-        <v>22</v>
-      </c>
-      <c r="L73">
-        <v>346804</v>
-      </c>
-      <c r="M73" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A74">
-        <v>24510120500</v>
-      </c>
-      <c r="B74">
-        <v>892</v>
-      </c>
-      <c r="C74">
-        <v>-125</v>
-      </c>
-      <c r="D74">
-        <v>-9</v>
-      </c>
-      <c r="E74">
-        <v>135</v>
-      </c>
-      <c r="F74">
-        <v>50375</v>
-      </c>
-      <c r="G74">
-        <v>18447</v>
-      </c>
-      <c r="H74">
-        <v>23</v>
-      </c>
-      <c r="I74">
-        <v>65</v>
-      </c>
-      <c r="J74">
-        <v>3</v>
-      </c>
-      <c r="K74">
-        <v>16</v>
-      </c>
-      <c r="L74">
-        <v>204605</v>
-      </c>
-      <c r="M74" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A75">
-        <v>24510120600</v>
-      </c>
-      <c r="B75">
-        <v>3203</v>
-      </c>
-      <c r="C75">
-        <v>512</v>
-      </c>
-      <c r="D75">
-        <v>330</v>
-      </c>
-      <c r="E75">
-        <v>255</v>
-      </c>
-      <c r="F75">
-        <v>31285</v>
-      </c>
-      <c r="G75">
-        <v>17934</v>
-      </c>
-      <c r="H75">
-        <v>31</v>
-      </c>
-      <c r="I75">
-        <v>66</v>
-      </c>
-      <c r="J75">
-        <v>21</v>
-      </c>
-      <c r="K75">
-        <v>70</v>
-      </c>
-      <c r="L75">
-        <v>376597</v>
-      </c>
-      <c r="M75" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <v>24510120700</v>
-      </c>
-      <c r="B76">
-        <v>4665</v>
-      </c>
-      <c r="C76">
-        <v>-557</v>
-      </c>
-      <c r="D76">
-        <v>73</v>
-      </c>
-      <c r="E76">
-        <v>-133</v>
-      </c>
-      <c r="F76">
-        <v>65365</v>
-      </c>
-      <c r="G76">
-        <v>18924</v>
-      </c>
-      <c r="H76">
-        <v>9</v>
-      </c>
-      <c r="I76">
-        <v>24</v>
-      </c>
-      <c r="J76">
-        <v>-137</v>
-      </c>
-      <c r="K76">
-        <v>13</v>
-      </c>
-      <c r="L76">
-        <v>243956</v>
-      </c>
-      <c r="M76" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <v>24510130100</v>
-      </c>
-      <c r="B77">
-        <v>54</v>
-      </c>
-      <c r="C77">
-        <v>25</v>
-      </c>
-      <c r="D77">
-        <v>1</v>
-      </c>
-      <c r="E77">
-        <v>-26</v>
-      </c>
-      <c r="F77">
-        <v>22464</v>
-      </c>
-      <c r="G77">
-        <v>-4962</v>
-      </c>
-      <c r="H77">
-        <v>39</v>
-      </c>
-      <c r="I77">
-        <v>89</v>
-      </c>
-      <c r="J77">
-        <v>-91</v>
-      </c>
-      <c r="K77" t="s">
-        <v>13</v>
-      </c>
-      <c r="L77" t="s">
-        <v>13</v>
-      </c>
-      <c r="M77" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <v>24510130200</v>
-      </c>
-      <c r="B78">
-        <v>84</v>
-      </c>
-      <c r="C78">
-        <v>-12</v>
-      </c>
-      <c r="D78">
-        <v>-3</v>
-      </c>
-      <c r="E78">
-        <v>-323</v>
-      </c>
-      <c r="F78">
-        <v>48175</v>
-      </c>
-      <c r="G78">
-        <v>10467</v>
-      </c>
-      <c r="H78">
-        <v>14</v>
-      </c>
-      <c r="I78">
-        <v>82</v>
-      </c>
-      <c r="J78">
-        <v>-159</v>
-      </c>
-      <c r="K78">
-        <v>1</v>
-      </c>
-      <c r="L78">
-        <v>485233</v>
-      </c>
-      <c r="M78" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A79">
-        <v>24510130300</v>
-      </c>
-      <c r="B79">
-        <v>532</v>
-      </c>
-      <c r="C79">
-        <v>133</v>
-      </c>
-      <c r="D79">
-        <v>47</v>
-      </c>
-      <c r="E79">
-        <v>-100</v>
-      </c>
-      <c r="F79">
-        <v>42642</v>
-      </c>
-      <c r="G79">
-        <v>10440</v>
-      </c>
-      <c r="H79">
-        <v>28</v>
-      </c>
-      <c r="I79">
-        <v>96</v>
-      </c>
-      <c r="J79">
-        <v>-52</v>
-      </c>
-      <c r="K79">
-        <v>7</v>
-      </c>
-      <c r="L79">
-        <v>63794</v>
-      </c>
-      <c r="M79" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A80">
-        <v>24510130400</v>
-      </c>
-      <c r="B80">
-        <v>570</v>
-      </c>
-      <c r="C80">
-        <v>-34</v>
-      </c>
-      <c r="D80">
-        <v>-4</v>
-      </c>
-      <c r="E80">
-        <v>-71</v>
-      </c>
-      <c r="F80">
-        <v>28550</v>
-      </c>
-      <c r="G80">
-        <v>-5200</v>
-      </c>
-      <c r="H80">
-        <v>32</v>
-      </c>
-      <c r="I80">
-        <v>93</v>
-      </c>
-      <c r="J80">
-        <v>-85</v>
-      </c>
-      <c r="K80">
-        <v>4</v>
-      </c>
-      <c r="L80">
-        <v>101305</v>
-      </c>
-      <c r="M80" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A81">
-        <v>24510130600</v>
-      </c>
-      <c r="B81">
-        <v>2257</v>
-      </c>
-      <c r="C81">
-        <v>383</v>
-      </c>
-      <c r="D81">
-        <v>228</v>
-      </c>
-      <c r="E81">
-        <v>346</v>
-      </c>
-      <c r="F81">
-        <v>103911</v>
-      </c>
-      <c r="G81">
-        <v>43275</v>
-      </c>
-      <c r="H81">
-        <v>11</v>
-      </c>
-      <c r="I81">
-        <v>15</v>
-      </c>
-      <c r="J81">
-        <v>-7</v>
-      </c>
-      <c r="K81">
-        <v>27</v>
-      </c>
-      <c r="L81">
-        <v>341028</v>
-      </c>
-      <c r="M81" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A82">
-        <v>24510130700</v>
-      </c>
-      <c r="B82">
-        <v>3362</v>
-      </c>
-      <c r="C82">
-        <v>678</v>
-      </c>
-      <c r="D82">
-        <v>687</v>
-      </c>
-      <c r="E82">
-        <v>-268</v>
-      </c>
-      <c r="F82">
-        <v>72404</v>
-      </c>
-      <c r="G82">
-        <v>9835</v>
-      </c>
-      <c r="H82">
-        <v>8</v>
-      </c>
-      <c r="I82">
-        <v>18</v>
-      </c>
-      <c r="J82">
-        <v>111</v>
-      </c>
-      <c r="K82">
-        <v>25</v>
-      </c>
-      <c r="L82">
-        <v>266352</v>
-      </c>
-      <c r="M82" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A83">
-        <v>24510130803</v>
-      </c>
-      <c r="B83">
-        <v>153</v>
-      </c>
-      <c r="C83">
-        <v>-350</v>
-      </c>
-      <c r="D83">
-        <v>-132</v>
-      </c>
-      <c r="E83">
-        <v>59</v>
-      </c>
-      <c r="F83">
-        <v>56036</v>
-      </c>
-      <c r="G83">
-        <v>-3735</v>
-      </c>
-      <c r="H83">
-        <v>8</v>
-      </c>
-      <c r="I83">
-        <v>27</v>
-      </c>
-      <c r="J83">
-        <v>-65</v>
-      </c>
-      <c r="K83" t="s">
-        <v>13</v>
-      </c>
-      <c r="L83">
-        <v>215300</v>
-      </c>
-      <c r="M83" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A84">
-        <v>24510130804</v>
-      </c>
-      <c r="B84">
-        <v>1868</v>
-      </c>
-      <c r="C84">
-        <v>610</v>
-      </c>
-      <c r="D84">
-        <v>92</v>
-      </c>
-      <c r="E84">
-        <v>11</v>
-      </c>
-      <c r="F84">
-        <v>67500</v>
-      </c>
-      <c r="G84">
-        <v>8350</v>
-      </c>
-      <c r="H84">
-        <v>12</v>
-      </c>
-      <c r="I84">
-        <v>10</v>
-      </c>
-      <c r="J84">
-        <v>-46</v>
-      </c>
-      <c r="K84">
-        <v>21</v>
-      </c>
-      <c r="L84">
-        <v>229405</v>
-      </c>
-      <c r="M84" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A85">
-        <v>24510130805</v>
-      </c>
-      <c r="B85">
-        <v>274</v>
-      </c>
-      <c r="C85">
-        <v>-20</v>
-      </c>
-      <c r="D85">
-        <v>-1</v>
-      </c>
-      <c r="E85">
-        <v>31</v>
-      </c>
-      <c r="F85">
-        <v>51750</v>
-      </c>
-      <c r="G85">
-        <v>12653</v>
-      </c>
-      <c r="H85">
-        <v>18</v>
-      </c>
-      <c r="I85">
-        <v>83</v>
-      </c>
-      <c r="J85">
-        <v>-34</v>
-      </c>
-      <c r="K85" t="s">
-        <v>13</v>
-      </c>
-      <c r="L85" t="s">
-        <v>13</v>
-      </c>
-      <c r="M85" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A86">
-        <v>24510130806</v>
-      </c>
-      <c r="B86">
-        <v>2108</v>
-      </c>
-      <c r="C86">
-        <v>27</v>
-      </c>
-      <c r="D86">
-        <v>-49</v>
-      </c>
-      <c r="E86">
-        <v>103</v>
-      </c>
-      <c r="F86">
-        <v>92885</v>
-      </c>
-      <c r="G86">
-        <v>26322</v>
-      </c>
-      <c r="H86">
-        <v>5</v>
-      </c>
-      <c r="I86">
-        <v>24</v>
-      </c>
-      <c r="J86">
-        <v>9</v>
-      </c>
-      <c r="K86" t="s">
-        <v>13</v>
-      </c>
-      <c r="L86" t="s">
-        <v>13</v>
-      </c>
-      <c r="M86" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A87">
-        <v>24510140100</v>
-      </c>
-      <c r="B87">
-        <v>1244</v>
-      </c>
-      <c r="C87">
-        <v>544</v>
-      </c>
-      <c r="D87">
-        <v>163</v>
-      </c>
-      <c r="E87">
-        <v>88</v>
-      </c>
-      <c r="F87">
-        <v>57014</v>
-      </c>
-      <c r="G87">
-        <v>15649</v>
-      </c>
-      <c r="H87">
-        <v>18</v>
-      </c>
-      <c r="I87">
-        <v>61</v>
-      </c>
-      <c r="J87">
-        <v>129</v>
-      </c>
-      <c r="K87" t="s">
-        <v>13</v>
-      </c>
-      <c r="L87">
-        <v>1022300</v>
-      </c>
-      <c r="M87" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A88">
-        <v>24510150200</v>
-      </c>
-      <c r="B88">
-        <v>82</v>
-      </c>
-      <c r="C88">
-        <v>-72</v>
-      </c>
-      <c r="D88">
-        <v>-23</v>
-      </c>
-      <c r="E88">
-        <v>-264</v>
-      </c>
-      <c r="F88">
-        <v>32273</v>
-      </c>
-      <c r="G88">
-        <v>-5256</v>
-      </c>
-      <c r="H88">
-        <v>39</v>
-      </c>
-      <c r="I88">
-        <v>100</v>
-      </c>
-      <c r="J88">
-        <v>-85</v>
-      </c>
-      <c r="K88">
-        <v>2</v>
-      </c>
-      <c r="L88">
-        <v>41850</v>
-      </c>
-      <c r="M88" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A89">
-        <v>24510150300</v>
-      </c>
-      <c r="B89">
-        <v>230</v>
-      </c>
-      <c r="C89">
-        <v>-54</v>
-      </c>
-      <c r="D89">
-        <v>14</v>
-      </c>
-      <c r="E89">
-        <v>113</v>
-      </c>
-      <c r="F89">
-        <v>41833</v>
-      </c>
-      <c r="G89">
-        <v>9404</v>
-      </c>
-      <c r="H89">
-        <v>20</v>
-      </c>
-      <c r="I89">
-        <v>100</v>
-      </c>
-      <c r="J89">
-        <v>-156</v>
-      </c>
-      <c r="K89">
-        <v>11</v>
-      </c>
-      <c r="L89">
-        <v>32261</v>
-      </c>
-      <c r="M89" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A90">
-        <v>24510150400</v>
-      </c>
-      <c r="B90">
-        <v>1026</v>
-      </c>
-      <c r="C90">
-        <v>-265</v>
-      </c>
-      <c r="D90">
-        <v>-45</v>
-      </c>
-      <c r="E90">
-        <v>-68</v>
-      </c>
-      <c r="F90">
-        <v>31440</v>
-      </c>
-      <c r="G90">
-        <v>-6712</v>
-      </c>
-      <c r="H90">
-        <v>21</v>
-      </c>
-      <c r="I90">
-        <v>100</v>
-      </c>
-      <c r="J90">
-        <v>137</v>
-      </c>
-      <c r="K90">
-        <v>11</v>
-      </c>
-      <c r="L90">
-        <v>118976</v>
-      </c>
-      <c r="M90" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A91">
-        <v>24510150500</v>
-      </c>
-      <c r="B91">
-        <v>3067</v>
-      </c>
-      <c r="C91">
-        <v>358</v>
-      </c>
-      <c r="D91">
-        <v>200</v>
-      </c>
-      <c r="E91">
-        <v>-86</v>
-      </c>
-      <c r="F91">
-        <v>32902</v>
-      </c>
-      <c r="G91">
-        <v>2878</v>
-      </c>
-      <c r="H91">
-        <v>36</v>
-      </c>
-      <c r="I91">
-        <v>97</v>
-      </c>
-      <c r="J91">
-        <v>-62</v>
-      </c>
-      <c r="K91" t="s">
-        <v>13</v>
-      </c>
-      <c r="L91" t="s">
-        <v>13</v>
-      </c>
-      <c r="M91" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A92">
-        <v>24510150600</v>
-      </c>
-      <c r="B92">
-        <v>433</v>
-      </c>
-      <c r="C92">
-        <v>-56</v>
-      </c>
-      <c r="D92">
-        <v>22</v>
-      </c>
-      <c r="E92">
-        <v>215</v>
-      </c>
-      <c r="F92">
-        <v>27109</v>
-      </c>
-      <c r="G92">
-        <v>1586</v>
-      </c>
-      <c r="H92">
-        <v>41</v>
-      </c>
-      <c r="I92">
-        <v>99</v>
-      </c>
-      <c r="J92">
-        <v>88</v>
-      </c>
-      <c r="K92">
-        <v>28</v>
-      </c>
-      <c r="L92">
-        <v>87034</v>
-      </c>
-      <c r="M92" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A93">
-        <v>24510150701</v>
-      </c>
-      <c r="B93">
-        <v>265</v>
-      </c>
-      <c r="C93">
-        <v>-132</v>
-      </c>
-      <c r="D93">
-        <v>-6</v>
-      </c>
-      <c r="E93">
-        <v>207</v>
-      </c>
-      <c r="F93">
-        <v>49531</v>
-      </c>
-      <c r="G93">
-        <v>4281</v>
-      </c>
-      <c r="H93">
-        <v>21</v>
-      </c>
-      <c r="I93">
-        <v>98</v>
-      </c>
-      <c r="J93">
-        <v>61</v>
-      </c>
-      <c r="K93" t="s">
-        <v>13</v>
-      </c>
-      <c r="L93" t="s">
-        <v>13</v>
-      </c>
-      <c r="M93" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A94">
-        <v>24510150702</v>
-      </c>
-      <c r="B94">
-        <v>59</v>
-      </c>
-      <c r="C94">
-        <v>-30</v>
-      </c>
-      <c r="D94">
-        <v>-6</v>
-      </c>
-      <c r="E94">
-        <v>211</v>
-      </c>
-      <c r="F94">
-        <v>50167</v>
-      </c>
-      <c r="G94">
-        <v>6000</v>
-      </c>
-      <c r="H94">
-        <v>23</v>
-      </c>
-      <c r="I94">
-        <v>100</v>
-      </c>
-      <c r="J94">
-        <v>-26</v>
-      </c>
-      <c r="K94" t="s">
-        <v>13</v>
-      </c>
-      <c r="L94">
-        <v>106000</v>
-      </c>
-      <c r="M94" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A95">
-        <v>24510151200</v>
-      </c>
-      <c r="B95">
-        <v>243</v>
-      </c>
-      <c r="C95">
-        <v>82</v>
-      </c>
-      <c r="D95">
-        <v>64</v>
-      </c>
-      <c r="E95">
-        <v>-912</v>
-      </c>
-      <c r="F95">
-        <v>20717</v>
-      </c>
-      <c r="G95">
-        <v>-1805</v>
-      </c>
-      <c r="H95">
-        <v>37</v>
-      </c>
-      <c r="I95">
-        <v>93</v>
-      </c>
-      <c r="J95">
-        <v>-134</v>
-      </c>
-      <c r="K95" t="s">
-        <v>13</v>
-      </c>
-      <c r="L95">
-        <v>130300</v>
-      </c>
-      <c r="M95" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A96">
-        <v>24510151300</v>
-      </c>
-      <c r="B96">
-        <v>446</v>
-      </c>
-      <c r="C96">
-        <v>-2</v>
-      </c>
-      <c r="D96">
-        <v>41</v>
-      </c>
-      <c r="E96">
-        <v>-220</v>
-      </c>
-      <c r="F96">
-        <v>31885</v>
-      </c>
-      <c r="G96">
-        <v>4781</v>
-      </c>
-      <c r="H96">
-        <v>29</v>
-      </c>
-      <c r="I96">
-        <v>97</v>
-      </c>
-      <c r="J96">
-        <v>-105</v>
-      </c>
-      <c r="K96">
-        <v>1</v>
-      </c>
-      <c r="L96" t="s">
-        <v>13</v>
-      </c>
-      <c r="M96" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A97">
-        <v>24510160300</v>
-      </c>
-      <c r="B97">
-        <v>318</v>
-      </c>
-      <c r="C97">
-        <v>-189</v>
-      </c>
-      <c r="D97">
-        <v>-81</v>
-      </c>
-      <c r="E97">
-        <v>-346</v>
-      </c>
-      <c r="F97">
-        <v>14915</v>
-      </c>
-      <c r="G97">
-        <v>-11866</v>
-      </c>
-      <c r="H97">
-        <v>52</v>
-      </c>
-      <c r="I97">
-        <v>99</v>
-      </c>
-      <c r="J97">
-        <v>-136</v>
-      </c>
-      <c r="K97" t="s">
-        <v>13</v>
-      </c>
-      <c r="L97" t="s">
-        <v>13</v>
-      </c>
-      <c r="M97" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A98">
-        <v>24510160400</v>
-      </c>
-      <c r="B98">
-        <v>97</v>
-      </c>
-      <c r="C98">
-        <v>-20</v>
-      </c>
-      <c r="D98">
-        <v>-18</v>
-      </c>
-      <c r="E98">
-        <v>-475</v>
-      </c>
-      <c r="F98">
-        <v>23417</v>
-      </c>
-      <c r="G98">
-        <v>-3771</v>
-      </c>
-      <c r="H98">
-        <v>50</v>
-      </c>
-      <c r="I98">
-        <v>99</v>
-      </c>
-      <c r="J98">
-        <v>-120</v>
-      </c>
-      <c r="K98">
-        <v>8</v>
-      </c>
-      <c r="L98">
-        <v>13526</v>
-      </c>
-      <c r="M98" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A99">
-        <v>24510160500</v>
-      </c>
-      <c r="B99">
-        <v>435</v>
-      </c>
-      <c r="C99">
-        <v>-77</v>
-      </c>
-      <c r="D99">
-        <v>-18</v>
-      </c>
-      <c r="E99">
-        <v>-197</v>
-      </c>
-      <c r="F99">
-        <v>36577</v>
-      </c>
-      <c r="G99">
-        <v>2035</v>
-      </c>
-      <c r="H99">
-        <v>29</v>
-      </c>
-      <c r="I99">
-        <v>100</v>
-      </c>
-      <c r="J99">
-        <v>-167</v>
-      </c>
-      <c r="K99">
-        <v>1</v>
-      </c>
-      <c r="L99">
-        <v>181614</v>
-      </c>
-      <c r="M99" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A100">
-        <v>24510160600</v>
-      </c>
-      <c r="B100">
-        <v>238</v>
-      </c>
-      <c r="C100">
-        <v>44</v>
-      </c>
-      <c r="D100">
-        <v>45</v>
-      </c>
-      <c r="E100">
-        <v>719</v>
-      </c>
-      <c r="F100">
-        <v>43306</v>
-      </c>
-      <c r="G100">
-        <v>17873</v>
-      </c>
-      <c r="H100">
-        <v>24</v>
-      </c>
-      <c r="I100">
-        <v>99</v>
-      </c>
-      <c r="J100">
-        <v>-70</v>
-      </c>
-      <c r="K100">
-        <v>10</v>
-      </c>
-      <c r="L100">
-        <v>72960</v>
-      </c>
-      <c r="M100" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A101">
-        <v>24510160700</v>
-      </c>
-      <c r="B101">
-        <v>169</v>
-      </c>
-      <c r="C101">
-        <v>32</v>
-      </c>
-      <c r="D101">
-        <v>18</v>
-      </c>
-      <c r="E101">
-        <v>-190</v>
-      </c>
-      <c r="F101">
-        <v>37870</v>
-      </c>
-      <c r="G101">
-        <v>4031</v>
-      </c>
-      <c r="H101">
-        <v>34</v>
-      </c>
-      <c r="I101">
-        <v>100</v>
-      </c>
-      <c r="J101">
-        <v>-59</v>
-      </c>
-      <c r="K101">
-        <v>4</v>
-      </c>
-      <c r="L101" t="s">
-        <v>13</v>
-      </c>
-      <c r="M101" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A102">
-        <v>24510160801</v>
-      </c>
-      <c r="B102">
-        <v>60</v>
-      </c>
-      <c r="C102">
-        <v>-11</v>
-      </c>
-      <c r="D102">
-        <v>1</v>
-      </c>
-      <c r="E102">
-        <v>-207</v>
-      </c>
-      <c r="F102">
-        <v>44015</v>
-      </c>
-      <c r="G102">
-        <v>6515</v>
-      </c>
-      <c r="H102">
-        <v>7</v>
-      </c>
-      <c r="I102">
-        <v>100</v>
-      </c>
-      <c r="J102">
-        <v>12</v>
-      </c>
-      <c r="K102" t="s">
-        <v>13</v>
-      </c>
-      <c r="L102" t="s">
-        <v>13</v>
-      </c>
-      <c r="M102" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A103">
-        <v>24510160802</v>
-      </c>
-      <c r="B103">
-        <v>14</v>
-      </c>
-      <c r="C103">
-        <v>-23</v>
-      </c>
-      <c r="D103">
-        <v>-3</v>
-      </c>
-      <c r="E103">
-        <v>49</v>
-      </c>
-      <c r="F103">
-        <v>42547</v>
-      </c>
-      <c r="G103">
-        <v>6840</v>
-      </c>
-      <c r="H103">
-        <v>18</v>
-      </c>
-      <c r="I103">
-        <v>100</v>
-      </c>
-      <c r="J103">
-        <v>-22</v>
-      </c>
-      <c r="K103" t="s">
-        <v>13</v>
-      </c>
-      <c r="L103" t="s">
-        <v>13</v>
-      </c>
-      <c r="M103" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A104">
-        <v>24510200100</v>
-      </c>
-      <c r="B104">
-        <v>1015</v>
-      </c>
-      <c r="C104">
-        <v>27</v>
-      </c>
-      <c r="D104">
-        <v>138</v>
-      </c>
-      <c r="E104">
-        <v>74</v>
-      </c>
-      <c r="F104">
-        <v>30809</v>
-      </c>
-      <c r="G104">
-        <v>2903</v>
-      </c>
-      <c r="H104">
-        <v>37</v>
-      </c>
-      <c r="I104">
-        <v>98</v>
-      </c>
-      <c r="J104">
-        <v>95</v>
-      </c>
-      <c r="K104" t="s">
-        <v>13</v>
-      </c>
-      <c r="L104">
-        <v>23000</v>
-      </c>
-      <c r="M104" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A105">
-        <v>24510200200</v>
-      </c>
-      <c r="B105">
-        <v>459</v>
-      </c>
-      <c r="C105">
-        <v>50</v>
-      </c>
-      <c r="D105">
-        <v>43</v>
-      </c>
-      <c r="E105">
-        <v>-210</v>
-      </c>
-      <c r="F105">
-        <v>27623</v>
-      </c>
-      <c r="G105">
-        <v>1814</v>
-      </c>
-      <c r="H105">
-        <v>34</v>
-      </c>
-      <c r="I105">
-        <v>95</v>
-      </c>
-      <c r="J105">
-        <v>-88</v>
-      </c>
-      <c r="K105" t="s">
-        <v>13</v>
-      </c>
-      <c r="L105">
-        <v>5200</v>
-      </c>
-      <c r="M105" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A106">
-        <v>24510200300</v>
-      </c>
-      <c r="B106">
-        <v>57</v>
-      </c>
-      <c r="C106">
-        <v>-37</v>
-      </c>
-      <c r="D106">
-        <v>-19</v>
-      </c>
-      <c r="E106">
-        <v>47</v>
-      </c>
-      <c r="F106">
-        <v>20820</v>
-      </c>
-      <c r="G106">
-        <v>-1779</v>
-      </c>
-      <c r="H106">
-        <v>53</v>
-      </c>
-      <c r="I106">
-        <v>73</v>
-      </c>
-      <c r="J106">
-        <v>-77</v>
-      </c>
-      <c r="K106">
-        <v>24</v>
-      </c>
-      <c r="L106">
-        <v>60729</v>
-      </c>
-      <c r="M106" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A107">
-        <v>24510200400</v>
-      </c>
-      <c r="B107">
-        <v>156</v>
-      </c>
-      <c r="C107">
-        <v>20</v>
-      </c>
-      <c r="D107">
-        <v>33</v>
-      </c>
-      <c r="E107">
-        <v>-27</v>
-      </c>
-      <c r="F107">
-        <v>30000</v>
-      </c>
-      <c r="G107">
-        <v>-2250</v>
-      </c>
-      <c r="H107">
-        <v>39</v>
-      </c>
-      <c r="I107">
-        <v>95</v>
-      </c>
-      <c r="J107">
-        <v>-96</v>
-      </c>
-      <c r="K107" t="s">
-        <v>13</v>
-      </c>
-      <c r="L107" t="s">
-        <v>13</v>
-      </c>
-      <c r="M107" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A108">
-        <v>24510200500</v>
-      </c>
-      <c r="B108">
-        <v>922</v>
-      </c>
-      <c r="C108">
-        <v>-75</v>
-      </c>
-      <c r="D108">
-        <v>45</v>
-      </c>
-      <c r="E108">
-        <v>-258</v>
-      </c>
-      <c r="F108">
-        <v>32992</v>
-      </c>
-      <c r="G108">
-        <v>15388</v>
-      </c>
-      <c r="H108">
-        <v>31</v>
-      </c>
-      <c r="I108">
-        <v>75</v>
-      </c>
-      <c r="J108">
-        <v>26</v>
-      </c>
-      <c r="K108">
-        <v>10</v>
-      </c>
-      <c r="L108" t="s">
-        <v>13</v>
-      </c>
-      <c r="M108" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A109">
-        <v>24510200800</v>
-      </c>
-      <c r="B109">
-        <v>549</v>
-      </c>
-      <c r="C109">
-        <v>0</v>
-      </c>
-      <c r="D109">
-        <v>-21</v>
-      </c>
-      <c r="E109">
-        <v>-120</v>
-      </c>
-      <c r="F109">
-        <v>48922</v>
-      </c>
-      <c r="G109">
-        <v>15397</v>
-      </c>
-      <c r="H109">
-        <v>21</v>
-      </c>
-      <c r="I109">
-        <v>90</v>
-      </c>
-      <c r="J109">
-        <v>-74</v>
-      </c>
-      <c r="K109">
-        <v>9</v>
-      </c>
-      <c r="L109">
-        <v>227158</v>
-      </c>
-      <c r="M109" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A110">
-        <v>24510220100</v>
-      </c>
-      <c r="B110">
-        <v>9729</v>
-      </c>
-      <c r="C110">
-        <v>247</v>
-      </c>
-      <c r="D110">
-        <v>263</v>
-      </c>
-      <c r="E110">
-        <v>595</v>
-      </c>
-      <c r="F110">
-        <v>80129</v>
-      </c>
-      <c r="G110">
-        <v>25190</v>
-      </c>
-      <c r="H110">
-        <v>12</v>
-      </c>
-      <c r="I110">
-        <v>31</v>
-      </c>
-      <c r="J110">
-        <v>192</v>
-      </c>
-      <c r="K110">
-        <v>61</v>
-      </c>
-      <c r="L110">
-        <v>635205</v>
-      </c>
-      <c r="M110" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A111">
-        <v>24510230100</v>
-      </c>
-      <c r="B111">
-        <v>904</v>
-      </c>
-      <c r="C111">
-        <v>-148</v>
-      </c>
-      <c r="D111">
-        <v>51</v>
-      </c>
-      <c r="E111">
-        <v>7</v>
-      </c>
-      <c r="F111">
-        <v>74578</v>
-      </c>
-      <c r="G111">
-        <v>10828</v>
-      </c>
-      <c r="H111">
-        <v>14</v>
-      </c>
-      <c r="I111">
-        <v>37</v>
-      </c>
-      <c r="J111">
-        <v>-6</v>
-      </c>
-      <c r="K111">
-        <v>8</v>
-      </c>
-      <c r="L111">
-        <v>507542</v>
-      </c>
-      <c r="M111" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A112">
-        <v>24510230200</v>
-      </c>
-      <c r="B112">
-        <v>910</v>
-      </c>
-      <c r="C112">
-        <v>-44</v>
-      </c>
-      <c r="D112">
-        <v>68</v>
-      </c>
-      <c r="E112">
-        <v>-339</v>
-      </c>
-      <c r="F112">
-        <v>107391</v>
-      </c>
-      <c r="G112">
-        <v>8208</v>
-      </c>
-      <c r="H112">
-        <v>8</v>
-      </c>
-      <c r="I112">
-        <v>18</v>
-      </c>
-      <c r="J112">
-        <v>59</v>
-      </c>
-      <c r="K112">
-        <v>33</v>
-      </c>
-      <c r="L112">
-        <v>437110</v>
-      </c>
-      <c r="M112" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A113">
-        <v>24510230300</v>
-      </c>
-      <c r="B113">
-        <v>1243</v>
-      </c>
-      <c r="C113">
-        <v>603</v>
-      </c>
-      <c r="D113">
-        <v>422</v>
-      </c>
-      <c r="E113">
-        <v>232</v>
-      </c>
-      <c r="F113">
-        <v>104250</v>
-      </c>
-      <c r="G113">
-        <v>25115</v>
-      </c>
-      <c r="H113">
-        <v>8</v>
-      </c>
-      <c r="I113">
-        <v>18</v>
-      </c>
-      <c r="J113">
-        <v>70</v>
-      </c>
-      <c r="K113">
-        <v>2</v>
-      </c>
-      <c r="L113">
-        <v>300650</v>
-      </c>
-      <c r="M113" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A114">
-        <v>24510240100</v>
-      </c>
-      <c r="B114">
-        <v>3875</v>
-      </c>
-      <c r="C114">
-        <v>145</v>
-      </c>
-      <c r="D114">
-        <v>337</v>
-      </c>
-      <c r="E114">
-        <v>600</v>
-      </c>
-      <c r="F114">
-        <v>142328</v>
-      </c>
-      <c r="G114">
-        <v>52060</v>
-      </c>
-      <c r="H114">
-        <v>3</v>
-      </c>
-      <c r="I114">
-        <v>10</v>
-      </c>
-      <c r="J114">
-        <v>23</v>
-      </c>
-      <c r="K114">
-        <v>1</v>
-      </c>
-      <c r="L114">
-        <v>223760</v>
-      </c>
-      <c r="M114" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A115">
-        <v>24510240200</v>
-      </c>
-      <c r="B115">
-        <v>2111</v>
-      </c>
-      <c r="C115">
-        <v>722</v>
-      </c>
-      <c r="D115">
-        <v>277</v>
-      </c>
-      <c r="E115">
-        <v>-209</v>
-      </c>
-      <c r="F115">
-        <v>132281</v>
-      </c>
-      <c r="G115">
-        <v>2316</v>
-      </c>
-      <c r="H115">
-        <v>2</v>
-      </c>
-      <c r="I115">
-        <v>13</v>
-      </c>
-      <c r="J115">
-        <v>-26</v>
-      </c>
-      <c r="K115">
-        <v>150</v>
-      </c>
-      <c r="L115">
-        <v>256450</v>
-      </c>
-      <c r="M115" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A116">
-        <v>24510240300</v>
-      </c>
-      <c r="B116">
-        <v>324</v>
-      </c>
-      <c r="C116">
-        <v>42</v>
-      </c>
-      <c r="D116">
-        <v>79</v>
-      </c>
-      <c r="E116">
-        <v>-87</v>
-      </c>
-      <c r="F116">
-        <v>128900</v>
-      </c>
-      <c r="G116">
-        <v>35738</v>
-      </c>
-      <c r="H116">
-        <v>5</v>
-      </c>
-      <c r="I116">
-        <v>23</v>
-      </c>
-      <c r="J116">
-        <v>71</v>
-      </c>
-      <c r="K116">
-        <v>27</v>
-      </c>
-      <c r="L116">
-        <v>372304</v>
-      </c>
-      <c r="M116" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A117">
-        <v>24510240400</v>
-      </c>
-      <c r="B117">
-        <v>1823</v>
-      </c>
-      <c r="C117">
-        <v>234</v>
-      </c>
-      <c r="D117">
-        <v>366</v>
-      </c>
-      <c r="E117">
-        <v>-145</v>
-      </c>
-      <c r="F117">
-        <v>110982</v>
-      </c>
-      <c r="G117">
-        <v>23597</v>
-      </c>
-      <c r="H117">
-        <v>2</v>
-      </c>
-      <c r="I117">
-        <v>6</v>
-      </c>
-      <c r="J117">
-        <v>-113</v>
-      </c>
-      <c r="K117">
-        <v>5</v>
-      </c>
-      <c r="L117">
-        <v>309758</v>
-      </c>
-      <c r="M117" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A118">
-        <v>24510250101</v>
-      </c>
-      <c r="B118">
-        <v>244</v>
-      </c>
-      <c r="C118">
-        <v>164</v>
-      </c>
-      <c r="D118">
-        <v>90</v>
-      </c>
-      <c r="E118">
-        <v>169</v>
-      </c>
-      <c r="F118">
-        <v>57991</v>
-      </c>
-      <c r="G118">
-        <v>8327</v>
-      </c>
-      <c r="H118">
-        <v>14</v>
-      </c>
-      <c r="I118">
-        <v>87</v>
-      </c>
-      <c r="J118">
-        <v>114</v>
-      </c>
-      <c r="K118" t="s">
-        <v>13</v>
-      </c>
-      <c r="L118" t="s">
-        <v>13</v>
-      </c>
-      <c r="M118" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A119">
-        <v>24510250102</v>
-      </c>
-      <c r="B119">
-        <v>254</v>
-      </c>
-      <c r="C119">
-        <v>-16</v>
-      </c>
-      <c r="D119">
-        <v>-20</v>
-      </c>
-      <c r="E119">
-        <v>158</v>
-      </c>
-      <c r="F119">
-        <v>50354</v>
-      </c>
-      <c r="G119">
-        <v>14606</v>
-      </c>
-      <c r="H119">
-        <v>13</v>
-      </c>
-      <c r="I119">
-        <v>91</v>
-      </c>
-      <c r="J119">
-        <v>-89</v>
-      </c>
-      <c r="K119" t="s">
-        <v>13</v>
-      </c>
-      <c r="L119" t="s">
-        <v>13</v>
-      </c>
-      <c r="M119" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A120">
-        <v>24510250103</v>
-      </c>
-      <c r="B120">
-        <v>7109</v>
-      </c>
-      <c r="C120">
-        <v>2677</v>
-      </c>
-      <c r="D120">
-        <v>1660</v>
-      </c>
-      <c r="E120">
-        <v>-84</v>
-      </c>
-      <c r="F120">
-        <v>41307</v>
-      </c>
-      <c r="G120">
-        <v>10986</v>
-      </c>
-      <c r="H120">
-        <v>18</v>
-      </c>
-      <c r="I120">
-        <v>42</v>
-      </c>
-      <c r="J120">
-        <v>100</v>
-      </c>
-      <c r="K120">
-        <v>4</v>
-      </c>
-      <c r="L120">
-        <v>27900</v>
-      </c>
-      <c r="M120" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A121">
-        <v>24510250203</v>
-      </c>
-      <c r="B121">
-        <v>1509</v>
-      </c>
-      <c r="C121">
-        <v>-79</v>
-      </c>
-      <c r="D121">
-        <v>104</v>
-      </c>
-      <c r="E121">
-        <v>-6</v>
-      </c>
-      <c r="F121">
-        <v>34873</v>
-      </c>
-      <c r="G121">
-        <v>2831</v>
-      </c>
-      <c r="H121">
-        <v>23</v>
-      </c>
-      <c r="I121">
-        <v>91</v>
-      </c>
-      <c r="J121">
-        <v>-112</v>
-      </c>
-      <c r="K121">
-        <v>2</v>
-      </c>
-      <c r="L121">
-        <v>108900</v>
-      </c>
-      <c r="M121" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A122">
-        <v>24510250204</v>
-      </c>
-      <c r="B122">
-        <v>107</v>
-      </c>
-      <c r="C122">
-        <v>-11</v>
-      </c>
-      <c r="D122">
-        <v>-2</v>
-      </c>
-      <c r="E122">
-        <v>-73</v>
-      </c>
-      <c r="F122">
-        <v>16750</v>
-      </c>
-      <c r="G122">
-        <v>3417</v>
-      </c>
-      <c r="H122">
-        <v>58</v>
-      </c>
-      <c r="I122">
-        <v>97</v>
-      </c>
-      <c r="J122">
-        <v>-87</v>
-      </c>
-      <c r="K122">
-        <v>1</v>
-      </c>
-      <c r="L122" t="s">
-        <v>13</v>
-      </c>
-      <c r="M122" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A123">
-        <v>24510250205</v>
-      </c>
-      <c r="B123">
-        <v>2337</v>
-      </c>
-      <c r="C123">
-        <v>182</v>
-      </c>
-      <c r="D123">
-        <v>278</v>
-      </c>
-      <c r="E123">
-        <v>-716</v>
-      </c>
-      <c r="F123">
-        <v>41184</v>
-      </c>
-      <c r="G123">
-        <v>-2918</v>
-      </c>
-      <c r="H123">
-        <v>20</v>
-      </c>
-      <c r="I123">
-        <v>78</v>
-      </c>
-      <c r="J123">
-        <v>56</v>
-      </c>
-      <c r="K123">
-        <v>7</v>
-      </c>
-      <c r="L123" t="s">
-        <v>13</v>
-      </c>
-      <c r="M123" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A124">
-        <v>24510250206</v>
-      </c>
-      <c r="B124">
-        <v>3325</v>
-      </c>
-      <c r="C124">
-        <v>-444</v>
-      </c>
-      <c r="D124">
-        <v>172</v>
-      </c>
-      <c r="E124">
-        <v>82</v>
-      </c>
-      <c r="F124">
-        <v>65304</v>
-      </c>
-      <c r="G124">
-        <v>23950</v>
-      </c>
-      <c r="H124">
-        <v>14</v>
-      </c>
-      <c r="I124">
-        <v>35</v>
-      </c>
-      <c r="J124">
-        <v>180</v>
-      </c>
-      <c r="K124">
-        <v>8</v>
-      </c>
-      <c r="L124">
-        <v>181725</v>
-      </c>
-      <c r="M124" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A125">
-        <v>24510250207</v>
-      </c>
-      <c r="B125">
-        <v>767</v>
-      </c>
-      <c r="C125">
-        <v>52</v>
-      </c>
-      <c r="D125">
-        <v>116</v>
-      </c>
-      <c r="E125">
-        <v>-26</v>
-      </c>
-      <c r="F125">
-        <v>38194</v>
-      </c>
-      <c r="G125">
-        <v>7971</v>
-      </c>
-      <c r="H125">
-        <v>30</v>
-      </c>
-      <c r="I125">
-        <v>95</v>
-      </c>
-      <c r="J125">
-        <v>-127</v>
-      </c>
-      <c r="K125">
-        <v>1</v>
-      </c>
-      <c r="L125" t="s">
-        <v>13</v>
-      </c>
-      <c r="M125" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A126">
-        <v>24510250301</v>
-      </c>
-      <c r="B126">
-        <v>446</v>
-      </c>
-      <c r="C126">
-        <v>15</v>
-      </c>
-      <c r="D126">
-        <v>28</v>
-      </c>
-      <c r="E126">
-        <v>-130</v>
-      </c>
-      <c r="F126">
-        <v>26581</v>
-      </c>
-      <c r="G126">
-        <v>-7604</v>
-      </c>
-      <c r="H126">
-        <v>41</v>
-      </c>
-      <c r="I126">
-        <v>91</v>
-      </c>
-      <c r="J126">
-        <v>-2</v>
-      </c>
-      <c r="K126">
-        <v>19</v>
-      </c>
-      <c r="L126">
-        <v>34213</v>
-      </c>
-      <c r="M126" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A127">
-        <v>24510250303</v>
-      </c>
-      <c r="B127">
-        <v>639</v>
-      </c>
-      <c r="C127">
-        <v>23</v>
-      </c>
-      <c r="D127">
-        <v>46</v>
-      </c>
-      <c r="E127">
-        <v>-205</v>
-      </c>
-      <c r="F127">
-        <v>38519</v>
-      </c>
-      <c r="G127">
-        <v>-2759</v>
-      </c>
-      <c r="H127">
-        <v>26</v>
-      </c>
-      <c r="I127">
-        <v>38</v>
-      </c>
-      <c r="J127">
-        <v>46</v>
-      </c>
-      <c r="K127">
-        <v>4</v>
-      </c>
-      <c r="L127">
-        <v>82740</v>
-      </c>
-      <c r="M127" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A128">
-        <v>24510250401</v>
-      </c>
-      <c r="B128">
-        <v>460</v>
-      </c>
-      <c r="C128">
-        <v>-145</v>
-      </c>
-      <c r="D128">
-        <v>-1</v>
-      </c>
-      <c r="E128">
-        <v>21</v>
-      </c>
-      <c r="F128">
-        <v>47321</v>
-      </c>
-      <c r="G128">
-        <v>15015</v>
-      </c>
-      <c r="H128">
-        <v>24</v>
-      </c>
-      <c r="I128">
-        <v>46</v>
-      </c>
-      <c r="J128">
-        <v>174</v>
-      </c>
-      <c r="K128">
-        <v>68</v>
-      </c>
-      <c r="L128">
-        <v>180000</v>
-      </c>
-      <c r="M128" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A129">
-        <v>24510250402</v>
-      </c>
-      <c r="B129">
-        <v>39</v>
-      </c>
-      <c r="C129">
-        <v>-60</v>
-      </c>
-      <c r="D129">
-        <v>1</v>
-      </c>
-      <c r="E129">
-        <v>-419</v>
-      </c>
-      <c r="F129">
-        <v>37451</v>
-      </c>
-      <c r="G129">
-        <v>7812</v>
-      </c>
-      <c r="H129">
-        <v>34</v>
-      </c>
-      <c r="I129">
-        <v>68</v>
-      </c>
-      <c r="J129">
-        <v>-13</v>
-      </c>
-      <c r="K129">
-        <v>3</v>
-      </c>
-      <c r="L129" t="s">
-        <v>13</v>
-      </c>
-      <c r="M129" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A130">
-        <v>24510250500</v>
-      </c>
-      <c r="B130">
-        <v>4485</v>
-      </c>
-      <c r="C130">
-        <v>-454</v>
-      </c>
-      <c r="D130">
-        <v>501</v>
-      </c>
-      <c r="E130">
-        <v>-900</v>
-      </c>
-      <c r="F130">
-        <v>37395</v>
-      </c>
-      <c r="G130">
-        <v>-6418</v>
-      </c>
-      <c r="H130">
-        <v>30</v>
-      </c>
-      <c r="I130">
-        <v>43</v>
-      </c>
-      <c r="J130">
-        <v>-202</v>
-      </c>
-      <c r="K130">
-        <v>26</v>
-      </c>
-      <c r="L130" t="s">
-        <v>13</v>
-      </c>
-      <c r="M130" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A131">
-        <v>24510250600</v>
-      </c>
-      <c r="B131">
-        <v>3058</v>
-      </c>
-      <c r="C131">
-        <v>103</v>
-      </c>
-      <c r="D131">
-        <v>168</v>
-      </c>
-      <c r="E131">
-        <v>0</v>
-      </c>
-      <c r="F131" t="s">
-        <v>13</v>
-      </c>
-      <c r="G131" t="s">
-        <v>13</v>
-      </c>
-      <c r="H131" t="s">
-        <v>13</v>
-      </c>
-      <c r="I131" t="s">
-        <v>13</v>
-      </c>
-      <c r="J131" t="s">
-        <v>13</v>
-      </c>
-      <c r="K131" t="s">
-        <v>13</v>
-      </c>
-      <c r="L131" t="s">
-        <v>13</v>
-      </c>
-      <c r="M131" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A132">
-        <v>24510260101</v>
-      </c>
-      <c r="B132">
-        <v>431</v>
-      </c>
-      <c r="C132">
-        <v>-56</v>
-      </c>
-      <c r="D132">
-        <v>-47</v>
-      </c>
-      <c r="E132">
-        <v>128</v>
-      </c>
-      <c r="F132">
-        <v>59219</v>
-      </c>
-      <c r="G132">
-        <v>14728</v>
-      </c>
-      <c r="H132">
-        <v>9</v>
-      </c>
-      <c r="I132">
-        <v>78</v>
-      </c>
-      <c r="J132">
-        <v>259</v>
-      </c>
-      <c r="K132">
-        <v>20</v>
-      </c>
-      <c r="L132">
-        <v>207047</v>
-      </c>
-      <c r="M132" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A133">
-        <v>24510260102</v>
-      </c>
-      <c r="B133">
-        <v>218</v>
-      </c>
-      <c r="C133">
-        <v>70</v>
-      </c>
-      <c r="D133">
-        <v>12</v>
-      </c>
-      <c r="E133">
-        <v>-4</v>
-      </c>
-      <c r="F133">
-        <v>62586</v>
-      </c>
-      <c r="G133">
-        <v>12845</v>
-      </c>
-      <c r="H133">
-        <v>10</v>
-      </c>
-      <c r="I133">
-        <v>85</v>
-      </c>
-      <c r="J133">
-        <v>-55</v>
-      </c>
-      <c r="K133">
-        <v>2</v>
-      </c>
-      <c r="L133">
-        <v>159500</v>
-      </c>
-      <c r="M133" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A134">
-        <v>24510260201</v>
-      </c>
-      <c r="B134">
-        <v>849</v>
-      </c>
-      <c r="C134">
-        <v>-96</v>
-      </c>
-      <c r="D134">
-        <v>16</v>
-      </c>
-      <c r="E134">
-        <v>-335</v>
-      </c>
-      <c r="F134">
-        <v>40996</v>
-      </c>
-      <c r="G134">
-        <v>2821</v>
-      </c>
-      <c r="H134">
-        <v>17</v>
-      </c>
-      <c r="I134">
-        <v>88</v>
-      </c>
-      <c r="J134">
-        <v>-49</v>
-      </c>
-      <c r="K134">
-        <v>3</v>
-      </c>
-      <c r="L134">
-        <v>168600</v>
-      </c>
-      <c r="M134" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A135">
-        <v>24510260202</v>
-      </c>
-      <c r="B135">
-        <v>145</v>
-      </c>
-      <c r="C135">
-        <v>27</v>
-      </c>
-      <c r="D135">
-        <v>8</v>
-      </c>
-      <c r="E135">
-        <v>-307</v>
-      </c>
-      <c r="F135">
-        <v>41538</v>
-      </c>
-      <c r="G135">
-        <v>9620</v>
-      </c>
-      <c r="H135">
-        <v>16</v>
-      </c>
-      <c r="I135">
-        <v>92</v>
-      </c>
-      <c r="J135">
-        <v>-111</v>
-      </c>
-      <c r="K135">
-        <v>5</v>
-      </c>
-      <c r="L135">
-        <v>99371</v>
-      </c>
-      <c r="M135" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A136">
-        <v>24510260203</v>
-      </c>
-      <c r="B136">
-        <v>314</v>
-      </c>
-      <c r="C136">
-        <v>-22</v>
-      </c>
-      <c r="D136">
-        <v>30</v>
-      </c>
-      <c r="E136">
-        <v>109</v>
-      </c>
-      <c r="F136">
-        <v>53194</v>
-      </c>
-      <c r="G136">
-        <v>18668</v>
-      </c>
-      <c r="H136">
-        <v>31</v>
-      </c>
-      <c r="I136">
-        <v>97</v>
-      </c>
-      <c r="J136">
-        <v>80</v>
-      </c>
-      <c r="K136">
-        <v>2</v>
-      </c>
-      <c r="L136" t="s">
-        <v>13</v>
-      </c>
-      <c r="M136" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A137">
-        <v>24510260301</v>
-      </c>
-      <c r="B137">
-        <v>247</v>
-      </c>
-      <c r="C137">
-        <v>17</v>
-      </c>
-      <c r="D137">
-        <v>-2</v>
-      </c>
-      <c r="E137">
-        <v>-97</v>
-      </c>
-      <c r="F137">
-        <v>49005</v>
-      </c>
-      <c r="G137">
-        <v>12451</v>
-      </c>
-      <c r="H137">
-        <v>33</v>
-      </c>
-      <c r="I137">
-        <v>92</v>
-      </c>
-      <c r="J137">
-        <v>-59</v>
-      </c>
-      <c r="K137">
-        <v>9</v>
-      </c>
-      <c r="L137">
-        <v>228800</v>
-      </c>
-      <c r="M137" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A138">
-        <v>24510260302</v>
-      </c>
-      <c r="B138">
-        <v>246</v>
-      </c>
-      <c r="C138">
-        <v>61</v>
-      </c>
-      <c r="D138">
-        <v>13</v>
-      </c>
-      <c r="E138">
-        <v>-14</v>
-      </c>
-      <c r="F138">
-        <v>41280</v>
-      </c>
-      <c r="G138">
-        <v>6149</v>
-      </c>
-      <c r="H138">
-        <v>34</v>
-      </c>
-      <c r="I138">
-        <v>94</v>
-      </c>
-      <c r="J138">
-        <v>341</v>
-      </c>
-      <c r="K138" t="s">
-        <v>13</v>
-      </c>
-      <c r="L138">
-        <v>290600</v>
-      </c>
-      <c r="M138" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A139">
-        <v>24510260303</v>
-      </c>
-      <c r="B139">
-        <v>1014</v>
-      </c>
-      <c r="C139">
-        <v>-21</v>
-      </c>
-      <c r="D139">
-        <v>78</v>
-      </c>
-      <c r="E139">
-        <v>142</v>
-      </c>
-      <c r="F139">
-        <v>17000</v>
-      </c>
-      <c r="G139">
-        <v>-3114</v>
-      </c>
-      <c r="H139">
-        <v>41</v>
-      </c>
-      <c r="I139">
-        <v>70</v>
-      </c>
-      <c r="J139">
-        <v>55</v>
-      </c>
-      <c r="K139">
-        <v>1</v>
-      </c>
-      <c r="L139" t="s">
-        <v>13</v>
-      </c>
-      <c r="M139" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A140">
-        <v>24510260401</v>
-      </c>
-      <c r="B140">
-        <v>271</v>
-      </c>
-      <c r="C140">
-        <v>-15</v>
-      </c>
-      <c r="D140">
-        <v>17</v>
-      </c>
-      <c r="E140">
-        <v>494</v>
-      </c>
-      <c r="F140">
-        <v>40281</v>
-      </c>
-      <c r="G140">
-        <v>10767</v>
-      </c>
-      <c r="H140">
-        <v>23</v>
-      </c>
-      <c r="I140">
-        <v>45</v>
-      </c>
-      <c r="J140">
-        <v>233</v>
-      </c>
-      <c r="K140" t="s">
-        <v>13</v>
-      </c>
-      <c r="L140" t="s">
-        <v>13</v>
-      </c>
-      <c r="M140" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A141">
-        <v>24510260402</v>
-      </c>
-      <c r="B141">
-        <v>764</v>
-      </c>
-      <c r="C141">
-        <v>89</v>
-      </c>
-      <c r="D141">
-        <v>-5</v>
-      </c>
-      <c r="E141">
-        <v>243</v>
-      </c>
-      <c r="F141">
-        <v>38934</v>
-      </c>
-      <c r="G141">
-        <v>-9437</v>
-      </c>
-      <c r="H141">
-        <v>28</v>
-      </c>
-      <c r="I141">
-        <v>93</v>
-      </c>
-      <c r="J141">
-        <v>104</v>
-      </c>
-      <c r="K141" t="s">
-        <v>13</v>
-      </c>
-      <c r="L141" t="s">
-        <v>13</v>
-      </c>
-      <c r="M141" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A142">
-        <v>24510260403</v>
-      </c>
-      <c r="B142">
-        <v>505</v>
-      </c>
-      <c r="C142">
-        <v>115</v>
-      </c>
-      <c r="D142">
-        <v>113</v>
-      </c>
-      <c r="E142">
-        <v>-107</v>
-      </c>
-      <c r="F142">
-        <v>31625</v>
-      </c>
-      <c r="G142">
-        <v>-5964</v>
-      </c>
-      <c r="H142">
-        <v>25</v>
-      </c>
-      <c r="I142">
-        <v>99</v>
-      </c>
-      <c r="J142">
-        <v>32</v>
-      </c>
-      <c r="K142" t="s">
-        <v>13</v>
-      </c>
-      <c r="L142" t="s">
-        <v>13</v>
-      </c>
-      <c r="M142" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A143">
-        <v>24510260404</v>
-      </c>
-      <c r="B143">
-        <v>5739</v>
-      </c>
-      <c r="C143">
-        <v>89</v>
-      </c>
-      <c r="D143">
-        <v>341</v>
-      </c>
-      <c r="E143">
-        <v>-87</v>
-      </c>
-      <c r="F143">
-        <v>45781</v>
-      </c>
-      <c r="G143">
-        <v>7531</v>
-      </c>
-      <c r="H143">
-        <v>26</v>
-      </c>
-      <c r="I143">
-        <v>54</v>
-      </c>
-      <c r="J143">
-        <v>-219</v>
-      </c>
-      <c r="K143" t="s">
-        <v>13</v>
-      </c>
-      <c r="L143">
-        <v>150950</v>
-      </c>
-      <c r="M143" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A144">
-        <v>24510260605</v>
-      </c>
-      <c r="B144">
-        <v>17451</v>
-      </c>
-      <c r="C144">
-        <v>5400</v>
-      </c>
-      <c r="D144">
-        <v>1672</v>
-      </c>
-      <c r="E144">
-        <v>-110</v>
-      </c>
-      <c r="F144">
-        <v>41698</v>
-      </c>
-      <c r="G144">
-        <v>6902</v>
-      </c>
-      <c r="H144">
-        <v>29</v>
-      </c>
-      <c r="I144">
-        <v>45</v>
-      </c>
-      <c r="J144">
-        <v>111</v>
-      </c>
-      <c r="K144">
-        <v>18</v>
-      </c>
-      <c r="L144">
-        <v>138413</v>
-      </c>
-      <c r="M144" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A145">
-        <v>24510270101</v>
-      </c>
-      <c r="B145">
-        <v>60</v>
-      </c>
-      <c r="C145">
-        <v>19</v>
-      </c>
-      <c r="D145">
-        <v>2</v>
-      </c>
-      <c r="E145">
-        <v>-50</v>
-      </c>
-      <c r="F145">
-        <v>76591</v>
-      </c>
-      <c r="G145">
-        <v>8258</v>
-      </c>
-      <c r="H145">
-        <v>17</v>
-      </c>
-      <c r="I145">
-        <v>45</v>
-      </c>
-      <c r="J145">
-        <v>15</v>
-      </c>
-      <c r="K145">
-        <v>1</v>
-      </c>
-      <c r="L145" t="s">
-        <v>13</v>
-      </c>
-      <c r="M145" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A146">
-        <v>24510270102</v>
-      </c>
-      <c r="B146">
-        <v>73</v>
-      </c>
-      <c r="C146">
-        <v>-8</v>
-      </c>
-      <c r="D146">
-        <v>-2</v>
-      </c>
-      <c r="E146">
-        <v>-178</v>
-      </c>
-      <c r="F146">
-        <v>64922</v>
-      </c>
-      <c r="G146">
-        <v>-1308</v>
-      </c>
-      <c r="H146">
-        <v>7</v>
-      </c>
-      <c r="I146">
-        <v>74</v>
-      </c>
-      <c r="J146">
-        <v>-61</v>
-      </c>
-      <c r="K146">
-        <v>5</v>
-      </c>
-      <c r="L146">
-        <v>100660</v>
-      </c>
-      <c r="M146" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A147">
-        <v>24510270200</v>
-      </c>
-      <c r="B147">
-        <v>931</v>
-      </c>
-      <c r="C147">
-        <v>242</v>
-      </c>
-      <c r="D147">
-        <v>227</v>
-      </c>
-      <c r="E147">
-        <v>-11</v>
-      </c>
-      <c r="F147">
-        <v>77792</v>
-      </c>
-      <c r="G147">
-        <v>12144</v>
-      </c>
-      <c r="H147">
-        <v>7</v>
-      </c>
-      <c r="I147">
-        <v>40</v>
-      </c>
-      <c r="J147">
-        <v>17</v>
-      </c>
-      <c r="K147">
-        <v>12</v>
-      </c>
-      <c r="L147">
-        <v>163482</v>
-      </c>
-      <c r="M147" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A148">
-        <v>24510270301</v>
-      </c>
-      <c r="B148">
-        <v>498</v>
-      </c>
-      <c r="C148">
-        <v>14</v>
-      </c>
-      <c r="D148">
-        <v>24</v>
-      </c>
-      <c r="E148">
-        <v>-5</v>
-      </c>
-      <c r="F148">
-        <v>77977</v>
-      </c>
-      <c r="G148">
-        <v>12188</v>
-      </c>
-      <c r="H148">
-        <v>6</v>
-      </c>
-      <c r="I148">
-        <v>57</v>
-      </c>
-      <c r="J148">
-        <v>-26</v>
-      </c>
-      <c r="K148">
-        <v>3</v>
-      </c>
-      <c r="L148" t="s">
-        <v>13</v>
-      </c>
-      <c r="M148" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A149">
-        <v>24510270302</v>
-      </c>
-      <c r="B149">
-        <v>160</v>
-      </c>
-      <c r="C149">
-        <v>-15</v>
-      </c>
-      <c r="D149">
-        <v>16</v>
-      </c>
-      <c r="E149">
-        <v>-122</v>
-      </c>
-      <c r="F149">
-        <v>71500</v>
-      </c>
-      <c r="G149">
-        <v>7621</v>
-      </c>
-      <c r="H149">
-        <v>16</v>
-      </c>
-      <c r="I149">
-        <v>53</v>
-      </c>
-      <c r="J149">
-        <v>77</v>
-      </c>
-      <c r="K149">
-        <v>5</v>
-      </c>
-      <c r="L149">
-        <v>290750</v>
-      </c>
-      <c r="M149" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A150">
-        <v>24510270401</v>
-      </c>
-      <c r="B150">
-        <v>684</v>
-      </c>
-      <c r="C150">
-        <v>37</v>
-      </c>
-      <c r="D150">
-        <v>49</v>
-      </c>
-      <c r="E150">
-        <v>-705</v>
-      </c>
-      <c r="F150">
-        <v>59886</v>
-      </c>
-      <c r="G150">
-        <v>-9188</v>
-      </c>
-      <c r="H150">
-        <v>10</v>
-      </c>
-      <c r="I150">
-        <v>61</v>
-      </c>
-      <c r="J150">
-        <v>-353</v>
-      </c>
-      <c r="K150">
-        <v>24</v>
-      </c>
-      <c r="L150">
-        <v>136859</v>
-      </c>
-      <c r="M150" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A151">
-        <v>24510270402</v>
-      </c>
-      <c r="B151">
-        <v>446</v>
-      </c>
-      <c r="C151">
-        <v>-116</v>
-      </c>
-      <c r="D151">
-        <v>21</v>
-      </c>
-      <c r="E151">
-        <v>21</v>
-      </c>
-      <c r="F151">
-        <v>83160</v>
-      </c>
-      <c r="G151">
-        <v>17410</v>
-      </c>
-      <c r="H151">
-        <v>5</v>
-      </c>
-      <c r="I151">
-        <v>53</v>
-      </c>
-      <c r="J151">
-        <v>30</v>
-      </c>
-      <c r="K151">
-        <v>11</v>
-      </c>
-      <c r="L151">
-        <v>321370</v>
-      </c>
-      <c r="M151" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A152">
-        <v>24510270501</v>
-      </c>
-      <c r="B152">
-        <v>812</v>
-      </c>
-      <c r="C152">
-        <v>-94</v>
-      </c>
-      <c r="D152">
-        <v>84</v>
-      </c>
-      <c r="E152">
-        <v>-284</v>
-      </c>
-      <c r="F152">
-        <v>63509</v>
-      </c>
-      <c r="G152">
-        <v>-11064</v>
-      </c>
-      <c r="H152">
-        <v>7</v>
-      </c>
-      <c r="I152">
-        <v>36</v>
-      </c>
-      <c r="J152">
-        <v>41</v>
-      </c>
-      <c r="K152">
-        <v>8</v>
-      </c>
-      <c r="L152">
-        <v>306435</v>
-      </c>
-      <c r="M152" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A153">
-        <v>24510270502</v>
-      </c>
-      <c r="B153">
-        <v>429</v>
-      </c>
-      <c r="C153">
-        <v>-15</v>
-      </c>
-      <c r="D153">
-        <v>4</v>
-      </c>
-      <c r="E153">
-        <v>159</v>
-      </c>
-      <c r="F153">
-        <v>75197</v>
-      </c>
-      <c r="G153">
-        <v>16978</v>
-      </c>
-      <c r="H153">
-        <v>9</v>
-      </c>
-      <c r="I153">
-        <v>56</v>
-      </c>
-      <c r="J153">
-        <v>-50</v>
-      </c>
-      <c r="K153">
-        <v>3</v>
-      </c>
-      <c r="L153">
-        <v>464750</v>
-      </c>
-      <c r="M153" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A154">
-        <v>24510270600</v>
-      </c>
-      <c r="B154">
-        <v>413</v>
-      </c>
-      <c r="C154">
-        <v>-356</v>
-      </c>
-      <c r="D154">
-        <v>-44</v>
-      </c>
-      <c r="E154">
-        <v>341</v>
-      </c>
-      <c r="F154">
-        <v>71847</v>
-      </c>
-      <c r="G154">
-        <v>12085</v>
-      </c>
-      <c r="H154">
-        <v>7</v>
-      </c>
-      <c r="I154">
-        <v>64</v>
-      </c>
-      <c r="J154">
-        <v>214</v>
-      </c>
-      <c r="K154">
-        <v>13</v>
-      </c>
-      <c r="L154">
-        <v>374641</v>
-      </c>
-      <c r="M154" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A155">
-        <v>24510270701</v>
-      </c>
-      <c r="B155">
-        <v>239</v>
-      </c>
-      <c r="C155">
-        <v>42</v>
-      </c>
-      <c r="D155">
-        <v>47</v>
-      </c>
-      <c r="E155">
-        <v>-102</v>
-      </c>
-      <c r="F155">
-        <v>36824</v>
-      </c>
-      <c r="G155">
-        <v>-2098</v>
-      </c>
-      <c r="H155">
-        <v>18</v>
-      </c>
-      <c r="I155">
-        <v>95</v>
-      </c>
-      <c r="J155">
-        <v>-76</v>
-      </c>
-      <c r="K155" t="s">
-        <v>13</v>
-      </c>
-      <c r="L155" t="s">
-        <v>13</v>
-      </c>
-      <c r="M155" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A156">
-        <v>24510270702</v>
-      </c>
-      <c r="B156">
-        <v>469</v>
-      </c>
-      <c r="C156">
-        <v>-158</v>
-      </c>
-      <c r="D156">
-        <v>-15</v>
-      </c>
-      <c r="E156">
-        <v>-127</v>
-      </c>
-      <c r="F156">
-        <v>55285</v>
-      </c>
-      <c r="G156">
-        <v>18345</v>
-      </c>
-      <c r="H156">
-        <v>8</v>
-      </c>
-      <c r="I156">
-        <v>70</v>
-      </c>
-      <c r="J156">
-        <v>-55</v>
-      </c>
-      <c r="K156">
-        <v>9</v>
-      </c>
-      <c r="L156" t="s">
-        <v>13</v>
-      </c>
-      <c r="M156" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A157">
-        <v>24510270703</v>
-      </c>
-      <c r="B157">
-        <v>213</v>
-      </c>
-      <c r="C157">
-        <v>-36</v>
-      </c>
-      <c r="D157">
-        <v>7</v>
-      </c>
-      <c r="E157">
-        <v>176</v>
-      </c>
-      <c r="F157">
-        <v>67895</v>
-      </c>
-      <c r="G157">
-        <v>9863</v>
-      </c>
-      <c r="H157">
-        <v>8</v>
-      </c>
-      <c r="I157">
-        <v>41</v>
-      </c>
-      <c r="J157">
-        <v>112</v>
-      </c>
-      <c r="K157">
-        <v>8</v>
-      </c>
-      <c r="L157">
-        <v>331642</v>
-      </c>
-      <c r="M157" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A158">
-        <v>24510270801</v>
-      </c>
-      <c r="B158">
-        <v>72</v>
-      </c>
-      <c r="C158">
-        <v>-81</v>
-      </c>
-      <c r="D158">
-        <v>-8</v>
-      </c>
-      <c r="E158">
-        <v>256</v>
-      </c>
-      <c r="F158">
-        <v>56670</v>
-      </c>
-      <c r="G158">
-        <v>4061</v>
-      </c>
-      <c r="H158">
-        <v>15</v>
-      </c>
-      <c r="I158">
-        <v>81</v>
-      </c>
-      <c r="J158">
-        <v>-58</v>
-      </c>
-      <c r="K158" t="s">
-        <v>13</v>
-      </c>
-      <c r="L158" t="s">
-        <v>13</v>
-      </c>
-      <c r="M158" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A159">
-        <v>24510270802</v>
-      </c>
-      <c r="B159">
-        <v>338</v>
-      </c>
-      <c r="C159">
-        <v>43</v>
-      </c>
-      <c r="D159">
-        <v>48</v>
-      </c>
-      <c r="E159">
-        <v>-621</v>
-      </c>
-      <c r="F159">
-        <v>47566</v>
-      </c>
-      <c r="G159">
-        <v>-156</v>
-      </c>
-      <c r="H159">
-        <v>19</v>
-      </c>
-      <c r="I159">
-        <v>96</v>
-      </c>
-      <c r="J159">
-        <v>225</v>
-      </c>
-      <c r="K159">
-        <v>3</v>
-      </c>
-      <c r="L159" t="s">
-        <v>13</v>
-      </c>
-      <c r="M159" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A160">
-        <v>24510270803</v>
-      </c>
-      <c r="B160">
-        <v>2605</v>
-      </c>
-      <c r="C160">
-        <v>-547</v>
-      </c>
-      <c r="D160">
-        <v>23</v>
-      </c>
-      <c r="E160">
-        <v>366</v>
-      </c>
-      <c r="F160">
-        <v>50686</v>
-      </c>
-      <c r="G160">
-        <v>7824</v>
-      </c>
-      <c r="H160">
-        <v>5</v>
-      </c>
-      <c r="I160">
-        <v>92</v>
-      </c>
-      <c r="J160">
-        <v>117</v>
-      </c>
-      <c r="K160" t="s">
-        <v>13</v>
-      </c>
-      <c r="L160" t="s">
-        <v>13</v>
-      </c>
-      <c r="M160" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A161">
-        <v>24510270804</v>
-      </c>
-      <c r="B161">
-        <v>161</v>
-      </c>
-      <c r="C161">
-        <v>5</v>
-      </c>
-      <c r="D161">
-        <v>16</v>
-      </c>
-      <c r="E161">
-        <v>180</v>
-      </c>
-      <c r="F161">
-        <v>55750</v>
-      </c>
-      <c r="G161">
-        <v>7000</v>
-      </c>
-      <c r="H161">
-        <v>13</v>
-      </c>
-      <c r="I161">
-        <v>52</v>
-      </c>
-      <c r="J161">
-        <v>-56</v>
-      </c>
-      <c r="K161" t="s">
-        <v>13</v>
-      </c>
-      <c r="L161" t="s">
-        <v>13</v>
-      </c>
-      <c r="M161" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A162">
-        <v>24510270805</v>
-      </c>
-      <c r="B162">
-        <v>678</v>
-      </c>
-      <c r="C162">
-        <v>-108</v>
-      </c>
-      <c r="D162">
-        <v>-8</v>
-      </c>
-      <c r="E162">
-        <v>516</v>
-      </c>
-      <c r="F162">
-        <v>58441</v>
-      </c>
-      <c r="G162">
-        <v>15581</v>
-      </c>
-      <c r="H162">
-        <v>11</v>
-      </c>
-      <c r="I162">
-        <v>87</v>
-      </c>
-      <c r="J162">
-        <v>-107</v>
-      </c>
-      <c r="K162">
-        <v>5</v>
-      </c>
-      <c r="L162">
-        <v>335206</v>
-      </c>
-      <c r="M162" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A163">
-        <v>24510270901</v>
-      </c>
-      <c r="B163">
-        <v>227</v>
-      </c>
-      <c r="C163">
-        <v>-16</v>
-      </c>
-      <c r="D163">
-        <v>21</v>
-      </c>
-      <c r="E163">
-        <v>33</v>
-      </c>
-      <c r="F163">
-        <v>53120</v>
-      </c>
-      <c r="G163">
-        <v>-7126</v>
-      </c>
-      <c r="H163">
-        <v>7</v>
-      </c>
-      <c r="I163">
-        <v>97</v>
-      </c>
-      <c r="J163">
-        <v>99</v>
-      </c>
-      <c r="K163" t="s">
-        <v>13</v>
-      </c>
-      <c r="L163" t="s">
-        <v>13</v>
-      </c>
-      <c r="M163" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A164">
-        <v>24510270902</v>
-      </c>
-      <c r="B164">
-        <v>2309</v>
-      </c>
-      <c r="C164">
-        <v>-60</v>
-      </c>
-      <c r="D164">
-        <v>108</v>
-      </c>
-      <c r="E164">
-        <v>-187</v>
-      </c>
-      <c r="F164">
-        <v>64028</v>
-      </c>
-      <c r="G164">
-        <v>1877</v>
-      </c>
-      <c r="H164">
-        <v>9</v>
-      </c>
-      <c r="I164">
-        <v>96</v>
-      </c>
-      <c r="J164">
-        <v>54</v>
-      </c>
-      <c r="K164" t="s">
-        <v>13</v>
-      </c>
-      <c r="L164" t="s">
-        <v>13</v>
-      </c>
-      <c r="M164" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A165">
-        <v>24510270903</v>
-      </c>
-      <c r="B165">
-        <v>395</v>
-      </c>
-      <c r="C165">
-        <v>-31</v>
-      </c>
-      <c r="D165">
-        <v>14</v>
-      </c>
-      <c r="E165">
-        <v>303</v>
-      </c>
-      <c r="F165">
-        <v>49327</v>
-      </c>
-      <c r="G165">
-        <v>7058</v>
-      </c>
-      <c r="H165">
-        <v>15</v>
-      </c>
-      <c r="I165">
-        <v>84</v>
-      </c>
-      <c r="J165">
-        <v>62</v>
-      </c>
-      <c r="K165">
-        <v>1</v>
-      </c>
-      <c r="L165" t="s">
-        <v>13</v>
-      </c>
-      <c r="M165" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A166">
-        <v>24510271001</v>
-      </c>
-      <c r="B166">
-        <v>100</v>
-      </c>
-      <c r="C166">
-        <v>-2</v>
-      </c>
-      <c r="D166">
-        <v>8</v>
-      </c>
-      <c r="E166">
-        <v>116</v>
-      </c>
-      <c r="F166">
-        <v>40039</v>
-      </c>
-      <c r="G166">
-        <v>5774</v>
-      </c>
-      <c r="H166">
-        <v>18</v>
-      </c>
-      <c r="I166">
-        <v>97</v>
-      </c>
-      <c r="J166">
-        <v>5</v>
-      </c>
-      <c r="K166">
-        <v>3</v>
-      </c>
-      <c r="L166">
-        <v>114050</v>
-      </c>
-      <c r="M166" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A167">
-        <v>24510271002</v>
-      </c>
-      <c r="B167">
-        <v>266</v>
-      </c>
-      <c r="C167">
-        <v>29</v>
-      </c>
-      <c r="D167">
-        <v>27</v>
-      </c>
-      <c r="E167">
-        <v>25</v>
-      </c>
-      <c r="F167">
-        <v>40147</v>
-      </c>
-      <c r="G167">
-        <v>1034</v>
-      </c>
-      <c r="H167">
-        <v>38</v>
-      </c>
-      <c r="I167">
-        <v>95</v>
-      </c>
-      <c r="J167">
-        <v>52</v>
-      </c>
-      <c r="K167">
-        <v>5</v>
-      </c>
-      <c r="L167">
-        <v>107163</v>
-      </c>
-      <c r="M167" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A168">
-        <v>24510271101</v>
-      </c>
-      <c r="B168">
-        <v>244</v>
-      </c>
-      <c r="C168">
-        <v>-504</v>
-      </c>
-      <c r="D168">
-        <v>-156</v>
-      </c>
-      <c r="E168">
-        <v>-32</v>
-      </c>
-      <c r="F168">
-        <v>51765</v>
-      </c>
-      <c r="G168">
-        <v>12479</v>
-      </c>
-      <c r="H168">
-        <v>22</v>
-      </c>
-      <c r="I168">
-        <v>54</v>
-      </c>
-      <c r="J168">
-        <v>11</v>
-      </c>
-      <c r="K168">
-        <v>13</v>
-      </c>
-      <c r="L168" t="s">
-        <v>13</v>
-      </c>
-      <c r="M168" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A169">
-        <v>24510271102</v>
-      </c>
-      <c r="B169">
-        <v>2104</v>
-      </c>
-      <c r="C169">
-        <v>404</v>
-      </c>
-      <c r="D169">
-        <v>239</v>
-      </c>
-      <c r="E169">
-        <v>16</v>
-      </c>
-      <c r="F169">
-        <v>195156</v>
-      </c>
-      <c r="G169">
-        <v>3638</v>
-      </c>
-      <c r="H169">
-        <v>2</v>
-      </c>
-      <c r="I169">
-        <v>19</v>
-      </c>
-      <c r="J169">
-        <v>28</v>
-      </c>
-      <c r="K169" t="s">
-        <v>13</v>
-      </c>
-      <c r="L169" t="s">
-        <v>13</v>
-      </c>
-      <c r="M169" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A170">
-        <v>24510271200</v>
-      </c>
-      <c r="B170">
-        <v>1531</v>
-      </c>
-      <c r="C170">
-        <v>175</v>
-      </c>
-      <c r="D170">
-        <v>157</v>
-      </c>
-      <c r="E170">
-        <v>-23</v>
-      </c>
-      <c r="F170">
-        <v>165443</v>
-      </c>
-      <c r="G170">
-        <v>35296</v>
-      </c>
-      <c r="H170">
-        <v>6</v>
-      </c>
-      <c r="I170">
-        <v>19</v>
-      </c>
-      <c r="J170">
-        <v>-81</v>
-      </c>
-      <c r="K170">
-        <v>16</v>
-      </c>
-      <c r="L170">
-        <v>235824</v>
-      </c>
-      <c r="M170" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A171">
-        <v>24510271300</v>
-      </c>
-      <c r="B171">
-        <v>1591</v>
-      </c>
-      <c r="C171">
-        <v>116</v>
-      </c>
-      <c r="D171">
-        <v>100</v>
-      </c>
-      <c r="E171">
-        <v>-108</v>
-      </c>
-      <c r="F171">
-        <v>154313</v>
-      </c>
-      <c r="G171">
-        <v>26535</v>
-      </c>
-      <c r="H171">
-        <v>2</v>
-      </c>
-      <c r="I171">
-        <v>18</v>
-      </c>
-      <c r="J171">
-        <v>-9</v>
-      </c>
-      <c r="K171" t="s">
-        <v>13</v>
-      </c>
-      <c r="L171">
-        <v>697182</v>
-      </c>
-      <c r="M171" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A172">
-        <v>24510271400</v>
-      </c>
-      <c r="B172">
-        <v>954</v>
-      </c>
-      <c r="C172">
-        <v>-163</v>
-      </c>
-      <c r="D172">
-        <v>-77</v>
-      </c>
-      <c r="E172">
-        <v>54</v>
-      </c>
-      <c r="F172">
-        <v>133333</v>
-      </c>
-      <c r="G172">
-        <v>25476</v>
-      </c>
-      <c r="H172">
-        <v>7</v>
-      </c>
-      <c r="I172">
-        <v>22</v>
-      </c>
-      <c r="J172">
-        <v>123</v>
-      </c>
-      <c r="K172">
-        <v>4</v>
-      </c>
-      <c r="L172">
-        <v>453708</v>
-      </c>
-      <c r="M172" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A173">
-        <v>24510271501</v>
-      </c>
-      <c r="B173">
-        <v>3334</v>
-      </c>
-      <c r="C173">
-        <v>1005</v>
-      </c>
-      <c r="D173">
-        <v>736</v>
-      </c>
-      <c r="E173">
-        <v>-180</v>
-      </c>
-      <c r="F173">
-        <v>104375</v>
-      </c>
-      <c r="G173">
-        <v>10076</v>
-      </c>
-      <c r="H173">
-        <v>7</v>
-      </c>
-      <c r="I173">
-        <v>21</v>
-      </c>
-      <c r="J173">
-        <v>-57</v>
-      </c>
-      <c r="K173">
-        <v>2</v>
-      </c>
-      <c r="L173">
-        <v>416976</v>
-      </c>
-      <c r="M173" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A174">
-        <v>24510271503</v>
-      </c>
-      <c r="B174">
-        <v>1071</v>
-      </c>
-      <c r="C174">
-        <v>-701</v>
-      </c>
-      <c r="D174">
-        <v>-216</v>
-      </c>
-      <c r="E174">
-        <v>-7</v>
-      </c>
-      <c r="F174">
-        <v>56490</v>
-      </c>
-      <c r="G174">
-        <v>-11010</v>
-      </c>
-      <c r="H174">
-        <v>4</v>
-      </c>
-      <c r="I174">
-        <v>24</v>
-      </c>
-      <c r="J174">
-        <v>76</v>
-      </c>
-      <c r="K174">
-        <v>1</v>
-      </c>
-      <c r="L174" t="s">
-        <v>13</v>
-      </c>
-      <c r="M174" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A175">
-        <v>24510271600</v>
-      </c>
-      <c r="B175">
-        <v>535</v>
-      </c>
-      <c r="C175">
-        <v>3</v>
-      </c>
-      <c r="D175">
-        <v>26</v>
-      </c>
-      <c r="E175">
-        <v>-367</v>
-      </c>
-      <c r="F175">
-        <v>31361</v>
-      </c>
-      <c r="G175">
-        <v>3759</v>
-      </c>
-      <c r="H175">
-        <v>29</v>
-      </c>
-      <c r="I175">
-        <v>96</v>
-      </c>
-      <c r="J175">
-        <v>-130</v>
-      </c>
-      <c r="K175">
-        <v>12</v>
-      </c>
-      <c r="L175">
-        <v>52733</v>
-      </c>
-      <c r="M175" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A176">
-        <v>24510271700</v>
-      </c>
-      <c r="B176">
-        <v>6352</v>
-      </c>
-      <c r="C176">
-        <v>427</v>
-      </c>
-      <c r="D176">
-        <v>140</v>
-      </c>
-      <c r="E176">
-        <v>-434</v>
-      </c>
-      <c r="F176">
-        <v>39432</v>
-      </c>
-      <c r="G176">
-        <v>5723</v>
-      </c>
-      <c r="H176">
-        <v>17</v>
-      </c>
-      <c r="I176">
-        <v>98</v>
-      </c>
-      <c r="J176">
-        <v>-92</v>
-      </c>
-      <c r="K176">
-        <v>5</v>
-      </c>
-      <c r="L176">
-        <v>138308</v>
-      </c>
-      <c r="M176" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A177">
-        <v>24510271801</v>
-      </c>
-      <c r="B177">
-        <v>197</v>
-      </c>
-      <c r="C177">
-        <v>-90</v>
-      </c>
-      <c r="D177">
-        <v>-7</v>
-      </c>
-      <c r="E177">
-        <v>-382</v>
-      </c>
-      <c r="F177">
-        <v>26817</v>
-      </c>
-      <c r="G177">
-        <v>-4766</v>
-      </c>
-      <c r="H177">
-        <v>37</v>
-      </c>
-      <c r="I177">
-        <v>98</v>
-      </c>
-      <c r="J177">
-        <v>-11</v>
-      </c>
-      <c r="K177">
-        <v>12</v>
-      </c>
-      <c r="L177" t="s">
-        <v>13</v>
-      </c>
-      <c r="M177" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A178">
-        <v>24510271802</v>
-      </c>
-      <c r="B178">
-        <v>572</v>
-      </c>
-      <c r="C178">
-        <v>282</v>
-      </c>
-      <c r="D178">
-        <v>135</v>
-      </c>
-      <c r="E178">
-        <v>-494</v>
-      </c>
-      <c r="F178">
-        <v>33156</v>
-      </c>
-      <c r="G178">
-        <v>1346</v>
-      </c>
-      <c r="H178">
-        <v>29</v>
-      </c>
-      <c r="I178">
-        <v>99</v>
-      </c>
-      <c r="J178">
-        <v>-63</v>
-      </c>
-      <c r="K178">
-        <v>13</v>
-      </c>
-      <c r="L178">
-        <v>165331</v>
-      </c>
-      <c r="M178" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A179">
-        <v>24510271900</v>
-      </c>
-      <c r="B179">
-        <v>902</v>
-      </c>
-      <c r="C179">
-        <v>47</v>
-      </c>
-      <c r="D179">
-        <v>64</v>
-      </c>
-      <c r="E179">
-        <v>174</v>
-      </c>
-      <c r="F179">
-        <v>51938</v>
-      </c>
-      <c r="G179">
-        <v>-2055</v>
-      </c>
-      <c r="H179">
-        <v>17</v>
-      </c>
-      <c r="I179">
-        <v>80</v>
-      </c>
-      <c r="J179">
-        <v>166</v>
-      </c>
-      <c r="K179">
-        <v>5</v>
-      </c>
-      <c r="L179" t="s">
-        <v>13</v>
-      </c>
-      <c r="M179" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A180">
-        <v>24510272003</v>
-      </c>
-      <c r="B180">
-        <v>386</v>
-      </c>
-      <c r="C180">
-        <v>18</v>
-      </c>
-      <c r="D180">
-        <v>35</v>
-      </c>
-      <c r="E180">
-        <v>-119</v>
-      </c>
-      <c r="F180">
-        <v>69016</v>
-      </c>
-      <c r="G180">
-        <v>7674</v>
-      </c>
-      <c r="H180">
-        <v>12</v>
-      </c>
-      <c r="I180">
-        <v>46</v>
-      </c>
-      <c r="J180">
-        <v>106</v>
-      </c>
-      <c r="K180" t="s">
-        <v>13</v>
-      </c>
-      <c r="L180" t="s">
-        <v>13</v>
-      </c>
-      <c r="M180" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A181">
-        <v>24510272004</v>
-      </c>
-      <c r="B181">
-        <v>343</v>
-      </c>
-      <c r="C181">
-        <v>250</v>
-      </c>
-      <c r="D181">
-        <v>92</v>
-      </c>
-      <c r="E181">
-        <v>295</v>
-      </c>
-      <c r="F181">
-        <v>49603</v>
-      </c>
-      <c r="G181">
-        <v>389</v>
-      </c>
-      <c r="H181">
-        <v>13</v>
-      </c>
-      <c r="I181">
-        <v>30</v>
-      </c>
-      <c r="J181">
-        <v>140</v>
-      </c>
-      <c r="K181" t="s">
-        <v>13</v>
-      </c>
-      <c r="L181" t="s">
-        <v>13</v>
-      </c>
-      <c r="M181" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A182">
-        <v>24510272005</v>
-      </c>
-      <c r="B182">
-        <v>235</v>
-      </c>
-      <c r="C182">
-        <v>14</v>
-      </c>
-      <c r="D182">
-        <v>15</v>
-      </c>
-      <c r="E182">
-        <v>198</v>
-      </c>
-      <c r="F182">
-        <v>59883</v>
-      </c>
-      <c r="G182">
-        <v>15520</v>
-      </c>
-      <c r="H182">
-        <v>14</v>
-      </c>
-      <c r="I182">
-        <v>20</v>
-      </c>
-      <c r="J182">
-        <v>-128</v>
-      </c>
-      <c r="K182" t="s">
-        <v>13</v>
-      </c>
-      <c r="L182" t="s">
-        <v>13</v>
-      </c>
-      <c r="M182" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A183">
-        <v>24510272006</v>
-      </c>
-      <c r="B183">
-        <v>618</v>
-      </c>
-      <c r="C183">
-        <v>27</v>
-      </c>
-      <c r="D183">
-        <v>70</v>
-      </c>
-      <c r="E183">
-        <v>-488</v>
-      </c>
-      <c r="F183">
-        <v>30878</v>
-      </c>
-      <c r="G183">
-        <v>1820</v>
-      </c>
-      <c r="H183">
-        <v>15</v>
-      </c>
-      <c r="I183">
-        <v>63</v>
-      </c>
-      <c r="J183">
-        <v>-27</v>
-      </c>
-      <c r="K183">
-        <v>2</v>
-      </c>
-      <c r="L183" t="s">
-        <v>13</v>
-      </c>
-      <c r="M183" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A184">
-        <v>24510272007</v>
-      </c>
-      <c r="B184">
-        <v>1039</v>
-      </c>
-      <c r="C184">
-        <v>223</v>
-      </c>
-      <c r="D184">
-        <v>164</v>
-      </c>
-      <c r="E184">
-        <v>-295</v>
-      </c>
-      <c r="F184">
-        <v>39748</v>
-      </c>
-      <c r="G184">
-        <v>-2834</v>
-      </c>
-      <c r="H184">
-        <v>27</v>
-      </c>
-      <c r="I184">
-        <v>62</v>
-      </c>
-      <c r="J184">
-        <v>-312</v>
-      </c>
-      <c r="K184" t="s">
-        <v>13</v>
-      </c>
-      <c r="L184" t="s">
-        <v>13</v>
-      </c>
-      <c r="M184" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A185">
-        <v>24510280101</v>
-      </c>
-      <c r="B185">
-        <v>4795</v>
-      </c>
-      <c r="C185">
-        <v>228</v>
-      </c>
-      <c r="D185">
-        <v>968</v>
-      </c>
-      <c r="E185">
-        <v>-215</v>
-      </c>
-      <c r="F185">
-        <v>45855</v>
-      </c>
-      <c r="G185">
-        <v>2920</v>
-      </c>
-      <c r="H185">
-        <v>29</v>
-      </c>
-      <c r="I185">
-        <v>99</v>
-      </c>
-      <c r="J185">
-        <v>-1</v>
-      </c>
-      <c r="K185">
-        <v>8</v>
-      </c>
-      <c r="L185" t="s">
-        <v>13</v>
-      </c>
-      <c r="M185" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A186">
-        <v>24510280102</v>
-      </c>
-      <c r="B186">
-        <v>3763</v>
-      </c>
-      <c r="C186">
-        <v>-233</v>
-      </c>
-      <c r="D186">
-        <v>35</v>
-      </c>
-      <c r="E186">
-        <v>-114</v>
-      </c>
-      <c r="F186">
-        <v>50798</v>
-      </c>
-      <c r="G186">
-        <v>14079</v>
-      </c>
-      <c r="H186">
-        <v>21</v>
-      </c>
-      <c r="I186">
-        <v>98</v>
-      </c>
-      <c r="J186">
-        <v>267</v>
-      </c>
-      <c r="K186">
-        <v>5</v>
-      </c>
-      <c r="L186">
-        <v>121750</v>
-      </c>
-      <c r="M186" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A187">
-        <v>24510280200</v>
-      </c>
-      <c r="B187">
-        <v>239</v>
-      </c>
-      <c r="C187">
-        <v>75</v>
-      </c>
-      <c r="D187">
-        <v>15</v>
-      </c>
-      <c r="E187">
-        <v>125</v>
-      </c>
-      <c r="F187">
-        <v>59524</v>
-      </c>
-      <c r="G187">
-        <v>6885</v>
-      </c>
-      <c r="H187">
-        <v>17</v>
-      </c>
-      <c r="I187">
-        <v>97</v>
-      </c>
-      <c r="J187">
-        <v>-48</v>
-      </c>
-      <c r="K187">
-        <v>1</v>
-      </c>
-      <c r="L187">
-        <v>221167</v>
-      </c>
-      <c r="M187" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A188">
-        <v>24510280301</v>
-      </c>
-      <c r="B188">
-        <v>247</v>
-      </c>
-      <c r="C188">
-        <v>-22</v>
-      </c>
-      <c r="D188">
-        <v>40</v>
-      </c>
-      <c r="E188">
-        <v>256</v>
-      </c>
-      <c r="F188">
-        <v>44390</v>
-      </c>
-      <c r="G188">
-        <v>11622</v>
-      </c>
-      <c r="H188">
-        <v>18</v>
-      </c>
-      <c r="I188">
-        <v>92</v>
-      </c>
-      <c r="J188">
-        <v>153</v>
-      </c>
-      <c r="K188">
-        <v>2</v>
-      </c>
-      <c r="L188" t="s">
-        <v>13</v>
-      </c>
-      <c r="M188" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A189">
-        <v>24510280302</v>
-      </c>
-      <c r="B189">
-        <v>6</v>
-      </c>
-      <c r="C189">
-        <v>-1</v>
-      </c>
-      <c r="D189">
-        <v>3</v>
-      </c>
-      <c r="E189">
-        <v>186</v>
-      </c>
-      <c r="F189">
-        <v>44423</v>
-      </c>
-      <c r="G189">
-        <v>5256</v>
-      </c>
-      <c r="H189">
-        <v>20</v>
-      </c>
-      <c r="I189">
-        <v>97</v>
-      </c>
-      <c r="J189">
-        <v>146</v>
-      </c>
-      <c r="K189" t="s">
-        <v>13</v>
-      </c>
-      <c r="L189" t="s">
-        <v>13</v>
-      </c>
-      <c r="M189" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A190">
-        <v>24510280401</v>
-      </c>
-      <c r="B190">
-        <v>347</v>
-      </c>
-      <c r="C190">
-        <v>0</v>
-      </c>
-      <c r="D190">
-        <v>-11</v>
-      </c>
-      <c r="E190">
-        <v>-457</v>
-      </c>
-      <c r="F190">
-        <v>46493</v>
-      </c>
-      <c r="G190">
-        <v>-6657</v>
-      </c>
-      <c r="H190">
-        <v>11</v>
-      </c>
-      <c r="I190">
-        <v>83</v>
-      </c>
-      <c r="J190">
-        <v>-63</v>
-      </c>
-      <c r="K190" t="s">
-        <v>13</v>
-      </c>
-      <c r="L190" t="s">
-        <v>13</v>
-      </c>
-      <c r="M190" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A191">
-        <v>24510280402</v>
-      </c>
-      <c r="B191">
-        <v>109</v>
-      </c>
-      <c r="C191">
-        <v>-11</v>
-      </c>
-      <c r="D191">
-        <v>-3</v>
-      </c>
-      <c r="E191">
-        <v>-143</v>
-      </c>
-      <c r="F191">
-        <v>48750</v>
-      </c>
-      <c r="G191">
-        <v>10333</v>
-      </c>
-      <c r="H191">
-        <v>16</v>
-      </c>
-      <c r="I191">
-        <v>100</v>
-      </c>
-      <c r="J191">
-        <v>-70</v>
-      </c>
-      <c r="K191">
-        <v>1</v>
-      </c>
-      <c r="L191">
-        <v>575700</v>
-      </c>
-      <c r="M191" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A192">
-        <v>24510280403</v>
-      </c>
-      <c r="B192">
-        <v>717</v>
-      </c>
-      <c r="C192">
-        <v>107</v>
-      </c>
-      <c r="D192">
-        <v>58</v>
-      </c>
-      <c r="E192">
-        <v>147</v>
-      </c>
-      <c r="F192">
-        <v>57973</v>
-      </c>
-      <c r="G192">
-        <v>3275</v>
-      </c>
-      <c r="H192">
-        <v>5</v>
-      </c>
-      <c r="I192">
-        <v>75</v>
-      </c>
-      <c r="J192">
-        <v>-150</v>
-      </c>
-      <c r="K192" t="s">
-        <v>13</v>
-      </c>
-      <c r="L192">
-        <v>548000</v>
-      </c>
-      <c r="M192" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A193">
-        <v>24510280404</v>
-      </c>
-      <c r="B193">
-        <v>287</v>
-      </c>
-      <c r="C193">
-        <v>-7</v>
-      </c>
-      <c r="D193">
-        <v>11</v>
-      </c>
-      <c r="E193">
-        <v>216</v>
-      </c>
-      <c r="F193">
-        <v>39233</v>
-      </c>
-      <c r="G193">
-        <v>2219</v>
-      </c>
-      <c r="H193">
-        <v>25</v>
-      </c>
-      <c r="I193">
-        <v>98</v>
-      </c>
-      <c r="J193">
-        <v>257</v>
-      </c>
-      <c r="K193" t="s">
-        <v>13</v>
-      </c>
-      <c r="L193" t="s">
-        <v>13</v>
-      </c>
-      <c r="M193" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A194">
-        <v>24510280500</v>
-      </c>
-      <c r="B194">
-        <v>3218</v>
-      </c>
-      <c r="C194">
-        <v>-936</v>
-      </c>
-      <c r="D194">
-        <v>-313</v>
-      </c>
-      <c r="E194">
-        <v>14</v>
-      </c>
-      <c r="F194">
-        <v>13289</v>
-      </c>
-      <c r="G194">
-        <v>1293</v>
-      </c>
-      <c r="H194">
-        <v>58</v>
-      </c>
-      <c r="I194">
-        <v>97</v>
-      </c>
-      <c r="J194">
-        <v>-5</v>
-      </c>
-      <c r="K194">
-        <v>25</v>
-      </c>
-      <c r="L194">
-        <v>91917</v>
-      </c>
-      <c r="M194" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A195">
-        <v>24510260501</v>
-      </c>
-      <c r="B195">
-        <v>8387</v>
-      </c>
-      <c r="C195">
-        <v>-91</v>
-      </c>
-      <c r="D195">
-        <v>923</v>
-      </c>
-      <c r="E195">
-        <v>-100</v>
-      </c>
-      <c r="F195">
-        <v>57639</v>
-      </c>
-      <c r="G195">
-        <v>14486</v>
-      </c>
-      <c r="H195">
-        <v>8</v>
-      </c>
-      <c r="I195">
-        <v>32</v>
-      </c>
-      <c r="J195">
-        <v>44</v>
-      </c>
-      <c r="K195">
-        <v>14</v>
-      </c>
-      <c r="L195">
-        <v>235140</v>
-      </c>
-      <c r="M195" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A196">
-        <v>24510260604</v>
-      </c>
-      <c r="B196">
-        <v>55</v>
-      </c>
-      <c r="C196">
-        <v>-146</v>
-      </c>
-      <c r="D196">
-        <v>-13</v>
-      </c>
-      <c r="E196">
-        <v>-52</v>
-      </c>
-      <c r="F196">
-        <v>27778</v>
-      </c>
-      <c r="G196">
-        <v>7348</v>
-      </c>
-      <c r="H196">
-        <v>44</v>
-      </c>
-      <c r="I196">
-        <v>75</v>
-      </c>
-      <c r="J196">
-        <v>-23</v>
-      </c>
-      <c r="K196" t="s">
-        <v>13</v>
-      </c>
-      <c r="L196" t="s">
-        <v>13</v>
-      </c>
-      <c r="M196" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A197">
-        <v>24510260700</v>
-      </c>
-      <c r="B197">
-        <v>694</v>
-      </c>
-      <c r="C197">
-        <v>5</v>
-      </c>
-      <c r="D197">
-        <v>42</v>
-      </c>
-      <c r="E197">
-        <v>134</v>
-      </c>
-      <c r="F197">
-        <v>83050</v>
-      </c>
-      <c r="G197">
-        <v>45456</v>
-      </c>
-      <c r="H197">
-        <v>14</v>
-      </c>
-      <c r="I197">
-        <v>24</v>
-      </c>
-      <c r="J197">
-        <v>-22</v>
-      </c>
-      <c r="K197">
-        <v>12</v>
-      </c>
-      <c r="L197">
-        <v>154283</v>
-      </c>
-      <c r="M197" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A198">
-        <v>24510260800</v>
-      </c>
-      <c r="B198">
-        <v>560</v>
-      </c>
-      <c r="C198">
-        <v>-210</v>
-      </c>
-      <c r="D198">
-        <v>-57</v>
-      </c>
-      <c r="E198">
-        <v>-614</v>
-      </c>
-      <c r="F198">
-        <v>40795</v>
-      </c>
-      <c r="G198">
-        <v>208</v>
-      </c>
-      <c r="H198">
-        <v>21</v>
-      </c>
-      <c r="I198">
-        <v>44</v>
-      </c>
-      <c r="J198">
-        <v>10</v>
-      </c>
-      <c r="K198">
-        <v>1</v>
-      </c>
-      <c r="L198">
-        <v>286032</v>
-      </c>
-      <c r="M198" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A199">
-        <v>24510260900</v>
-      </c>
-      <c r="B199">
-        <v>2349</v>
-      </c>
-      <c r="C199">
-        <v>-71</v>
-      </c>
-      <c r="D199">
-        <v>152</v>
-      </c>
-      <c r="E199">
-        <v>1019</v>
-      </c>
-      <c r="F199">
-        <v>109618</v>
-      </c>
-      <c r="G199">
-        <v>30630</v>
-      </c>
-      <c r="H199">
-        <v>10</v>
-      </c>
-      <c r="I199">
-        <v>13</v>
-      </c>
-      <c r="J199">
-        <v>52</v>
-      </c>
-      <c r="K199">
-        <v>73</v>
-      </c>
-      <c r="L199">
-        <v>298448</v>
-      </c>
-      <c r="M199" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A200">
-        <v>24510261000</v>
-      </c>
-      <c r="B200">
-        <v>276</v>
-      </c>
-      <c r="C200">
-        <v>-37</v>
-      </c>
-      <c r="D200">
-        <v>-10</v>
-      </c>
-      <c r="E200">
-        <v>-94</v>
-      </c>
-      <c r="F200">
-        <v>55221</v>
-      </c>
-      <c r="G200">
-        <v>12192</v>
-      </c>
-      <c r="H200">
-        <v>38</v>
-      </c>
-      <c r="I200">
-        <v>62</v>
-      </c>
-      <c r="J200">
-        <v>112</v>
-      </c>
-      <c r="K200">
-        <v>2</v>
-      </c>
-      <c r="L200">
-        <v>216369</v>
-      </c>
-      <c r="M200" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A201">
-        <v>24510261100</v>
-      </c>
-      <c r="B201">
-        <v>244</v>
-      </c>
-      <c r="C201">
-        <v>-63</v>
-      </c>
-      <c r="D201">
-        <v>-88</v>
-      </c>
-      <c r="E201">
-        <v>-10</v>
-      </c>
-      <c r="F201">
-        <v>133152</v>
-      </c>
-      <c r="G201">
-        <v>38652</v>
-      </c>
-      <c r="H201">
-        <v>7</v>
-      </c>
-      <c r="I201">
-        <v>15</v>
-      </c>
-      <c r="J201">
-        <v>23</v>
-      </c>
-      <c r="K201">
-        <v>15</v>
-      </c>
-      <c r="L201">
-        <v>434476</v>
-      </c>
-      <c r="M201" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A202" t="s">
-        <v>24</v>
-      </c>
-      <c r="B202">
-        <f>SUMIF(M$2:M$201, "*Bayview*", B$2:B$201)</f>
-        <v>9136</v>
-      </c>
-      <c r="C202" t="s">
-        <v>48</v>
-      </c>
-      <c r="D202" t="s">
-        <v>48</v>
-      </c>
-      <c r="E202" t="s">
-        <v>48</v>
-      </c>
-      <c r="K202" t="s">
-        <v>48</v>
-      </c>
-      <c r="M202">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A203" t="s">
-        <v>21</v>
-      </c>
-      <c r="B203">
-        <f>SUMIF(M$2:M$201, "*Frederick*", B$2:B$201)</f>
-        <v>1190</v>
-      </c>
-      <c r="M203">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A204" t="s">
-        <v>23</v>
-      </c>
-      <c r="B204">
-        <f>SUMIF(M$2:M$201, "*Greektown*", B$2:B$201)</f>
-        <v>9081</v>
-      </c>
-      <c r="M204">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A205" t="s">
-        <v>17</v>
-      </c>
-      <c r="B205">
-        <f>SUMIF(M$2:M$201, "*North Ave to 28th Street*", B$2:B$201)</f>
-        <v>2575</v>
-      </c>
-      <c r="M205">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A206" t="s">
-        <v>16</v>
-      </c>
-      <c r="B206">
-        <f>SUMIF(M$2:M$201, "*Waverly Main Street*", B$2:B$201)</f>
-        <v>3581</v>
-      </c>
-      <c r="M206">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A207" t="s">
-        <v>14</v>
-      </c>
-      <c r="B207">
-        <f>SUMIF(M$2:M$201, "*Highlandtown*", B$2:B$201)</f>
-        <v>3670</v>
-      </c>
-      <c r="M207">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A208" t="s">
-        <v>20</v>
-      </c>
-      <c r="B208">
-        <f>SUMIF(M$2:M$201, "*Hollins Market*", B$2:B$201)</f>
-        <v>1460</v>
-      </c>
-      <c r="M208">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A209" t="s">
-        <v>19</v>
-      </c>
-      <c r="B209">
-        <f>SUMIF(M$2:M$201, "*Liberty Heights*", B$2:B$201)</f>
-        <v>1541</v>
-      </c>
-      <c r="M209">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A210" t="s">
-        <v>15</v>
-      </c>
-      <c r="B210">
-        <f>SUMIF(M$2:M$201, "*Market Center*", B$2:B$201)</f>
-        <v>77641</v>
-      </c>
-      <c r="M210">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A211" t="s">
-        <v>18</v>
-      </c>
-      <c r="B211">
-        <f>SUMIF(M$2:M$201, "*Pennsylvania Ave*", B$2:B$201)</f>
-        <v>7505</v>
-      </c>
-      <c r="M211">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A212" t="s">
-        <v>22</v>
-      </c>
-      <c r="B212">
-        <f>SUMIF(M$2:M$201, "*Pigtown*", B$2:B$201)</f>
-        <v>8513</v>
-      </c>
-      <c r="M212">
         <v>1</v>
       </c>
     </row>

--- a/data-raw/baltimore.xlsx
+++ b/data-raw/baltimore.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://brookingsinstitution-my.sharepoint.com/personal/cgeorge_brookings_edu/Documents/Caroline R/economic-values-atlas/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="227" documentId="8_{7E727825-FFEA-4C1B-8736-24A2A11E51D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{714C9C54-5D56-42D7-BA8D-96F70E686B86}"/>
+  <xr:revisionPtr revIDLastSave="229" documentId="8_{7E727825-FFEA-4C1B-8736-24A2A11E51D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{87D455BE-2813-4891-9A94-54BA4AEB2E48}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16690" yWindow="-350" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -1024,7 +1024,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1207,8 +1207,8 @@
   <dimension ref="A1:N212"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A198" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q208" sqref="Q208"/>
+      <pane ySplit="1" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10070,7 +10070,7 @@
         <v>9136</v>
       </c>
       <c r="C202">
-        <f t="shared" ref="C202:L202" si="0">SUMIF($M$2:$M$201, "*Bayview*", C$2:C$201)</f>
+        <f t="shared" ref="C202:K202" si="0">SUMIF($M$2:$M$201, "*Bayview*", C$2:C$201)</f>
         <v>-232</v>
       </c>
       <c r="D202">
@@ -10119,7 +10119,7 @@
         <v>1190</v>
       </c>
       <c r="C203">
-        <f t="shared" ref="C203:L203" si="1">SUMIF($M$2:$M$201, "*Frederick*", C$2:C$201)</f>
+        <f t="shared" ref="C203:K203" si="1">SUMIF($M$2:$M$201, "*Frederick*", C$2:C$201)</f>
         <v>-131</v>
       </c>
       <c r="D203">
@@ -10168,7 +10168,7 @@
         <v>9081</v>
       </c>
       <c r="C204">
-        <f t="shared" ref="C204:L204" si="2">SUMIF($M$2:$M$201, "*Greektown*", C$2:C$201)</f>
+        <f t="shared" ref="C204:K204" si="2">SUMIF($M$2:$M$201, "*Greektown*", C$2:C$201)</f>
         <v>-86</v>
       </c>
       <c r="D204">
@@ -10217,7 +10217,7 @@
         <v>2575</v>
       </c>
       <c r="C205">
-        <f t="shared" ref="C205:L205" si="3">SUMIF($M$2:$M$201, "*North Ave to 28th Street*", C$2:C$201)</f>
+        <f t="shared" ref="C205:K205" si="3">SUMIF($M$2:$M$201, "*North Ave to 28th Street*", C$2:C$201)</f>
         <v>43</v>
       </c>
       <c r="D205">
@@ -10266,7 +10266,7 @@
         <v>3581</v>
       </c>
       <c r="C206">
-        <f t="shared" ref="C206:L206" si="4">SUMIF($M$2:$M$201, "*Waverly Main Street*", C$2:C$201)</f>
+        <f t="shared" ref="C206:K206" si="4">SUMIF($M$2:$M$201, "*Waverly Main Street*", C$2:C$201)</f>
         <v>207</v>
       </c>
       <c r="D206">
@@ -10315,7 +10315,7 @@
         <v>3670</v>
       </c>
       <c r="C207">
-        <f t="shared" ref="C207:L207" si="5">SUMIF($M$2:$M$201, "*Highlandtown*", C$2:C$201)</f>
+        <f t="shared" ref="C207:K207" si="5">SUMIF($M$2:$M$201, "*Highlandtown*", C$2:C$201)</f>
         <v>-363</v>
       </c>
       <c r="D207">
@@ -10364,7 +10364,7 @@
         <v>1460</v>
       </c>
       <c r="C208">
-        <f t="shared" ref="C208:L208" si="6">SUMIF($M$2:$M$201, "*Hollins Market*", C$2:C$201)</f>
+        <f t="shared" ref="C208:K208" si="6">SUMIF($M$2:$M$201, "*Hollins Market*", C$2:C$201)</f>
         <v>-3</v>
       </c>
       <c r="D208">
@@ -10413,7 +10413,7 @@
         <v>1541</v>
       </c>
       <c r="C209">
-        <f t="shared" ref="C209:L209" si="7">SUMIF($M$2:$M$201, "*Liberty Heights*", C$2:C$201)</f>
+        <f t="shared" ref="C209:K209" si="7">SUMIF($M$2:$M$201, "*Liberty Heights*", C$2:C$201)</f>
         <v>25</v>
       </c>
       <c r="D209">
@@ -10462,7 +10462,7 @@
         <v>77641</v>
       </c>
       <c r="C210">
-        <f t="shared" ref="C210:L210" si="8">SUMIF($M$2:$M$201, "*Market Center*", C$2:C$201)</f>
+        <f t="shared" ref="C210:K210" si="8">SUMIF($M$2:$M$201, "*Market Center*", C$2:C$201)</f>
         <v>1760</v>
       </c>
       <c r="D210">
@@ -10511,7 +10511,7 @@
         <v>7505</v>
       </c>
       <c r="C211">
-        <f t="shared" ref="C211:L211" si="9">SUMIF($M$2:$M$201, "*Pennsylvania Ave*", C$2:C$201)</f>
+        <f t="shared" ref="C211:K211" si="9">SUMIF($M$2:$M$201, "*Pennsylvania Ave*", C$2:C$201)</f>
         <v>-213</v>
       </c>
       <c r="D211">
@@ -10560,7 +10560,7 @@
         <v>8513</v>
       </c>
       <c r="C212">
-        <f t="shared" ref="C212:L212" si="10">SUMIF($M$2:$M$201, "*Pigtown*", C$2:C$201)</f>
+        <f t="shared" ref="C212:K212" si="10">SUMIF($M$2:$M$201, "*Pigtown*", C$2:C$201)</f>
         <v>1898</v>
       </c>
       <c r="D212">
